--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-08-19</t>
+    <t>2025-08-20</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-08-20</t>
   </si>
   <si>
     <t>2025-08-21</t>
@@ -397,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -428,7 +425,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -456,21 +453,21 @@
         <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>5</v>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +481,7 @@
         <v>8.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +495,7 @@
         <v>8.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +509,7 @@
         <v>8.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>6.0</v>
@@ -540,7 +537,7 @@
         <v>20.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +551,7 @@
         <v>20.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +565,7 @@
         <v>20.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,13 +573,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +593,7 @@
         <v>23.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -610,7 +607,7 @@
         <v>23.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -624,7 +621,7 @@
         <v>23.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +635,7 @@
         <v>23.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -652,7 +649,7 @@
         <v>23.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
@@ -680,7 +677,7 @@
         <v>23.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -694,7 +691,7 @@
         <v>23.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
@@ -708,7 +705,7 @@
         <v>23.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,13 +713,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="24">
@@ -736,7 +733,7 @@
         <v>38.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="25">
@@ -750,7 +747,7 @@
         <v>38.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="26">
@@ -764,7 +761,7 @@
         <v>38.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,13 +769,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C27" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D27" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="28">
@@ -792,7 +789,7 @@
         <v>45.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +803,7 @@
         <v>45.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +814,10 @@
         <v>4.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="31">
@@ -834,7 +831,7 @@
         <v>55.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="32">
@@ -848,7 +845,7 @@
         <v>55.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="33">
@@ -862,7 +859,7 @@
         <v>55.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,13 +867,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="35">
@@ -890,7 +887,7 @@
         <v>60.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="36">
@@ -904,7 +901,7 @@
         <v>60.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,13 +909,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="38">
@@ -932,7 +929,7 @@
         <v>76.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="39">
@@ -946,7 +943,7 @@
         <v>76.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="40">
@@ -960,7 +957,7 @@
         <v>76.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,13 +965,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="42">
@@ -988,7 +985,7 @@
         <v>88.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="43">
@@ -1002,7 +999,7 @@
         <v>88.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,13 +1007,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="45">
@@ -1030,7 +1027,7 @@
         <v>119.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="46">
@@ -1044,7 +1041,7 @@
         <v>119.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1055,7 @@
         <v>119.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,13 +1063,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="49">
@@ -1086,7 +1083,7 @@
         <v>130.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="50">
@@ -1100,7 +1097,7 @@
         <v>130.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,13 +1105,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C51" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="52">
@@ -1128,7 +1125,7 @@
         <v>130.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="53">
@@ -1142,7 +1139,7 @@
         <v>130.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="54">
@@ -1156,7 +1153,7 @@
         <v>130.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,13 +1161,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="56">
@@ -1184,7 +1181,7 @@
         <v>128.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
@@ -1198,7 +1195,7 @@
         <v>128.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,13 +1203,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="59">
@@ -1226,7 +1223,7 @@
         <v>127.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="60">
@@ -1240,7 +1237,7 @@
         <v>127.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="61">
@@ -1254,7 +1251,7 @@
         <v>127.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,13 +1259,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="63">
@@ -1282,7 +1279,7 @@
         <v>126.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="64">
@@ -1296,7 +1293,7 @@
         <v>126.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,13 +1301,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="66">
@@ -1324,7 +1321,7 @@
         <v>121.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="67">
@@ -1338,7 +1335,7 @@
         <v>121.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="68">
@@ -1352,7 +1349,7 @@
         <v>121.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,13 +1357,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="70">
@@ -1380,7 +1377,7 @@
         <v>115.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="71">
@@ -1394,7 +1391,7 @@
         <v>115.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,13 +1399,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1422,7 +1419,7 @@
         <v>114.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
@@ -1436,7 +1433,7 @@
         <v>114.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="75">
@@ -1450,7 +1447,7 @@
         <v>114.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,13 +1455,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1478,7 +1475,7 @@
         <v>107.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="78">
@@ -1492,7 +1489,7 @@
         <v>107.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,13 +1497,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="80">
@@ -1520,7 +1517,7 @@
         <v>99.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="81">
@@ -1534,7 +1531,7 @@
         <v>99.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="82">
@@ -1548,7 +1545,7 @@
         <v>99.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="83">
@@ -1562,7 +1559,7 @@
         <v>99.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="84">
@@ -1576,7 +1573,7 @@
         <v>99.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="85">
@@ -1590,20 +1587,6 @@
         <v>99.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>99.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
         <v>9.0</v>
       </c>
     </row>
@@ -1622,27 +1605,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1650,13 +1633,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>22.0</v>
@@ -1664,13 +1647,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1678,13 +1661,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>101</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1692,13 +1675,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1706,13 +1689,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>4.0</v>
@@ -1720,13 +1703,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1747,16 +1730,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1774,18 +1757,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
   </si>
   <si>
     <t>Reason</t>
@@ -394,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1588,6 +1600,62 @@
       </c>
       <c r="D85" t="n" s="0">
         <v>9.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -1605,27 +1673,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1633,27 +1701,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>94</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1661,13 +1729,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1675,13 +1743,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1689,13 +1757,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>4.0</v>
@@ -1703,13 +1771,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1730,16 +1798,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1757,18 +1825,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -29,18 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
     <t>2025-08-23</t>
   </si>
   <si>
@@ -296,6 +284,15 @@
     <t>2025-11-15</t>
   </si>
   <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -332,13 +329,13 @@
     <t>Passed</t>
   </si>
   <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
     <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
   </si>
   <si>
     <t>Discovered - currently not indexed</t>
@@ -430,47 +427,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>0.0</v>
@@ -479,54 +476,54 @@
         <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
         <v>0.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>7.0</v>
@@ -535,54 +532,54 @@
         <v>20.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -591,12 +588,12 @@
         <v>23.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -605,12 +602,12 @@
         <v>23.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>4.0</v>
@@ -619,12 +616,12 @@
         <v>23.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -633,12 +630,12 @@
         <v>23.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>4.0</v>
@@ -647,12 +644,12 @@
         <v>23.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>4.0</v>
@@ -661,12 +658,12 @@
         <v>23.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>4.0</v>
@@ -675,54 +672,54 @@
         <v>23.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>11.0</v>
@@ -731,96 +728,96 @@
         <v>38.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D24" t="n" s="0">
-        <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>11.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>4.0</v>
@@ -829,96 +826,96 @@
         <v>55.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>23.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>4.0</v>
@@ -927,96 +924,96 @@
         <v>76.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>41.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>30.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>8.0</v>
@@ -1025,96 +1022,96 @@
         <v>119.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>52.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>61.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>87.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>104.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C48" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C49" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C50" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>83.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>4.0</v>
@@ -1123,96 +1120,96 @@
         <v>130.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>67.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>85.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>48.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>61.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>54.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>8.0</v>
@@ -1221,96 +1218,96 @@
         <v>127.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>46.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>74.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>60.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>61.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>51.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>36.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>14.0</v>
@@ -1319,96 +1316,96 @@
         <v>121.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>55.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>21.0</v>
@@ -1417,18 +1414,18 @@
         <v>114.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D73" t="n" s="0">
         <v>25.0</v>
@@ -1436,77 +1433,77 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>36.0</v>
@@ -1515,12 +1512,12 @@
         <v>99.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>36.0</v>
@@ -1529,12 +1526,12 @@
         <v>99.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>36.0</v>
@@ -1543,12 +1540,12 @@
         <v>99.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>36.0</v>
@@ -1557,54 +1554,54 @@
         <v>99.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>38.0</v>
@@ -1613,49 +1610,49 @@
         <v>97.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
@@ -1673,27 +1670,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1701,27 +1698,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>101</v>
-      </c>
       <c r="D3" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1729,13 +1726,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1743,41 +1740,41 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>106</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>109</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1798,16 +1795,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1825,18 +1822,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>110</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
     <t>2025-08-24</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-08-25</t>
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -427,33 +427,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>8.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>8.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>0.0</v>
@@ -462,18 +462,18 @@
         <v>8.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>6.0</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>7.0</v>
@@ -490,12 +490,12 @@
         <v>20.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>7.0</v>
@@ -504,12 +504,12 @@
         <v>20.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>7.0</v>
@@ -518,26 +518,26 @@
         <v>20.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>4.0</v>
@@ -546,12 +546,12 @@
         <v>23.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>4.0</v>
@@ -560,12 +560,12 @@
         <v>23.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>4.0</v>
@@ -574,12 +574,12 @@
         <v>23.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -588,12 +588,12 @@
         <v>23.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -602,12 +602,12 @@
         <v>23.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>4.0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -630,12 +630,12 @@
         <v>23.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>4.0</v>
@@ -644,12 +644,12 @@
         <v>23.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>4.0</v>
@@ -658,26 +658,26 @@
         <v>23.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>11.0</v>
@@ -686,12 +686,12 @@
         <v>38.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>11.0</v>
@@ -700,12 +700,12 @@
         <v>38.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>11.0</v>
@@ -714,26 +714,26 @@
         <v>38.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D23" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>4.0</v>
@@ -742,12 +742,12 @@
         <v>45.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>4.0</v>
@@ -756,26 +756,26 @@
         <v>45.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>4.0</v>
@@ -784,12 +784,12 @@
         <v>55.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>4.0</v>
@@ -798,12 +798,12 @@
         <v>55.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>4.0</v>
@@ -812,26 +812,26 @@
         <v>55.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>9.0</v>
@@ -840,12 +840,12 @@
         <v>60.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>9.0</v>
@@ -854,26 +854,26 @@
         <v>60.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>4.0</v>
@@ -882,12 +882,12 @@
         <v>76.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>4.0</v>
@@ -896,12 +896,12 @@
         <v>76.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>4.0</v>
@@ -910,26 +910,26 @@
         <v>76.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>14.0</v>
@@ -938,12 +938,12 @@
         <v>88.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>14.0</v>
@@ -952,26 +952,26 @@
         <v>88.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>8.0</v>
@@ -980,12 +980,12 @@
         <v>119.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>8.0</v>
@@ -994,12 +994,12 @@
         <v>119.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>8.0</v>
@@ -1008,26 +1008,26 @@
         <v>119.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>147.0</v>
@@ -1036,12 +1036,12 @@
         <v>130.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>147.0</v>
@@ -1050,26 +1050,26 @@
         <v>130.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C47" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>4.0</v>
@@ -1078,12 +1078,12 @@
         <v>130.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>4.0</v>
@@ -1092,12 +1092,12 @@
         <v>130.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>4.0</v>
@@ -1106,26 +1106,26 @@
         <v>130.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>7.0</v>
@@ -1134,12 +1134,12 @@
         <v>128.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>7.0</v>
@@ -1148,26 +1148,26 @@
         <v>128.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>8.0</v>
@@ -1176,12 +1176,12 @@
         <v>127.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>8.0</v>
@@ -1190,12 +1190,12 @@
         <v>127.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>8.0</v>
@@ -1204,26 +1204,26 @@
         <v>127.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>9.0</v>
@@ -1232,12 +1232,12 @@
         <v>126.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>9.0</v>
@@ -1246,26 +1246,26 @@
         <v>126.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>14.0</v>
@@ -1274,12 +1274,12 @@
         <v>121.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>14.0</v>
@@ -1288,12 +1288,12 @@
         <v>121.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>14.0</v>
@@ -1302,26 +1302,26 @@
         <v>121.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>20.0</v>
@@ -1330,12 +1330,12 @@
         <v>115.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>20.0</v>
@@ -1344,26 +1344,26 @@
         <v>115.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1372,12 +1372,12 @@
         <v>114.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>21.0</v>
@@ -1386,12 +1386,12 @@
         <v>114.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>21.0</v>
@@ -1400,26 +1400,26 @@
         <v>114.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>28.0</v>
@@ -1428,12 +1428,12 @@
         <v>107.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>28.0</v>
@@ -1442,26 +1442,26 @@
         <v>107.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>36.0</v>
@@ -1470,12 +1470,12 @@
         <v>99.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>36.0</v>
@@ -1484,12 +1484,12 @@
         <v>99.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>36.0</v>
@@ -1498,12 +1498,12 @@
         <v>99.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>36.0</v>
@@ -1512,12 +1512,12 @@
         <v>99.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>36.0</v>
@@ -1526,12 +1526,12 @@
         <v>99.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>36.0</v>
@@ -1540,26 +1540,26 @@
         <v>99.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>38.0</v>
@@ -1568,12 +1568,12 @@
         <v>97.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>38.0</v>
@@ -1582,12 +1582,12 @@
         <v>97.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>38.0</v>
@@ -1596,26 +1596,26 @@
         <v>97.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>43.0</v>
@@ -1624,12 +1624,12 @@
         <v>92.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>43.0</v>
@@ -1638,20 +1638,6 @@
         <v>92.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-08-24</t>
+    <t>2025-08-25</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-08-25</t>
   </si>
   <si>
     <t>2025-08-26</t>
@@ -403,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -434,21 +431,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -456,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>6.0</v>
@@ -476,7 +473,7 @@
         <v>20.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +487,7 @@
         <v>20.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +501,7 @@
         <v>20.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -512,13 +509,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +529,7 @@
         <v>23.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +543,7 @@
         <v>23.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,7 +557,7 @@
         <v>23.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -574,7 +571,7 @@
         <v>23.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -588,7 +585,7 @@
         <v>23.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +613,7 @@
         <v>23.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -630,7 +627,7 @@
         <v>23.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
@@ -644,7 +641,7 @@
         <v>23.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -652,13 +649,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="19">
@@ -672,7 +669,7 @@
         <v>38.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
@@ -686,7 +683,7 @@
         <v>38.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
@@ -700,7 +697,7 @@
         <v>38.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="22">
@@ -708,13 +705,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D22" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +725,7 @@
         <v>45.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +739,7 @@
         <v>45.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
@@ -753,10 +750,10 @@
         <v>4.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
@@ -770,7 +767,7 @@
         <v>55.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="27">
@@ -784,7 +781,7 @@
         <v>55.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +795,7 @@
         <v>55.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="29">
@@ -806,13 +803,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="30">
@@ -826,7 +823,7 @@
         <v>60.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="31">
@@ -840,7 +837,7 @@
         <v>60.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="32">
@@ -848,13 +845,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="33">
@@ -868,7 +865,7 @@
         <v>76.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="34">
@@ -882,7 +879,7 @@
         <v>76.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="35">
@@ -896,7 +893,7 @@
         <v>76.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="36">
@@ -904,13 +901,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="37">
@@ -924,7 +921,7 @@
         <v>88.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="38">
@@ -938,7 +935,7 @@
         <v>88.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -946,13 +943,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="40">
@@ -966,7 +963,7 @@
         <v>119.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="41">
@@ -980,7 +977,7 @@
         <v>119.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="42">
@@ -994,7 +991,7 @@
         <v>119.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="43">
@@ -1002,13 +999,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="44">
@@ -1022,7 +1019,7 @@
         <v>130.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="45">
@@ -1036,7 +1033,7 @@
         <v>130.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="46">
@@ -1044,13 +1041,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C46" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="47">
@@ -1064,7 +1061,7 @@
         <v>130.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="48">
@@ -1078,7 +1075,7 @@
         <v>130.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="49">
@@ -1092,7 +1089,7 @@
         <v>130.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="50">
@@ -1100,13 +1097,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="51">
@@ -1120,7 +1117,7 @@
         <v>128.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="52">
@@ -1134,7 +1131,7 @@
         <v>128.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="53">
@@ -1142,13 +1139,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="54">
@@ -1162,7 +1159,7 @@
         <v>127.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="55">
@@ -1176,7 +1173,7 @@
         <v>127.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="56">
@@ -1190,7 +1187,7 @@
         <v>127.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="57">
@@ -1198,13 +1195,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
@@ -1218,7 +1215,7 @@
         <v>126.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="59">
@@ -1232,7 +1229,7 @@
         <v>126.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="60">
@@ -1240,13 +1237,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="61">
@@ -1260,7 +1257,7 @@
         <v>121.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="62">
@@ -1274,7 +1271,7 @@
         <v>121.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="63">
@@ -1288,7 +1285,7 @@
         <v>121.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="64">
@@ -1296,13 +1293,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="65">
@@ -1316,7 +1313,7 @@
         <v>115.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="66">
@@ -1330,7 +1327,7 @@
         <v>115.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="67">
@@ -1338,13 +1335,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
@@ -1358,7 +1355,7 @@
         <v>114.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
@@ -1372,7 +1369,7 @@
         <v>114.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,7 +1383,7 @@
         <v>114.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="71">
@@ -1394,13 +1391,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -1414,7 +1411,7 @@
         <v>107.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -1428,7 +1425,7 @@
         <v>107.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1436,13 +1433,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="75">
@@ -1456,7 +1453,7 @@
         <v>99.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="76">
@@ -1470,7 +1467,7 @@
         <v>99.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,7 +1481,7 @@
         <v>99.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,7 +1495,7 @@
         <v>99.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="79">
@@ -1512,7 +1509,7 @@
         <v>99.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="80">
@@ -1526,7 +1523,7 @@
         <v>99.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="81">
@@ -1534,13 +1531,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="82">
@@ -1554,7 +1551,7 @@
         <v>97.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="83">
@@ -1568,7 +1565,7 @@
         <v>97.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="84">
@@ -1582,7 +1579,7 @@
         <v>97.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="85">
@@ -1590,13 +1587,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="86">
@@ -1610,7 +1607,7 @@
         <v>92.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="87">
@@ -1624,20 +1621,6 @@
         <v>92.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>
@@ -1656,27 +1639,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1684,13 +1667,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>25.0</v>
@@ -1698,13 +1681,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1712,13 +1695,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1726,13 +1709,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>105</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1740,13 +1723,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1754,13 +1737,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>108</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1781,16 +1764,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1808,18 +1791,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-08-25</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-08-26</t>
@@ -400,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -424,25 +418,25 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>6.0</v>
@@ -450,7 +444,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>7.0</v>
@@ -459,12 +453,12 @@
         <v>20.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>7.0</v>
@@ -473,12 +467,12 @@
         <v>20.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>7.0</v>
@@ -487,26 +481,26 @@
         <v>20.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>4.0</v>
@@ -515,12 +509,12 @@
         <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>4.0</v>
@@ -529,12 +523,12 @@
         <v>23.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>4.0</v>
@@ -543,12 +537,12 @@
         <v>23.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>4.0</v>
@@ -557,12 +551,12 @@
         <v>23.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>4.0</v>
@@ -571,12 +565,12 @@
         <v>23.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -590,7 +584,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -599,12 +593,12 @@
         <v>23.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>4.0</v>
@@ -613,12 +607,12 @@
         <v>23.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -627,26 +621,26 @@
         <v>23.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>11.0</v>
@@ -655,12 +649,12 @@
         <v>38.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>11.0</v>
@@ -669,12 +663,12 @@
         <v>38.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>11.0</v>
@@ -683,26 +677,26 @@
         <v>38.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C21" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D21" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>4.0</v>
@@ -711,12 +705,12 @@
         <v>45.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>4.0</v>
@@ -725,26 +719,26 @@
         <v>45.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>4.0</v>
@@ -753,12 +747,12 @@
         <v>55.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>4.0</v>
@@ -767,12 +761,12 @@
         <v>55.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>4.0</v>
@@ -781,26 +775,26 @@
         <v>55.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>9.0</v>
@@ -809,12 +803,12 @@
         <v>60.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>9.0</v>
@@ -823,26 +817,26 @@
         <v>60.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>4.0</v>
@@ -851,12 +845,12 @@
         <v>76.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>4.0</v>
@@ -865,12 +859,12 @@
         <v>76.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>4.0</v>
@@ -879,26 +873,26 @@
         <v>76.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>14.0</v>
@@ -907,12 +901,12 @@
         <v>88.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>14.0</v>
@@ -921,26 +915,26 @@
         <v>88.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>8.0</v>
@@ -949,12 +943,12 @@
         <v>119.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>8.0</v>
@@ -963,12 +957,12 @@
         <v>119.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>8.0</v>
@@ -977,26 +971,26 @@
         <v>119.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>147.0</v>
@@ -1005,12 +999,12 @@
         <v>130.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>147.0</v>
@@ -1019,26 +1013,26 @@
         <v>130.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C45" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>4.0</v>
@@ -1047,12 +1041,12 @@
         <v>130.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>4.0</v>
@@ -1061,12 +1055,12 @@
         <v>130.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>4.0</v>
@@ -1075,26 +1069,26 @@
         <v>130.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>7.0</v>
@@ -1103,12 +1097,12 @@
         <v>128.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>7.0</v>
@@ -1117,26 +1111,26 @@
         <v>128.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>8.0</v>
@@ -1145,12 +1139,12 @@
         <v>127.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>8.0</v>
@@ -1159,12 +1153,12 @@
         <v>127.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>8.0</v>
@@ -1173,26 +1167,26 @@
         <v>127.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>9.0</v>
@@ -1201,12 +1195,12 @@
         <v>126.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>9.0</v>
@@ -1215,26 +1209,26 @@
         <v>126.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>14.0</v>
@@ -1243,12 +1237,12 @@
         <v>121.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>14.0</v>
@@ -1257,12 +1251,12 @@
         <v>121.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>14.0</v>
@@ -1271,26 +1265,26 @@
         <v>121.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>20.0</v>
@@ -1299,12 +1293,12 @@
         <v>115.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>20.0</v>
@@ -1313,26 +1307,26 @@
         <v>115.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>21.0</v>
@@ -1341,12 +1335,12 @@
         <v>114.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>21.0</v>
@@ -1355,12 +1349,12 @@
         <v>114.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>21.0</v>
@@ -1369,26 +1363,26 @@
         <v>114.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>28.0</v>
@@ -1397,12 +1391,12 @@
         <v>107.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>28.0</v>
@@ -1411,26 +1405,26 @@
         <v>107.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>36.0</v>
@@ -1439,12 +1433,12 @@
         <v>99.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>36.0</v>
@@ -1453,12 +1447,12 @@
         <v>99.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>36.0</v>
@@ -1467,12 +1461,12 @@
         <v>99.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>36.0</v>
@@ -1481,12 +1475,12 @@
         <v>99.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>36.0</v>
@@ -1495,12 +1489,12 @@
         <v>99.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>36.0</v>
@@ -1509,26 +1503,26 @@
         <v>99.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>38.0</v>
@@ -1537,12 +1531,12 @@
         <v>97.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>38.0</v>
@@ -1551,12 +1545,12 @@
         <v>97.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>38.0</v>
@@ -1565,26 +1559,26 @@
         <v>97.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>43.0</v>
@@ -1593,12 +1587,12 @@
         <v>92.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>43.0</v>
@@ -1607,20 +1601,6 @@
         <v>92.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>
@@ -1639,27 +1619,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1667,13 +1647,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>25.0</v>
@@ -1681,13 +1661,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1695,13 +1675,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1709,13 +1689,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1723,13 +1703,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1737,13 +1717,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1764,16 +1744,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1791,18 +1771,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -29,22 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-08-26</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>2025-08-30</t>
-  </si>
-  <si>
     <t>2025-08-31</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-09-01</t>
@@ -394,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -418,25 +406,25 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>8.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>20.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>6.0</v>
@@ -444,41 +432,41 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>3.0</v>
@@ -486,7 +474,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>4.0</v>
@@ -495,12 +483,12 @@
         <v>23.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>4.0</v>
@@ -509,12 +497,12 @@
         <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>4.0</v>
@@ -523,12 +511,12 @@
         <v>23.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>4.0</v>
@@ -537,12 +525,12 @@
         <v>23.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>4.0</v>
@@ -551,158 +539,158 @@
         <v>23.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>23.0</v>
+        <v>45.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>17.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D22" t="n" s="0">
         <v>46.0</v>
@@ -710,707 +698,707 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>55.0</v>
+        <v>76.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>55.0</v>
+        <v>76.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>46.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>44.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>60.0</v>
+        <v>88.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>35.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>76.0</v>
+        <v>119.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>76.0</v>
+        <v>119.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>43.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>50.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>41.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>14.0</v>
+        <v>147.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>88.0</v>
+        <v>130.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>30.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>52.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>61.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>87.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>104.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>77.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C43" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>67.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>147.0</v>
+        <v>7.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>83.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>85.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>130.0</v>
+        <v>127.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>130.0</v>
+        <v>127.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>52.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>54.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>128.0</v>
+        <v>126.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>74.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>127.0</v>
+        <v>121.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>127.0</v>
+        <v>121.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>61.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>51.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>126.0</v>
+        <v>115.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>55.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>121.0</v>
+        <v>114.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>56.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>121.0</v>
+        <v>114.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>114.0</v>
+        <v>99.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>21.0</v>
+        <v>36.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>114.0</v>
+        <v>99.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>36.0</v>
@@ -1424,7 +1412,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>36.0</v>
@@ -1433,88 +1421,88 @@
         <v>99.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>36.0</v>
+        <v>43.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>99.0</v>
+        <v>92.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D80" t="n" s="0">
         <v>16.0</v>
@@ -1522,85 +1510,15 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="C82" t="n" s="0">
-        <v>97.0</v>
-      </c>
-      <c r="D82" t="n" s="0">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B83" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="C83" t="n" s="0">
-        <v>97.0</v>
-      </c>
-      <c r="D83" t="n" s="0">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B84" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C84" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D84" t="n" s="0">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C85" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D85" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>
@@ -1619,27 +1537,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1647,13 +1565,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>25.0</v>
@@ -1661,13 +1579,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1675,13 +1593,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1689,13 +1607,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1703,13 +1621,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1717,13 +1635,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1744,16 +1662,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1771,18 +1689,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-08-31</t>
+    <t>2025-09-01</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-01</t>
   </si>
   <si>
     <t>2025-09-02</t>
@@ -382,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -413,21 +410,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>23.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -441,7 +438,7 @@
         <v>23.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -455,7 +452,7 @@
         <v>23.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +466,7 @@
         <v>23.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +494,7 @@
         <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +508,7 @@
         <v>23.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +522,7 @@
         <v>23.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -533,13 +530,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +550,7 @@
         <v>38.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +564,7 @@
         <v>38.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -581,7 +578,7 @@
         <v>38.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
@@ -589,13 +586,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +606,7 @@
         <v>45.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +620,7 @@
         <v>45.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,10 +631,10 @@
         <v>4.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +648,7 @@
         <v>55.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="20">
@@ -665,7 +662,7 @@
         <v>55.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="21">
@@ -679,7 +676,7 @@
         <v>55.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
@@ -687,13 +684,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="23">
@@ -707,7 +704,7 @@
         <v>60.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="24">
@@ -721,7 +718,7 @@
         <v>60.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
@@ -729,13 +726,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +746,7 @@
         <v>76.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="27">
@@ -763,7 +760,7 @@
         <v>76.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="28">
@@ -777,7 +774,7 @@
         <v>76.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="29">
@@ -785,13 +782,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="30">
@@ -805,7 +802,7 @@
         <v>88.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="31">
@@ -819,7 +816,7 @@
         <v>88.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="32">
@@ -827,13 +824,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="33">
@@ -847,7 +844,7 @@
         <v>119.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="34">
@@ -861,7 +858,7 @@
         <v>119.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="35">
@@ -875,7 +872,7 @@
         <v>119.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="36">
@@ -883,13 +880,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="37">
@@ -903,7 +900,7 @@
         <v>130.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="38">
@@ -917,7 +914,7 @@
         <v>130.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="39">
@@ -925,13 +922,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="40">
@@ -945,7 +942,7 @@
         <v>130.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="41">
@@ -959,7 +956,7 @@
         <v>130.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="42">
@@ -973,7 +970,7 @@
         <v>130.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="43">
@@ -981,13 +978,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +998,7 @@
         <v>128.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="45">
@@ -1015,7 +1012,7 @@
         <v>128.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="46">
@@ -1023,13 +1020,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="47">
@@ -1043,7 +1040,7 @@
         <v>127.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="48">
@@ -1057,7 +1054,7 @@
         <v>127.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1068,7 @@
         <v>127.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="50">
@@ -1079,13 +1076,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="51">
@@ -1099,7 +1096,7 @@
         <v>126.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="52">
@@ -1113,7 +1110,7 @@
         <v>126.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="53">
@@ -1121,13 +1118,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="54">
@@ -1141,7 +1138,7 @@
         <v>121.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="55">
@@ -1155,7 +1152,7 @@
         <v>121.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="56">
@@ -1169,7 +1166,7 @@
         <v>121.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="57">
@@ -1177,13 +1174,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="58">
@@ -1197,7 +1194,7 @@
         <v>115.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="59">
@@ -1211,7 +1208,7 @@
         <v>115.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="60">
@@ -1219,13 +1216,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="61">
@@ -1239,7 +1236,7 @@
         <v>114.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1250,7 @@
         <v>114.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1267,7 +1264,7 @@
         <v>114.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="64">
@@ -1275,13 +1272,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -1295,7 +1292,7 @@
         <v>107.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -1309,7 +1306,7 @@
         <v>107.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
@@ -1317,13 +1314,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="68">
@@ -1337,7 +1334,7 @@
         <v>99.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="69">
@@ -1351,7 +1348,7 @@
         <v>99.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="70">
@@ -1365,7 +1362,7 @@
         <v>99.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="71">
@@ -1379,7 +1376,7 @@
         <v>99.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="72">
@@ -1393,7 +1390,7 @@
         <v>99.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="73">
@@ -1407,7 +1404,7 @@
         <v>99.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="74">
@@ -1415,13 +1412,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="75">
@@ -1435,7 +1432,7 @@
         <v>97.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="76">
@@ -1449,7 +1446,7 @@
         <v>97.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="77">
@@ -1463,7 +1460,7 @@
         <v>97.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="78">
@@ -1471,13 +1468,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="79">
@@ -1491,7 +1488,7 @@
         <v>92.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="80">
@@ -1505,20 +1502,6 @@
         <v>92.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C81" t="n" s="0">
-        <v>92.0</v>
-      </c>
-      <c r="D81" t="n" s="0">
         <v>20.0</v>
       </c>
     </row>
@@ -1537,27 +1520,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1565,13 +1548,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>93</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>25.0</v>
@@ -1579,13 +1562,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1593,13 +1576,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1607,13 +1590,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1621,13 +1604,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1635,13 +1618,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>101</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1662,16 +1645,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1689,18 +1672,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -29,18 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-01</t>
+    <t>2025-09-03</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
-    <t>2025-09-03</t>
-  </si>
-  <si>
     <t>2025-09-04</t>
   </si>
   <si>
@@ -269,6 +263,18 @@
     <t>2025-11-18</t>
   </si>
   <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -305,13 +311,13 @@
     <t>Passed</t>
   </si>
   <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
     <t>Crawled - currently not indexed</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
     <t>Discovered - currently not indexed</t>
@@ -379,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -417,28 +423,28 @@
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>23.0</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>23.0</v>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +458,7 @@
         <v>23.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +472,7 @@
         <v>23.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +486,7 @@
         <v>23.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +500,7 @@
         <v>23.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +508,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +522,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +542,7 @@
         <v>38.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +556,7 @@
         <v>38.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -558,13 +564,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -572,13 +578,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
@@ -592,7 +598,7 @@
         <v>45.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +609,10 @@
         <v>4.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
@@ -617,10 +623,10 @@
         <v>4.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +640,7 @@
         <v>55.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="19">
@@ -648,7 +654,7 @@
         <v>55.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="20">
@@ -656,13 +662,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="21">
@@ -670,13 +676,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
@@ -690,7 +696,7 @@
         <v>60.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
@@ -698,13 +704,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="24">
@@ -712,13 +718,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="25">
@@ -732,7 +738,7 @@
         <v>76.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +752,7 @@
         <v>76.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="27">
@@ -754,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="28">
@@ -768,13 +774,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="29">
@@ -788,7 +794,7 @@
         <v>88.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="30">
@@ -796,13 +802,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="31">
@@ -810,13 +816,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="32">
@@ -830,7 +836,7 @@
         <v>119.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="33">
@@ -844,7 +850,7 @@
         <v>119.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="34">
@@ -852,13 +858,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="35">
@@ -866,13 +872,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="36">
@@ -886,7 +892,7 @@
         <v>130.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="37">
@@ -894,7 +900,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n" s="0">
         <v>130.0</v>
@@ -908,13 +914,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="39">
@@ -928,7 +934,7 @@
         <v>130.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="40">
@@ -942,7 +948,7 @@
         <v>130.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="41">
@@ -950,13 +956,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="42">
@@ -964,13 +970,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="43">
@@ -984,7 +990,7 @@
         <v>128.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="44">
@@ -992,13 +998,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="45">
@@ -1006,13 +1012,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="46">
@@ -1026,7 +1032,7 @@
         <v>127.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1046,7 @@
         <v>127.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="48">
@@ -1048,13 +1054,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="49">
@@ -1062,13 +1068,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="50">
@@ -1082,7 +1088,7 @@
         <v>126.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="51">
@@ -1090,13 +1096,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="52">
@@ -1104,13 +1110,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="53">
@@ -1124,7 +1130,7 @@
         <v>121.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="54">
@@ -1138,7 +1144,7 @@
         <v>121.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="55">
@@ -1146,13 +1152,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="56">
@@ -1160,13 +1166,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="57">
@@ -1180,7 +1186,7 @@
         <v>115.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="58">
@@ -1188,13 +1194,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -1202,13 +1208,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="60">
@@ -1222,7 +1228,7 @@
         <v>114.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1236,7 +1242,7 @@
         <v>114.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="62">
@@ -1244,13 +1250,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
@@ -1258,13 +1264,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1278,7 +1284,7 @@
         <v>107.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="65">
@@ -1286,13 +1292,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="66">
@@ -1300,13 +1306,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="67">
@@ -1320,7 +1326,7 @@
         <v>99.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="68">
@@ -1334,7 +1340,7 @@
         <v>99.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="69">
@@ -1348,7 +1354,7 @@
         <v>99.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="70">
@@ -1362,7 +1368,7 @@
         <v>99.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="71">
@@ -1376,7 +1382,7 @@
         <v>99.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="72">
@@ -1384,13 +1390,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="73">
@@ -1398,13 +1404,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="74">
@@ -1418,7 +1424,7 @@
         <v>97.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="75">
@@ -1432,7 +1438,7 @@
         <v>97.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="76">
@@ -1440,13 +1446,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="77">
@@ -1454,13 +1460,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="78">
@@ -1474,7 +1480,7 @@
         <v>92.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="79">
@@ -1482,13 +1488,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="80">
@@ -1496,13 +1502,41 @@
         <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>14.0</v>
       </c>
     </row>
   </sheetData>
@@ -1520,27 +1554,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1548,27 +1582,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>89</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1576,13 +1610,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1590,27 +1624,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>95</v>
-      </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1618,13 +1652,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C8" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1645,16 +1679,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1672,18 +1706,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-03</t>
+    <t>2025-09-04</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-04</t>
   </si>
   <si>
     <t>2025-09-05</t>
@@ -385,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -416,7 +413,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -430,18 +427,18 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>23.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>8.0</v>
@@ -458,7 +455,7 @@
         <v>23.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +469,7 @@
         <v>23.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +483,7 @@
         <v>23.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -494,13 +491,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +511,7 @@
         <v>38.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +525,7 @@
         <v>38.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +539,7 @@
         <v>38.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -550,13 +547,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -570,7 +567,7 @@
         <v>45.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,7 +581,7 @@
         <v>45.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
@@ -595,10 +592,10 @@
         <v>4.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +609,7 @@
         <v>55.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +623,7 @@
         <v>55.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,7 +637,7 @@
         <v>55.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="19">
@@ -648,13 +645,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="20">
@@ -668,7 +665,7 @@
         <v>60.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21">
@@ -682,7 +679,7 @@
         <v>60.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="22">
@@ -690,13 +687,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
@@ -710,7 +707,7 @@
         <v>76.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="24">
@@ -724,7 +721,7 @@
         <v>76.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="25">
@@ -738,7 +735,7 @@
         <v>76.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="26">
@@ -746,13 +743,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="27">
@@ -766,7 +763,7 @@
         <v>88.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="28">
@@ -780,7 +777,7 @@
         <v>88.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="29">
@@ -788,13 +785,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="30">
@@ -808,7 +805,7 @@
         <v>119.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="31">
@@ -822,7 +819,7 @@
         <v>119.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +833,7 @@
         <v>119.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="33">
@@ -844,13 +841,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="34">
@@ -864,7 +861,7 @@
         <v>130.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="35">
@@ -878,7 +875,7 @@
         <v>130.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="36">
@@ -886,13 +883,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C36" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="37">
@@ -906,7 +903,7 @@
         <v>130.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="38">
@@ -920,7 +917,7 @@
         <v>130.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="39">
@@ -934,7 +931,7 @@
         <v>130.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="40">
@@ -942,13 +939,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +959,7 @@
         <v>128.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="42">
@@ -976,7 +973,7 @@
         <v>128.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="43">
@@ -984,13 +981,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1001,7 @@
         <v>127.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="45">
@@ -1018,7 +1015,7 @@
         <v>127.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1029,7 @@
         <v>127.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="47">
@@ -1040,13 +1037,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1057,7 @@
         <v>126.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="49">
@@ -1074,7 +1071,7 @@
         <v>126.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="50">
@@ -1082,13 +1079,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="51">
@@ -1102,7 +1099,7 @@
         <v>121.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="52">
@@ -1116,7 +1113,7 @@
         <v>121.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="53">
@@ -1130,7 +1127,7 @@
         <v>121.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="54">
@@ -1138,13 +1135,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="55">
@@ -1158,7 +1155,7 @@
         <v>115.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="56">
@@ -1172,7 +1169,7 @@
         <v>115.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="57">
@@ -1180,13 +1177,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
@@ -1200,7 +1197,7 @@
         <v>114.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
@@ -1214,7 +1211,7 @@
         <v>114.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,7 +1225,7 @@
         <v>114.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="61">
@@ -1236,13 +1233,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -1256,7 +1253,7 @@
         <v>107.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1270,7 +1267,7 @@
         <v>107.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="64">
@@ -1278,13 +1275,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="65">
@@ -1298,7 +1295,7 @@
         <v>99.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="66">
@@ -1312,7 +1309,7 @@
         <v>99.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,7 +1323,7 @@
         <v>99.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="68">
@@ -1340,7 +1337,7 @@
         <v>99.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="69">
@@ -1354,7 +1351,7 @@
         <v>99.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,7 +1365,7 @@
         <v>99.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="71">
@@ -1376,13 +1373,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="72">
@@ -1396,7 +1393,7 @@
         <v>97.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="73">
@@ -1410,7 +1407,7 @@
         <v>97.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,7 +1421,7 @@
         <v>97.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="75">
@@ -1432,13 +1429,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="76">
@@ -1452,7 +1449,7 @@
         <v>92.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,7 +1463,7 @@
         <v>92.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="78">
@@ -1474,13 +1471,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="79">
@@ -1494,7 +1491,7 @@
         <v>89.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="80">
@@ -1508,7 +1505,7 @@
         <v>89.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,20 +1519,6 @@
         <v>89.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B82" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C82" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D82" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1554,27 +1537,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1582,13 +1565,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>30.0</v>
@@ -1596,13 +1579,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1610,13 +1593,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1624,13 +1607,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>99</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1638,13 +1621,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1652,13 +1635,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>102</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1679,16 +1662,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1706,18 +1689,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-04</t>
+    <t>2025-09-05</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-05</t>
   </si>
   <si>
     <t>2025-09-06</t>
@@ -382,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -413,18 +410,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>23.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>8.0</v>
@@ -441,7 +438,7 @@
         <v>23.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -455,7 +452,7 @@
         <v>23.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +466,7 @@
         <v>23.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -477,13 +474,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +494,7 @@
         <v>38.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +508,7 @@
         <v>38.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +522,7 @@
         <v>38.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -533,13 +530,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +550,7 @@
         <v>45.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +564,7 @@
         <v>45.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="14">
@@ -578,10 +575,10 @@
         <v>4.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -595,7 +592,7 @@
         <v>55.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +606,7 @@
         <v>55.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +620,7 @@
         <v>55.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,13 +628,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +648,7 @@
         <v>60.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="20">
@@ -665,7 +662,7 @@
         <v>60.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="21">
@@ -673,13 +670,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
@@ -693,7 +690,7 @@
         <v>76.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
@@ -707,7 +704,7 @@
         <v>76.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
@@ -721,7 +718,7 @@
         <v>76.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="25">
@@ -729,13 +726,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +746,7 @@
         <v>88.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="27">
@@ -763,7 +760,7 @@
         <v>88.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28">
@@ -771,13 +768,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +788,7 @@
         <v>119.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="30">
@@ -805,7 +802,7 @@
         <v>119.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="31">
@@ -819,7 +816,7 @@
         <v>119.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="32">
@@ -827,13 +824,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="33">
@@ -847,7 +844,7 @@
         <v>130.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="34">
@@ -861,7 +858,7 @@
         <v>130.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="35">
@@ -869,13 +866,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C35" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="36">
@@ -889,7 +886,7 @@
         <v>130.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="37">
@@ -903,7 +900,7 @@
         <v>130.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="38">
@@ -917,7 +914,7 @@
         <v>130.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="39">
@@ -925,13 +922,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="40">
@@ -945,7 +942,7 @@
         <v>128.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="41">
@@ -959,7 +956,7 @@
         <v>128.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="42">
@@ -967,13 +964,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="43">
@@ -987,7 +984,7 @@
         <v>127.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +998,7 @@
         <v>127.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="45">
@@ -1015,7 +1012,7 @@
         <v>127.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="46">
@@ -1023,13 +1020,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="47">
@@ -1043,7 +1040,7 @@
         <v>126.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="48">
@@ -1057,7 +1054,7 @@
         <v>126.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="49">
@@ -1065,13 +1062,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="50">
@@ -1085,7 +1082,7 @@
         <v>121.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="51">
@@ -1099,7 +1096,7 @@
         <v>121.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="52">
@@ -1113,7 +1110,7 @@
         <v>121.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="53">
@@ -1121,13 +1118,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="54">
@@ -1141,7 +1138,7 @@
         <v>115.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="55">
@@ -1155,7 +1152,7 @@
         <v>115.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="56">
@@ -1163,13 +1160,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -1183,7 +1180,7 @@
         <v>114.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -1197,7 +1194,7 @@
         <v>114.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1211,7 +1208,7 @@
         <v>114.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="60">
@@ -1219,13 +1216,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="61">
@@ -1239,7 +1236,7 @@
         <v>107.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1253,7 +1250,7 @@
         <v>107.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
@@ -1261,13 +1258,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="64">
@@ -1281,7 +1278,7 @@
         <v>99.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="65">
@@ -1295,7 +1292,7 @@
         <v>99.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="66">
@@ -1309,7 +1306,7 @@
         <v>99.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="67">
@@ -1323,7 +1320,7 @@
         <v>99.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="68">
@@ -1337,7 +1334,7 @@
         <v>99.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
@@ -1351,7 +1348,7 @@
         <v>99.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="70">
@@ -1359,13 +1356,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="71">
@@ -1379,7 +1376,7 @@
         <v>97.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="72">
@@ -1393,7 +1390,7 @@
         <v>97.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="73">
@@ -1407,7 +1404,7 @@
         <v>97.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="74">
@@ -1415,13 +1412,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="75">
@@ -1435,7 +1432,7 @@
         <v>92.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="76">
@@ -1449,7 +1446,7 @@
         <v>92.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="77">
@@ -1457,13 +1454,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="78">
@@ -1477,7 +1474,7 @@
         <v>89.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="79">
@@ -1491,7 +1488,7 @@
         <v>89.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="80">
@@ -1505,20 +1502,6 @@
         <v>89.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C81" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D81" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1537,27 +1520,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1565,13 +1548,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>93</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>30.0</v>
@@ -1579,13 +1562,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1593,13 +1576,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1607,13 +1590,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1621,13 +1604,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1635,13 +1618,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>101</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1662,16 +1645,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1689,18 +1672,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -29,19 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-05</t>
+    <t>2025-09-08</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-06</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>2025-09-08</t>
   </si>
   <si>
     <t>2025-09-09</t>
@@ -379,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -410,7 +401,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +415,7 @@
         <v>23.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +423,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +437,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +451,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +471,7 @@
         <v>38.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +479,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +493,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>11.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +507,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>18.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="11">
@@ -533,10 +524,10 @@
         <v>4.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
@@ -547,10 +538,10 @@
         <v>4.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="13">
@@ -561,10 +552,10 @@
         <v>4.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
@@ -578,7 +569,7 @@
         <v>55.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>23.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
@@ -586,13 +577,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="16">
@@ -600,13 +591,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="17">
@@ -614,13 +605,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="18">
@@ -628,13 +619,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,13 +633,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="20">
@@ -656,13 +647,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="21">
@@ -676,7 +667,7 @@
         <v>76.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="22">
@@ -684,13 +675,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="23">
@@ -698,13 +689,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="24">
@@ -712,13 +703,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="25">
@@ -726,13 +717,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="26">
@@ -740,13 +731,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>41.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="27">
@@ -754,13 +745,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>30.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="28">
@@ -774,7 +765,7 @@
         <v>119.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>52.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="29">
@@ -782,13 +773,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>61.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="30">
@@ -796,13 +787,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>87.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="31">
@@ -810,13 +801,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>104.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="32">
@@ -824,13 +815,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C32" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="33">
@@ -838,13 +829,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C33" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="34">
@@ -852,13 +843,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C34" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>83.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="35">
@@ -872,7 +863,7 @@
         <v>130.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>67.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="36">
@@ -880,13 +871,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>85.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="37">
@@ -894,13 +885,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>48.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="38">
@@ -908,13 +899,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="39">
@@ -922,13 +913,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>61.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="40">
@@ -936,13 +927,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>54.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="41">
@@ -950,13 +941,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="42">
@@ -970,7 +961,7 @@
         <v>127.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>46.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="43">
@@ -978,13 +969,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>74.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="44">
@@ -992,13 +983,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>60.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="45">
@@ -1006,13 +997,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>61.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="46">
@@ -1020,13 +1011,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="47">
@@ -1034,13 +1025,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>51.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="48">
@@ -1048,13 +1039,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>36.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="49">
@@ -1068,7 +1059,7 @@
         <v>121.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>55.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="50">
@@ -1076,13 +1067,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="51">
@@ -1090,13 +1081,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="52">
@@ -1104,13 +1095,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="53">
@@ -1118,13 +1109,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="54">
@@ -1132,13 +1123,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="55">
@@ -1146,13 +1137,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -1166,7 +1157,7 @@
         <v>114.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="57">
@@ -1174,10 +1165,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D57" t="n" s="0">
         <v>25.0</v>
@@ -1188,13 +1179,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1202,13 +1193,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1216,13 +1207,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="61">
@@ -1230,13 +1221,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="62">
@@ -1244,13 +1235,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>28.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
@@ -1264,7 +1255,7 @@
         <v>99.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="64">
@@ -1278,7 +1269,7 @@
         <v>99.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="65">
@@ -1292,7 +1283,7 @@
         <v>99.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="66">
@@ -1306,7 +1297,7 @@
         <v>99.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
@@ -1314,13 +1305,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="68">
@@ -1328,13 +1319,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="69">
@@ -1342,13 +1333,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="70">
@@ -1362,7 +1353,7 @@
         <v>97.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="71">
@@ -1370,13 +1361,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="72">
@@ -1384,13 +1375,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="73">
@@ -1398,13 +1389,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="74">
@@ -1412,13 +1403,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="75">
@@ -1426,13 +1417,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="76">
@@ -1440,13 +1431,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="77">
@@ -1460,48 +1451,6 @@
         <v>89.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="B78" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C78" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D78" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B79" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C79" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D79" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C80" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D80" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1520,27 +1469,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1548,13 +1497,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>30.0</v>
@@ -1562,13 +1511,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1576,13 +1525,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1590,13 +1539,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1604,13 +1553,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1618,13 +1567,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1645,16 +1594,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1672,18 +1621,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -29,16 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-08</t>
+    <t>2025-09-10</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-09</t>
-  </si>
-  <si>
-    <t>2025-09-10</t>
   </si>
   <si>
     <t>2025-09-11</t>
@@ -370,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -401,35 +395,35 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>23.0</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="n" s="0">
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n" s="0">
         <v>11.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>17.0</v>
       </c>
     </row>
     <row r="5">
@@ -443,7 +437,7 @@
         <v>38.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +445,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>11.0</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +459,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
@@ -485,7 +479,7 @@
         <v>45.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="9">
@@ -496,10 +490,10 @@
         <v>4.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
@@ -510,10 +504,10 @@
         <v>4.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
@@ -527,7 +521,7 @@
         <v>55.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="12">
@@ -541,7 +535,7 @@
         <v>55.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
@@ -549,13 +543,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="14">
@@ -563,13 +557,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="15">
@@ -583,7 +577,7 @@
         <v>60.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="16">
@@ -591,13 +585,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
@@ -605,13 +599,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="18">
@@ -625,7 +619,7 @@
         <v>76.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="19">
@@ -639,7 +633,7 @@
         <v>76.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="20">
@@ -647,13 +641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="21">
@@ -661,13 +655,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +675,7 @@
         <v>88.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="23">
@@ -689,13 +683,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="24">
@@ -703,13 +697,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="25">
@@ -723,7 +717,7 @@
         <v>119.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="26">
@@ -737,7 +731,7 @@
         <v>119.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="27">
@@ -745,13 +739,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="28">
@@ -759,13 +753,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="29">
@@ -779,7 +773,7 @@
         <v>130.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
@@ -787,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C30" t="n" s="0">
         <v>130.0</v>
@@ -801,13 +795,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C31" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="32">
@@ -821,7 +815,7 @@
         <v>130.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="33">
@@ -835,7 +829,7 @@
         <v>130.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="34">
@@ -843,13 +837,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="35">
@@ -857,13 +851,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
@@ -877,7 +871,7 @@
         <v>128.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="37">
@@ -885,13 +879,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="38">
@@ -899,13 +893,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="39">
@@ -919,7 +913,7 @@
         <v>127.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="40">
@@ -933,7 +927,7 @@
         <v>127.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="41">
@@ -941,13 +935,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="42">
@@ -955,13 +949,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="43">
@@ -975,7 +969,7 @@
         <v>126.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="44">
@@ -983,13 +977,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="45">
@@ -997,13 +991,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="46">
@@ -1017,7 +1011,7 @@
         <v>121.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="47">
@@ -1031,7 +1025,7 @@
         <v>121.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -1039,13 +1033,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="49">
@@ -1053,13 +1047,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="50">
@@ -1073,7 +1067,7 @@
         <v>115.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="51">
@@ -1081,13 +1075,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -1095,13 +1089,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="53">
@@ -1115,7 +1109,7 @@
         <v>114.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -1129,7 +1123,7 @@
         <v>114.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="55">
@@ -1137,13 +1131,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="56">
@@ -1151,13 +1145,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -1171,7 +1165,7 @@
         <v>107.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
@@ -1179,13 +1173,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="59">
@@ -1193,13 +1187,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="60">
@@ -1213,7 +1207,7 @@
         <v>99.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1221,7 @@
         <v>99.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="62">
@@ -1241,7 +1235,7 @@
         <v>99.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="63">
@@ -1255,7 +1249,7 @@
         <v>99.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="64">
@@ -1269,7 +1263,7 @@
         <v>99.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="65">
@@ -1277,13 +1271,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="66">
@@ -1291,13 +1285,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="67">
@@ -1311,7 +1305,7 @@
         <v>97.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="68">
@@ -1325,7 +1319,7 @@
         <v>97.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="69">
@@ -1333,13 +1327,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="70">
@@ -1347,13 +1341,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="71">
@@ -1367,7 +1361,7 @@
         <v>92.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="72">
@@ -1375,13 +1369,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="73">
@@ -1389,13 +1383,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="74">
@@ -1409,7 +1403,7 @@
         <v>89.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="75">
@@ -1423,34 +1417,6 @@
         <v>89.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B76" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C76" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D76" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B77" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C77" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D77" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1469,27 +1435,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>87</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
@@ -1497,13 +1463,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>30.0</v>
@@ -1511,13 +1477,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1525,13 +1491,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1539,13 +1505,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1553,13 +1519,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1567,13 +1533,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1594,16 +1560,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1621,18 +1587,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -29,18 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-09-11</t>
-  </si>
-  <si>
-    <t>2025-09-12</t>
-  </si>
-  <si>
     <t>2025-09-13</t>
   </si>
   <si>
@@ -266,19 +260,16 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Page with redirect</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
     <t>Redirect error</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Page with redirect</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Not found (404)</t>
@@ -364,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -395,35 +386,35 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>38.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>45.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="5">
@@ -431,13 +422,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
@@ -451,7 +442,7 @@
         <v>45.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="7">
@@ -462,10 +453,10 @@
         <v>4.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -476,10 +467,10 @@
         <v>4.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="9">
@@ -493,7 +484,7 @@
         <v>55.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +498,7 @@
         <v>55.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11">
@@ -515,13 +506,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="12">
@@ -529,13 +520,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="13">
@@ -549,7 +540,7 @@
         <v>60.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="14">
@@ -557,13 +548,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
@@ -571,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
@@ -591,7 +582,7 @@
         <v>76.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
@@ -605,7 +596,7 @@
         <v>76.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="18">
@@ -613,13 +604,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="19">
@@ -627,13 +618,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="20">
@@ -647,7 +638,7 @@
         <v>88.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="21">
@@ -655,13 +646,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="22">
@@ -669,13 +660,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +680,7 @@
         <v>119.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="24">
@@ -703,7 +694,7 @@
         <v>119.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="25">
@@ -711,13 +702,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="26">
@@ -725,13 +716,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="27">
@@ -745,7 +736,7 @@
         <v>130.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="28">
@@ -753,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n" s="0">
         <v>130.0</v>
@@ -767,13 +758,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C29" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="30">
@@ -787,7 +778,7 @@
         <v>130.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="31">
@@ -801,7 +792,7 @@
         <v>130.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="32">
@@ -809,13 +800,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="33">
@@ -823,13 +814,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="34">
@@ -843,7 +834,7 @@
         <v>128.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="35">
@@ -851,13 +842,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="36">
@@ -865,13 +856,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="37">
@@ -885,7 +876,7 @@
         <v>127.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="38">
@@ -899,7 +890,7 @@
         <v>127.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="39">
@@ -907,13 +898,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="40">
@@ -921,13 +912,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="41">
@@ -941,7 +932,7 @@
         <v>126.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="42">
@@ -949,13 +940,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="43">
@@ -963,13 +954,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="44">
@@ -983,7 +974,7 @@
         <v>121.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="45">
@@ -997,7 +988,7 @@
         <v>121.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="46">
@@ -1005,13 +996,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="47">
@@ -1019,13 +1010,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="48">
@@ -1039,7 +1030,7 @@
         <v>115.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="49">
@@ -1047,13 +1038,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -1061,13 +1052,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="51">
@@ -1081,7 +1072,7 @@
         <v>114.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -1095,7 +1086,7 @@
         <v>114.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="53">
@@ -1103,13 +1094,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="54">
@@ -1117,13 +1108,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -1137,7 +1128,7 @@
         <v>107.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="56">
@@ -1145,13 +1136,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="57">
@@ -1159,13 +1150,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="58">
@@ -1179,7 +1170,7 @@
         <v>99.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="59">
@@ -1193,7 +1184,7 @@
         <v>99.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="60">
@@ -1207,7 +1198,7 @@
         <v>99.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="61">
@@ -1221,7 +1212,7 @@
         <v>99.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1226,7 @@
         <v>99.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
@@ -1243,13 +1234,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="64">
@@ -1257,13 +1248,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="65">
@@ -1277,7 +1268,7 @@
         <v>97.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="66">
@@ -1291,7 +1282,7 @@
         <v>97.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
@@ -1299,13 +1290,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="68">
@@ -1313,13 +1304,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="69">
@@ -1333,7 +1324,7 @@
         <v>92.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="70">
@@ -1341,13 +1332,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="71">
@@ -1355,13 +1346,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="72">
@@ -1375,7 +1366,7 @@
         <v>89.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="73">
@@ -1389,34 +1380,6 @@
         <v>89.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B74" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C74" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D74" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B75" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C75" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D75" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1435,55 +1398,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>85</v>
-      </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>30.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1491,13 +1454,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1505,13 +1468,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1519,13 +1482,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1533,13 +1496,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1560,16 +1523,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1587,18 +1550,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-09-12</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-09-13</t>
@@ -355,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -379,33 +373,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>38.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
         <v>38.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>4.0</v>
@@ -414,12 +408,12 @@
         <v>45.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
@@ -428,26 +422,26 @@
         <v>45.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>4.0</v>
@@ -456,12 +450,12 @@
         <v>55.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>4.0</v>
@@ -470,12 +464,12 @@
         <v>55.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>4.0</v>
@@ -484,26 +478,26 @@
         <v>55.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>9.0</v>
@@ -512,12 +506,12 @@
         <v>60.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>9.0</v>
@@ -526,26 +520,26 @@
         <v>60.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -554,12 +548,12 @@
         <v>76.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>4.0</v>
@@ -568,12 +562,12 @@
         <v>76.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -582,26 +576,26 @@
         <v>76.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>14.0</v>
@@ -610,12 +604,12 @@
         <v>88.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>14.0</v>
@@ -624,26 +618,26 @@
         <v>88.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>8.0</v>
@@ -652,12 +646,12 @@
         <v>119.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>8.0</v>
@@ -666,12 +660,12 @@
         <v>119.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>8.0</v>
@@ -680,26 +674,26 @@
         <v>119.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>147.0</v>
@@ -708,12 +702,12 @@
         <v>130.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>147.0</v>
@@ -722,26 +716,26 @@
         <v>130.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C27" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>4.0</v>
@@ -750,12 +744,12 @@
         <v>130.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>4.0</v>
@@ -764,12 +758,12 @@
         <v>130.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>4.0</v>
@@ -778,26 +772,26 @@
         <v>130.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>7.0</v>
@@ -806,12 +800,12 @@
         <v>128.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>7.0</v>
@@ -820,26 +814,26 @@
         <v>128.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>8.0</v>
@@ -848,12 +842,12 @@
         <v>127.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>8.0</v>
@@ -862,12 +856,12 @@
         <v>127.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>8.0</v>
@@ -876,26 +870,26 @@
         <v>127.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>9.0</v>
@@ -904,12 +898,12 @@
         <v>126.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>9.0</v>
@@ -918,26 +912,26 @@
         <v>126.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>14.0</v>
@@ -946,12 +940,12 @@
         <v>121.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>14.0</v>
@@ -960,12 +954,12 @@
         <v>121.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>14.0</v>
@@ -974,26 +968,26 @@
         <v>121.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>20.0</v>
@@ -1002,12 +996,12 @@
         <v>115.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>20.0</v>
@@ -1016,26 +1010,26 @@
         <v>115.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>21.0</v>
@@ -1044,12 +1038,12 @@
         <v>114.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>21.0</v>
@@ -1058,12 +1052,12 @@
         <v>114.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>21.0</v>
@@ -1072,26 +1066,26 @@
         <v>114.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>28.0</v>
@@ -1100,12 +1094,12 @@
         <v>107.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>28.0</v>
@@ -1114,26 +1108,26 @@
         <v>107.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>36.0</v>
@@ -1142,12 +1136,12 @@
         <v>99.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>36.0</v>
@@ -1156,12 +1150,12 @@
         <v>99.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>36.0</v>
@@ -1170,12 +1164,12 @@
         <v>99.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>36.0</v>
@@ -1184,12 +1178,12 @@
         <v>99.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>36.0</v>
@@ -1198,12 +1192,12 @@
         <v>99.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>36.0</v>
@@ -1212,26 +1206,26 @@
         <v>99.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>38.0</v>
@@ -1240,12 +1234,12 @@
         <v>97.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>38.0</v>
@@ -1254,12 +1248,12 @@
         <v>97.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>38.0</v>
@@ -1268,26 +1262,26 @@
         <v>97.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>43.0</v>
@@ -1296,12 +1290,12 @@
         <v>92.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>43.0</v>
@@ -1310,26 +1304,26 @@
         <v>92.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>46.0</v>
@@ -1338,12 +1332,12 @@
         <v>89.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>46.0</v>
@@ -1352,12 +1346,12 @@
         <v>89.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>46.0</v>
@@ -1366,20 +1360,6 @@
         <v>89.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="B73" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C73" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D73" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1398,27 +1378,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>83</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>30.0</v>
@@ -1426,13 +1406,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1440,13 +1420,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1454,13 +1434,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1468,13 +1448,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1482,13 +1462,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1496,13 +1476,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1523,16 +1503,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1550,18 +1530,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>2025-09-14</t>
-  </si>
-  <si>
     <t>2025-09-15</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-09-16</t>
@@ -349,7 +346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,19 +370,19 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>38.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>18.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>4.0</v>
@@ -394,40 +391,40 @@
         <v>45.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>4.0</v>
@@ -436,12 +433,12 @@
         <v>55.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>4.0</v>
@@ -450,40 +447,40 @@
         <v>55.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>9.0</v>
@@ -492,40 +489,40 @@
         <v>60.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -534,12 +531,12 @@
         <v>76.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -548,40 +545,40 @@
         <v>76.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>14.0</v>
@@ -590,40 +587,40 @@
         <v>88.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>8.0</v>
@@ -632,12 +629,12 @@
         <v>119.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>8.0</v>
@@ -646,40 +643,40 @@
         <v>119.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>147.0</v>
@@ -688,15 +685,15 @@
         <v>130.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n" s="0">
         <v>130.0</v>
@@ -707,21 +704,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>4.0</v>
@@ -730,12 +727,12 @@
         <v>130.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>4.0</v>
@@ -744,40 +741,40 @@
         <v>130.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>7.0</v>
@@ -786,40 +783,40 @@
         <v>128.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>8.0</v>
@@ -828,12 +825,12 @@
         <v>127.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>8.0</v>
@@ -842,40 +839,40 @@
         <v>127.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>9.0</v>
@@ -884,40 +881,40 @@
         <v>126.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>14.0</v>
@@ -926,12 +923,12 @@
         <v>121.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>14.0</v>
@@ -940,40 +937,40 @@
         <v>121.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>20.0</v>
@@ -982,40 +979,40 @@
         <v>115.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>21.0</v>
@@ -1024,12 +1021,12 @@
         <v>114.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>21.0</v>
@@ -1038,40 +1035,40 @@
         <v>114.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>28.0</v>
@@ -1080,40 +1077,40 @@
         <v>107.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>36.0</v>
@@ -1122,12 +1119,12 @@
         <v>99.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>36.0</v>
@@ -1136,12 +1133,12 @@
         <v>99.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>36.0</v>
@@ -1150,12 +1147,12 @@
         <v>99.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>36.0</v>
@@ -1164,12 +1161,12 @@
         <v>99.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>36.0</v>
@@ -1178,40 +1175,40 @@
         <v>99.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>38.0</v>
@@ -1220,12 +1217,12 @@
         <v>97.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>38.0</v>
@@ -1234,40 +1231,40 @@
         <v>97.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>43.0</v>
@@ -1276,40 +1273,40 @@
         <v>92.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>46.0</v>
@@ -1318,12 +1315,12 @@
         <v>89.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>46.0</v>
@@ -1332,34 +1329,6 @@
         <v>89.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B71" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C71" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D71" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C72" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D72" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1378,27 +1347,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>30.0</v>
@@ -1406,13 +1375,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1420,13 +1389,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1434,13 +1403,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>85</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1448,13 +1417,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>87</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1462,13 +1431,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1476,13 +1445,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>90</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1503,16 +1472,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1530,18 +1499,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-09-16</t>
@@ -346,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -370,33 +364,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>45.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>4.0</v>
@@ -405,12 +399,12 @@
         <v>55.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
@@ -419,12 +413,12 @@
         <v>55.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>4.0</v>
@@ -433,26 +427,26 @@
         <v>55.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>9.0</v>
@@ -461,12 +455,12 @@
         <v>60.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>9.0</v>
@@ -475,26 +469,26 @@
         <v>60.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>4.0</v>
@@ -503,12 +497,12 @@
         <v>76.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>4.0</v>
@@ -517,12 +511,12 @@
         <v>76.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -531,26 +525,26 @@
         <v>76.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>14.0</v>
@@ -559,12 +553,12 @@
         <v>88.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>14.0</v>
@@ -573,26 +567,26 @@
         <v>88.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>8.0</v>
@@ -601,12 +595,12 @@
         <v>119.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>8.0</v>
@@ -615,12 +609,12 @@
         <v>119.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>8.0</v>
@@ -629,26 +623,26 @@
         <v>119.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>147.0</v>
@@ -657,12 +651,12 @@
         <v>130.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>147.0</v>
@@ -671,26 +665,26 @@
         <v>130.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>4.0</v>
@@ -699,12 +693,12 @@
         <v>130.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>4.0</v>
@@ -713,12 +707,12 @@
         <v>130.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>4.0</v>
@@ -727,26 +721,26 @@
         <v>130.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>7.0</v>
@@ -755,12 +749,12 @@
         <v>128.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>7.0</v>
@@ -769,26 +763,26 @@
         <v>128.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>8.0</v>
@@ -797,12 +791,12 @@
         <v>127.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>8.0</v>
@@ -811,12 +805,12 @@
         <v>127.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>8.0</v>
@@ -825,26 +819,26 @@
         <v>127.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>9.0</v>
@@ -853,12 +847,12 @@
         <v>126.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>9.0</v>
@@ -867,26 +861,26 @@
         <v>126.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>14.0</v>
@@ -895,12 +889,12 @@
         <v>121.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>14.0</v>
@@ -909,12 +903,12 @@
         <v>121.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>14.0</v>
@@ -923,26 +917,26 @@
         <v>121.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>20.0</v>
@@ -951,12 +945,12 @@
         <v>115.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>20.0</v>
@@ -965,26 +959,26 @@
         <v>115.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>21.0</v>
@@ -993,12 +987,12 @@
         <v>114.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>21.0</v>
@@ -1007,12 +1001,12 @@
         <v>114.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>21.0</v>
@@ -1021,26 +1015,26 @@
         <v>114.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>28.0</v>
@@ -1049,12 +1043,12 @@
         <v>107.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>28.0</v>
@@ -1063,26 +1057,26 @@
         <v>107.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>36.0</v>
@@ -1091,12 +1085,12 @@
         <v>99.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>36.0</v>
@@ -1105,12 +1099,12 @@
         <v>99.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>36.0</v>
@@ -1119,12 +1113,12 @@
         <v>99.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>36.0</v>
@@ -1133,12 +1127,12 @@
         <v>99.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>36.0</v>
@@ -1147,12 +1141,12 @@
         <v>99.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>36.0</v>
@@ -1161,26 +1155,26 @@
         <v>99.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>38.0</v>
@@ -1189,12 +1183,12 @@
         <v>97.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>38.0</v>
@@ -1203,12 +1197,12 @@
         <v>97.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>38.0</v>
@@ -1217,26 +1211,26 @@
         <v>97.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>43.0</v>
@@ -1245,12 +1239,12 @@
         <v>92.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>43.0</v>
@@ -1259,26 +1253,26 @@
         <v>92.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>46.0</v>
@@ -1287,12 +1281,12 @@
         <v>89.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>46.0</v>
@@ -1301,12 +1295,12 @@
         <v>89.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>46.0</v>
@@ -1315,20 +1309,6 @@
         <v>89.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B70" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C70" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D70" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1347,27 +1327,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>80</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>30.0</v>
@@ -1375,13 +1355,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1389,13 +1369,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1403,13 +1383,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1417,13 +1397,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1431,13 +1411,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1445,13 +1425,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1472,16 +1452,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1499,18 +1479,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-16</t>
-  </si>
-  <si>
-    <t>2025-09-17</t>
-  </si>
-  <si>
     <t>2025-09-18</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-09-19</t>
@@ -340,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -364,33 +361,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>45.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>55.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>4.0</v>
@@ -399,40 +396,40 @@
         <v>55.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>9.0</v>
@@ -441,40 +438,40 @@
         <v>60.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>4.0</v>
@@ -483,12 +480,12 @@
         <v>76.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>4.0</v>
@@ -497,40 +494,40 @@
         <v>76.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>14.0</v>
@@ -539,40 +536,40 @@
         <v>88.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>8.0</v>
@@ -581,12 +578,12 @@
         <v>119.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>8.0</v>
@@ -595,40 +592,40 @@
         <v>119.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>147.0</v>
@@ -637,15 +634,15 @@
         <v>130.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n" s="0">
         <v>130.0</v>
@@ -656,21 +653,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>4.0</v>
@@ -679,12 +676,12 @@
         <v>130.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>4.0</v>
@@ -693,40 +690,40 @@
         <v>130.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>7.0</v>
@@ -735,40 +732,40 @@
         <v>128.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>8.0</v>
@@ -777,12 +774,12 @@
         <v>127.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>8.0</v>
@@ -791,40 +788,40 @@
         <v>127.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>9.0</v>
@@ -833,40 +830,40 @@
         <v>126.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>14.0</v>
@@ -875,12 +872,12 @@
         <v>121.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>14.0</v>
@@ -889,40 +886,40 @@
         <v>121.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>20.0</v>
@@ -931,40 +928,40 @@
         <v>115.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>21.0</v>
@@ -973,12 +970,12 @@
         <v>114.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>21.0</v>
@@ -987,40 +984,40 @@
         <v>114.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>28.0</v>
@@ -1029,40 +1026,40 @@
         <v>107.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>36.0</v>
@@ -1071,12 +1068,12 @@
         <v>99.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>36.0</v>
@@ -1085,12 +1082,12 @@
         <v>99.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>36.0</v>
@@ -1099,12 +1096,12 @@
         <v>99.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>36.0</v>
@@ -1113,12 +1110,12 @@
         <v>99.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>36.0</v>
@@ -1127,40 +1124,40 @@
         <v>99.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>38.0</v>
@@ -1169,12 +1166,12 @@
         <v>97.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>38.0</v>
@@ -1183,40 +1180,40 @@
         <v>97.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>43.0</v>
@@ -1225,40 +1222,40 @@
         <v>92.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>46.0</v>
@@ -1267,12 +1264,12 @@
         <v>89.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>46.0</v>
@@ -1281,34 +1278,6 @@
         <v>89.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B68" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C68" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D68" t="n" s="0">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B69" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C69" t="n" s="0">
-        <v>89.0</v>
-      </c>
-      <c r="D69" t="n" s="0">
         <v>14.0</v>
       </c>
     </row>
@@ -1327,27 +1296,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>78</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>30.0</v>
@@ -1355,13 +1324,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>78</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1369,13 +1338,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>78</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1383,13 +1352,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>82</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1397,13 +1366,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>84</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1411,13 +1380,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1425,13 +1394,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>86</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>87</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1452,16 +1421,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1479,18 +1448,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-18</t>
+    <t>2025-09-19</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-09-19</t>
-  </si>
-  <si>
     <t>2025-09-20</t>
   </si>
   <si>
@@ -228,6 +225,75 @@
   </si>
   <si>
     <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Reason</t>
@@ -337,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -368,21 +434,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>55.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="4">
@@ -390,13 +456,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="5">
@@ -410,7 +476,7 @@
         <v>60.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>44.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -424,7 +490,7 @@
         <v>60.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="7">
@@ -432,13 +498,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +518,7 @@
         <v>76.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="9">
@@ -466,7 +532,7 @@
         <v>76.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="10">
@@ -480,7 +546,7 @@
         <v>76.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="11">
@@ -488,13 +554,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -508,7 +574,7 @@
         <v>88.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="13">
@@ -522,7 +588,7 @@
         <v>88.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="14">
@@ -530,13 +596,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +616,7 @@
         <v>119.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +630,7 @@
         <v>119.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="17">
@@ -578,7 +644,7 @@
         <v>119.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="18">
@@ -586,13 +652,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="19">
@@ -606,7 +672,7 @@
         <v>130.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +686,7 @@
         <v>130.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="21">
@@ -628,13 +694,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C21" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="22">
@@ -648,7 +714,7 @@
         <v>130.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +728,7 @@
         <v>130.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="24">
@@ -676,7 +742,7 @@
         <v>130.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="25">
@@ -684,13 +750,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="26">
@@ -704,7 +770,7 @@
         <v>128.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="27">
@@ -718,7 +784,7 @@
         <v>128.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="28">
@@ -726,13 +792,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="29">
@@ -746,7 +812,7 @@
         <v>127.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="30">
@@ -760,7 +826,7 @@
         <v>127.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="31">
@@ -774,7 +840,7 @@
         <v>127.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="32">
@@ -782,13 +848,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
@@ -802,7 +868,7 @@
         <v>126.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="34">
@@ -816,7 +882,7 @@
         <v>126.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="35">
@@ -824,13 +890,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="36">
@@ -844,7 +910,7 @@
         <v>121.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="37">
@@ -858,7 +924,7 @@
         <v>121.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="38">
@@ -872,7 +938,7 @@
         <v>121.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="39">
@@ -880,13 +946,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="40">
@@ -900,7 +966,7 @@
         <v>115.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="41">
@@ -914,7 +980,7 @@
         <v>115.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="42">
@@ -922,13 +988,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
@@ -942,7 +1008,7 @@
         <v>114.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -956,7 +1022,7 @@
         <v>114.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -970,7 +1036,7 @@
         <v>114.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="46">
@@ -978,13 +1044,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
@@ -998,7 +1064,7 @@
         <v>107.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -1012,7 +1078,7 @@
         <v>107.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -1020,13 +1086,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="50">
@@ -1040,7 +1106,7 @@
         <v>99.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="51">
@@ -1054,7 +1120,7 @@
         <v>99.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="52">
@@ -1068,7 +1134,7 @@
         <v>99.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="53">
@@ -1082,7 +1148,7 @@
         <v>99.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="54">
@@ -1096,7 +1162,7 @@
         <v>99.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="55">
@@ -1110,7 +1176,7 @@
         <v>99.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
@@ -1118,13 +1184,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="57">
@@ -1138,7 +1204,7 @@
         <v>97.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="58">
@@ -1152,7 +1218,7 @@
         <v>97.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="59">
@@ -1166,7 +1232,7 @@
         <v>97.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="60">
@@ -1174,13 +1240,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="61">
@@ -1194,7 +1260,7 @@
         <v>92.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="62">
@@ -1208,7 +1274,7 @@
         <v>92.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="63">
@@ -1216,13 +1282,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="64">
@@ -1236,7 +1302,7 @@
         <v>89.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="65">
@@ -1250,7 +1316,7 @@
         <v>89.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="66">
@@ -1272,13 +1338,321 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D68" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D69" t="n" s="0">
         <v>14.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D70" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D71" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D72" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D74" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D75" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D76" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D77" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C79" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D79" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1296,41 +1670,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1338,13 +1712,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1352,13 +1726,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1366,27 +1740,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1394,13 +1768,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1421,16 +1795,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1448,18 +1822,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,16 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-19</t>
+    <t>2025-09-21</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-20</t>
-  </si>
-  <si>
-    <t>2025-09-21</t>
   </si>
   <si>
     <t>2025-09-22</t>
@@ -403,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -434,21 +428,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>55.0</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +456,7 @@
         <v>60.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
@@ -470,13 +464,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +478,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +498,7 @@
         <v>76.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +512,7 @@
         <v>76.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="9">
@@ -526,13 +520,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
@@ -540,13 +534,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="11">
@@ -560,7 +554,7 @@
         <v>88.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
@@ -568,13 +562,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="13">
@@ -582,13 +576,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
@@ -602,7 +596,7 @@
         <v>119.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +610,7 @@
         <v>119.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="16">
@@ -624,13 +618,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="17">
@@ -638,13 +632,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="18">
@@ -658,7 +652,7 @@
         <v>130.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="19">
@@ -666,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" t="n" s="0">
         <v>130.0</v>
@@ -680,13 +674,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="21">
@@ -700,7 +694,7 @@
         <v>130.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="22">
@@ -714,7 +708,7 @@
         <v>130.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="23">
@@ -722,13 +716,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="24">
@@ -736,13 +730,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="25">
@@ -756,7 +750,7 @@
         <v>128.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="26">
@@ -764,13 +758,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="27">
@@ -778,13 +772,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +792,7 @@
         <v>127.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="29">
@@ -812,7 +806,7 @@
         <v>127.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="30">
@@ -820,13 +814,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="31">
@@ -834,13 +828,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="32">
@@ -854,7 +848,7 @@
         <v>126.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="33">
@@ -862,13 +856,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="34">
@@ -876,13 +870,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="35">
@@ -896,7 +890,7 @@
         <v>121.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="36">
@@ -910,7 +904,7 @@
         <v>121.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="37">
@@ -918,13 +912,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="38">
@@ -932,13 +926,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="39">
@@ -952,7 +946,7 @@
         <v>115.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="40">
@@ -960,13 +954,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="41">
@@ -974,13 +968,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -994,7 +988,7 @@
         <v>114.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -1008,7 +1002,7 @@
         <v>114.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="44">
@@ -1016,13 +1010,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -1030,13 +1024,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -1050,7 +1044,7 @@
         <v>107.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -1058,13 +1052,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="48">
@@ -1072,13 +1066,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="49">
@@ -1092,7 +1086,7 @@
         <v>99.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
@@ -1106,7 +1100,7 @@
         <v>99.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
@@ -1120,7 +1114,7 @@
         <v>99.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
@@ -1134,7 +1128,7 @@
         <v>99.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="53">
@@ -1148,7 +1142,7 @@
         <v>99.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="54">
@@ -1156,13 +1150,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="55">
@@ -1170,13 +1164,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="56">
@@ -1190,7 +1184,7 @@
         <v>97.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="57">
@@ -1204,7 +1198,7 @@
         <v>97.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="58">
@@ -1212,13 +1206,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="59">
@@ -1226,13 +1220,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="60">
@@ -1246,7 +1240,7 @@
         <v>92.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="61">
@@ -1254,13 +1248,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="62">
@@ -1268,13 +1262,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="63">
@@ -1288,7 +1282,7 @@
         <v>89.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="64">
@@ -1302,7 +1296,7 @@
         <v>89.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="65">
@@ -1310,13 +1304,13 @@
         <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="66">
@@ -1324,13 +1318,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
@@ -1344,7 +1338,7 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="68">
@@ -1358,7 +1352,7 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="69">
@@ -1372,7 +1366,7 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1386,7 +1380,7 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -1400,7 +1394,7 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -1414,7 +1408,7 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="73">
@@ -1428,7 +1422,7 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="74">
@@ -1442,7 +1436,7 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -1456,7 +1450,7 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -1470,7 +1464,7 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
@@ -1484,7 +1478,7 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -1498,7 +1492,7 @@
         <v>62.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -1512,7 +1506,7 @@
         <v>62.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
@@ -1526,7 +1520,7 @@
         <v>62.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
@@ -1540,7 +1534,7 @@
         <v>62.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -1554,7 +1548,7 @@
         <v>62.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -1582,7 +1576,7 @@
         <v>62.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
@@ -1596,7 +1590,7 @@
         <v>62.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
@@ -1610,7 +1604,7 @@
         <v>62.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="87">
@@ -1624,34 +1618,6 @@
         <v>62.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
@@ -1670,27 +1636,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>49.0</v>
@@ -1698,13 +1664,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1712,13 +1678,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1726,13 +1692,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1740,13 +1706,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>14.0</v>
@@ -1754,13 +1720,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1768,13 +1734,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1795,16 +1761,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1822,18 +1788,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-09-21</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2025-09-22</t>
   </si>
   <si>
     <t>2025-09-23</t>
@@ -397,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,47 +412,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>60.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>76.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>60.0</v>
+        <v>76.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
@@ -470,12 +461,12 @@
         <v>76.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>4.0</v>
@@ -484,40 +475,40 @@
         <v>76.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>14.0</v>
@@ -526,40 +517,40 @@
         <v>88.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>8.0</v>
@@ -568,12 +559,12 @@
         <v>119.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>8.0</v>
@@ -582,40 +573,40 @@
         <v>119.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>147.0</v>
@@ -624,15 +615,15 @@
         <v>130.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C17" t="n" s="0">
         <v>130.0</v>
@@ -643,21 +634,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C18" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>4.0</v>
@@ -666,12 +657,12 @@
         <v>130.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>4.0</v>
@@ -680,40 +671,40 @@
         <v>130.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>7.0</v>
@@ -722,40 +713,40 @@
         <v>128.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>8.0</v>
@@ -764,12 +755,12 @@
         <v>127.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>8.0</v>
@@ -778,40 +769,40 @@
         <v>127.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>9.0</v>
@@ -820,40 +811,40 @@
         <v>126.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>14.0</v>
@@ -862,12 +853,12 @@
         <v>121.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>14.0</v>
@@ -876,40 +867,40 @@
         <v>121.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>20.0</v>
@@ -918,40 +909,40 @@
         <v>115.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>21.0</v>
@@ -960,12 +951,12 @@
         <v>114.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>21.0</v>
@@ -974,40 +965,40 @@
         <v>114.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>28.0</v>
@@ -1016,40 +1007,40 @@
         <v>107.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>36.0</v>
@@ -1058,12 +1049,12 @@
         <v>99.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>36.0</v>
@@ -1072,12 +1063,12 @@
         <v>99.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>36.0</v>
@@ -1086,12 +1077,12 @@
         <v>99.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>36.0</v>
@@ -1100,12 +1091,12 @@
         <v>99.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>36.0</v>
@@ -1114,40 +1105,40 @@
         <v>99.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>38.0</v>
@@ -1156,12 +1147,12 @@
         <v>97.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>38.0</v>
@@ -1170,40 +1161,40 @@
         <v>97.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>43.0</v>
@@ -1212,40 +1203,40 @@
         <v>92.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>46.0</v>
@@ -1254,12 +1245,12 @@
         <v>89.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>46.0</v>
@@ -1268,40 +1259,40 @@
         <v>89.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1310,12 +1301,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1324,12 +1315,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1338,12 +1329,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1352,12 +1343,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1366,12 +1357,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1380,12 +1371,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1394,12 +1385,12 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1408,12 +1399,12 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1422,12 +1413,12 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1436,12 +1427,12 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>73.0</v>
@@ -1450,12 +1441,12 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>73.0</v>
@@ -1464,12 +1455,12 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>73.0</v>
@@ -1478,12 +1469,12 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>73.0</v>
@@ -1492,12 +1483,12 @@
         <v>62.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>73.0</v>
@@ -1506,12 +1497,12 @@
         <v>62.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>73.0</v>
@@ -1520,12 +1511,12 @@
         <v>62.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>73.0</v>
@@ -1539,7 +1530,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>73.0</v>
@@ -1548,12 +1539,12 @@
         <v>62.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>73.0</v>
@@ -1562,12 +1553,12 @@
         <v>62.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>73.0</v>
@@ -1576,12 +1567,12 @@
         <v>62.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>73.0</v>
@@ -1590,34 +1581,6 @@
         <v>62.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
@@ -1636,27 +1599,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>49.0</v>
@@ -1664,13 +1627,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1678,13 +1641,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1692,13 +1655,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>0.0</v>
@@ -1706,13 +1669,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>14.0</v>
@@ -1720,13 +1683,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>6.0</v>
@@ -1734,13 +1697,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D8" t="n" s="0">
         <v>0.0</v>
@@ -1761,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1788,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-23</t>
-  </si>
-  <si>
     <t>2025-09-24</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-09-25</t>
   </si>
   <si>
@@ -308,16 +308,13 @@
     <t>Not found (404)</t>
   </si>
   <si>
-    <t>Alternate page with proper canonical tag</t>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
+    <t>Google systems</t>
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
   </si>
   <si>
     <t>Crawled - currently not indexed</t>
@@ -388,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,47 +409,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>60.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>76.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>76.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
@@ -461,26 +458,26 @@
         <v>76.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>14.0</v>
@@ -489,12 +486,12 @@
         <v>88.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>14.0</v>
@@ -503,26 +500,26 @@
         <v>88.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>8.0</v>
@@ -531,12 +528,12 @@
         <v>119.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>8.0</v>
@@ -545,12 +542,12 @@
         <v>119.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>8.0</v>
@@ -559,26 +556,26 @@
         <v>119.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>147.0</v>
@@ -587,12 +584,12 @@
         <v>130.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>147.0</v>
@@ -601,26 +598,26 @@
         <v>130.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>4.0</v>
@@ -629,12 +626,12 @@
         <v>130.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>4.0</v>
@@ -643,12 +640,12 @@
         <v>130.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>4.0</v>
@@ -657,26 +654,26 @@
         <v>130.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>7.0</v>
@@ -685,12 +682,12 @@
         <v>128.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>7.0</v>
@@ -699,26 +696,26 @@
         <v>128.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>8.0</v>
@@ -727,12 +724,12 @@
         <v>127.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>8.0</v>
@@ -741,12 +738,12 @@
         <v>127.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>8.0</v>
@@ -755,26 +752,26 @@
         <v>127.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>9.0</v>
@@ -783,12 +780,12 @@
         <v>126.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>9.0</v>
@@ -797,26 +794,26 @@
         <v>126.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>14.0</v>
@@ -825,12 +822,12 @@
         <v>121.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>14.0</v>
@@ -839,12 +836,12 @@
         <v>121.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>14.0</v>
@@ -853,26 +850,26 @@
         <v>121.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>20.0</v>
@@ -881,12 +878,12 @@
         <v>115.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>20.0</v>
@@ -895,26 +892,26 @@
         <v>115.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>21.0</v>
@@ -923,12 +920,12 @@
         <v>114.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>21.0</v>
@@ -937,12 +934,12 @@
         <v>114.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>21.0</v>
@@ -951,26 +948,26 @@
         <v>114.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>28.0</v>
@@ -979,12 +976,12 @@
         <v>107.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>28.0</v>
@@ -993,26 +990,26 @@
         <v>107.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>36.0</v>
@@ -1021,12 +1018,12 @@
         <v>99.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>36.0</v>
@@ -1035,12 +1032,12 @@
         <v>99.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>36.0</v>
@@ -1049,12 +1046,12 @@
         <v>99.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>36.0</v>
@@ -1063,12 +1060,12 @@
         <v>99.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>36.0</v>
@@ -1077,12 +1074,12 @@
         <v>99.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>36.0</v>
@@ -1091,26 +1088,26 @@
         <v>99.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>38.0</v>
@@ -1119,12 +1116,12 @@
         <v>97.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>38.0</v>
@@ -1133,12 +1130,12 @@
         <v>97.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>38.0</v>
@@ -1147,26 +1144,26 @@
         <v>97.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>43.0</v>
@@ -1175,12 +1172,12 @@
         <v>92.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>43.0</v>
@@ -1189,26 +1186,26 @@
         <v>92.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>46.0</v>
@@ -1217,12 +1214,12 @@
         <v>89.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>46.0</v>
@@ -1231,12 +1228,12 @@
         <v>89.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>46.0</v>
@@ -1250,21 +1247,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1273,12 +1270,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1287,12 +1284,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1301,12 +1298,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1315,12 +1312,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1343,12 +1340,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1357,12 +1354,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1371,12 +1368,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1385,12 +1382,12 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1399,12 +1396,12 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1413,12 +1410,12 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1427,12 +1424,12 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>73.0</v>
@@ -1446,7 +1443,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>73.0</v>
@@ -1455,12 +1452,12 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>73.0</v>
@@ -1469,12 +1466,12 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>73.0</v>
@@ -1483,12 +1480,12 @@
         <v>62.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>73.0</v>
@@ -1502,7 +1499,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>73.0</v>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>73.0</v>
@@ -1525,12 +1522,12 @@
         <v>62.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>73.0</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>73.0</v>
@@ -1553,12 +1550,12 @@
         <v>62.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>73.0</v>
@@ -1567,20 +1564,6 @@
         <v>62.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C85" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D85" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
@@ -1591,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1658,27 +1641,27 @@
         <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>98</v>
-      </c>
       <c r="D6" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -1686,26 +1669,12 @@
         <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="D8" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1751,18 +1720,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -29,16 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-24</t>
+    <t>2025-09-26</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
   </si>
   <si>
     <t>2025-09-27</t>
@@ -385,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -416,35 +410,35 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>76.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>88.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
@@ -452,13 +446,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +466,7 @@
         <v>88.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
@@ -480,13 +474,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="8">
@@ -494,13 +488,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +508,7 @@
         <v>119.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +522,7 @@
         <v>119.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="11">
@@ -536,13 +530,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="12">
@@ -550,13 +544,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="13">
@@ -570,7 +564,7 @@
         <v>130.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -578,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>130.0</v>
@@ -592,13 +586,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +606,7 @@
         <v>130.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +620,7 @@
         <v>130.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,13 +628,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="19">
@@ -648,13 +642,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="20">
@@ -668,7 +662,7 @@
         <v>128.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="21">
@@ -676,13 +670,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
@@ -690,13 +684,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="23">
@@ -710,7 +704,7 @@
         <v>127.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
@@ -724,7 +718,7 @@
         <v>127.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="25">
@@ -732,13 +726,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="26">
@@ -746,13 +740,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="27">
@@ -766,7 +760,7 @@
         <v>126.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="28">
@@ -774,13 +768,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="29">
@@ -788,13 +782,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="30">
@@ -808,7 +802,7 @@
         <v>121.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="31">
@@ -822,7 +816,7 @@
         <v>121.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="32">
@@ -830,13 +824,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="33">
@@ -844,13 +838,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="34">
@@ -864,7 +858,7 @@
         <v>115.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="35">
@@ -872,13 +866,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="36">
@@ -886,13 +880,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -906,7 +900,7 @@
         <v>114.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
@@ -920,7 +914,7 @@
         <v>114.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="39">
@@ -928,13 +922,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -942,13 +936,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +956,7 @@
         <v>107.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="42">
@@ -970,13 +964,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
@@ -984,13 +978,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +998,7 @@
         <v>99.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
@@ -1018,7 +1012,7 @@
         <v>99.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1026,7 @@
         <v>99.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="47">
@@ -1046,7 +1040,7 @@
         <v>99.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1054,7 @@
         <v>99.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="49">
@@ -1068,13 +1062,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="50">
@@ -1082,13 +1076,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="51">
@@ -1102,7 +1096,7 @@
         <v>97.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="52">
@@ -1116,7 +1110,7 @@
         <v>97.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="53">
@@ -1124,13 +1118,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="54">
@@ -1138,13 +1132,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="55">
@@ -1158,7 +1152,7 @@
         <v>92.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="56">
@@ -1166,13 +1160,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="57">
@@ -1180,13 +1174,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="58">
@@ -1200,7 +1194,7 @@
         <v>89.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="59">
@@ -1214,7 +1208,7 @@
         <v>89.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="60">
@@ -1222,13 +1216,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="61">
@@ -1236,13 +1230,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
@@ -1256,7 +1250,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="63">
@@ -1270,7 +1264,7 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
@@ -1284,7 +1278,7 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -1298,7 +1292,7 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -1312,7 +1306,7 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,7 +1320,7 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="68">
@@ -1340,7 +1334,7 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="69">
@@ -1354,7 +1348,7 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,7 +1362,7 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -1382,7 +1376,7 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72">
@@ -1396,7 +1390,7 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -1410,7 +1404,7 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,7 +1418,7 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -1438,7 +1432,7 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -1452,7 +1446,7 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,7 +1460,7 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -1494,7 +1488,7 @@
         <v>62.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
@@ -1508,7 +1502,7 @@
         <v>62.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,7 +1516,7 @@
         <v>62.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="82">
@@ -1536,34 +1530,6 @@
         <v>62.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C83" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D83" t="n" s="0">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C84" t="n" s="0">
-        <v>62.0</v>
-      </c>
-      <c r="D84" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
@@ -1582,27 +1548,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>49.0</v>
@@ -1610,13 +1576,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1624,13 +1590,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1638,13 +1604,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>14.0</v>
@@ -1652,13 +1618,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>6.0</v>
@@ -1666,13 +1632,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1693,16 +1659,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>89</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1720,18 +1686,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
   </si>
   <si>
     <t>Reason</t>
@@ -379,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1531,6 +1555,118 @@
       </c>
       <c r="D82" t="n" s="0">
         <v>4.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1548,41 +1684,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>49.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1590,13 +1726,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1604,41 +1740,41 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1659,16 +1795,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1686,18 +1822,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-09-27</t>
@@ -403,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -427,33 +421,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>76.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>76.0</v>
+        <v>88.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>14.0</v>
@@ -462,12 +456,12 @@
         <v>88.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>14.0</v>
@@ -476,26 +470,26 @@
         <v>88.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>8.0</v>
@@ -504,12 +498,12 @@
         <v>119.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>8.0</v>
@@ -518,12 +512,12 @@
         <v>119.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>8.0</v>
@@ -532,26 +526,26 @@
         <v>119.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>147.0</v>
@@ -560,12 +554,12 @@
         <v>130.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>147.0</v>
@@ -574,26 +568,26 @@
         <v>130.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -602,12 +596,12 @@
         <v>130.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>4.0</v>
@@ -616,12 +610,12 @@
         <v>130.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>4.0</v>
@@ -630,26 +624,26 @@
         <v>130.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>7.0</v>
@@ -658,12 +652,12 @@
         <v>128.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>7.0</v>
@@ -672,26 +666,26 @@
         <v>128.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>8.0</v>
@@ -700,12 +694,12 @@
         <v>127.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>8.0</v>
@@ -714,12 +708,12 @@
         <v>127.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>8.0</v>
@@ -728,26 +722,26 @@
         <v>127.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>9.0</v>
@@ -756,12 +750,12 @@
         <v>126.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>9.0</v>
@@ -770,26 +764,26 @@
         <v>126.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>14.0</v>
@@ -798,12 +792,12 @@
         <v>121.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>14.0</v>
@@ -812,12 +806,12 @@
         <v>121.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>14.0</v>
@@ -826,26 +820,26 @@
         <v>121.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>20.0</v>
@@ -854,12 +848,12 @@
         <v>115.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>20.0</v>
@@ -868,26 +862,26 @@
         <v>115.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>21.0</v>
@@ -896,12 +890,12 @@
         <v>114.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>21.0</v>
@@ -910,12 +904,12 @@
         <v>114.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>21.0</v>
@@ -924,26 +918,26 @@
         <v>114.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>28.0</v>
@@ -952,12 +946,12 @@
         <v>107.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>28.0</v>
@@ -966,26 +960,26 @@
         <v>107.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>36.0</v>
@@ -994,12 +988,12 @@
         <v>99.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>36.0</v>
@@ -1008,12 +1002,12 @@
         <v>99.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>36.0</v>
@@ -1022,12 +1016,12 @@
         <v>99.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>36.0</v>
@@ -1036,12 +1030,12 @@
         <v>99.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>36.0</v>
@@ -1050,12 +1044,12 @@
         <v>99.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>36.0</v>
@@ -1064,26 +1058,26 @@
         <v>99.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>38.0</v>
@@ -1092,12 +1086,12 @@
         <v>97.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>38.0</v>
@@ -1106,12 +1100,12 @@
         <v>97.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>38.0</v>
@@ -1120,26 +1114,26 @@
         <v>97.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>43.0</v>
@@ -1148,12 +1142,12 @@
         <v>92.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>43.0</v>
@@ -1162,26 +1156,26 @@
         <v>92.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>46.0</v>
@@ -1190,12 +1184,12 @@
         <v>89.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>46.0</v>
@@ -1204,12 +1198,12 @@
         <v>89.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>46.0</v>
@@ -1223,21 +1217,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1246,12 +1240,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1260,12 +1254,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1274,12 +1268,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1288,12 +1282,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1307,7 +1301,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1316,12 +1310,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1330,12 +1324,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1344,12 +1338,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1358,12 +1352,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1372,12 +1366,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1386,12 +1380,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1400,12 +1394,12 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1428,12 +1422,12 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1442,12 +1436,12 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>73.0</v>
@@ -1456,12 +1450,12 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>73.0</v>
@@ -1475,7 +1469,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>73.0</v>
@@ -1489,7 +1483,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>73.0</v>
@@ -1498,12 +1492,12 @@
         <v>62.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>73.0</v>
@@ -1517,7 +1511,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>73.0</v>
@@ -1526,12 +1520,12 @@
         <v>62.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>73.0</v>
@@ -1540,26 +1534,26 @@
         <v>62.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>79.0</v>
@@ -1573,7 +1567,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>79.0</v>
@@ -1582,12 +1576,12 @@
         <v>56.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>79.0</v>
@@ -1596,12 +1590,12 @@
         <v>56.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>79.0</v>
@@ -1615,7 +1609,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>79.0</v>
@@ -1624,12 +1618,12 @@
         <v>56.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>79.0</v>
@@ -1638,12 +1632,12 @@
         <v>56.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>79.0</v>
@@ -1652,20 +1646,6 @@
         <v>56.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1684,27 +1664,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1712,13 +1692,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1726,13 +1706,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1740,13 +1720,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1754,13 +1734,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1768,13 +1748,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1795,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1822,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-27</t>
-  </si>
-  <si>
     <t>2025-09-28</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-09-29</t>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,33 +421,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>76.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>88.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>50.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>14.0</v>
@@ -456,26 +456,26 @@
         <v>88.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>8.0</v>
@@ -484,12 +484,12 @@
         <v>119.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>8.0</v>
@@ -498,12 +498,12 @@
         <v>119.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>8.0</v>
@@ -512,26 +512,26 @@
         <v>119.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>147.0</v>
@@ -540,12 +540,12 @@
         <v>130.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>147.0</v>
@@ -554,26 +554,26 @@
         <v>130.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -582,12 +582,12 @@
         <v>130.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>4.0</v>
@@ -596,12 +596,12 @@
         <v>130.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>4.0</v>
@@ -610,26 +610,26 @@
         <v>130.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>7.0</v>
@@ -638,12 +638,12 @@
         <v>128.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>7.0</v>
@@ -652,26 +652,26 @@
         <v>128.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>8.0</v>
@@ -680,12 +680,12 @@
         <v>127.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>8.0</v>
@@ -694,12 +694,12 @@
         <v>127.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>8.0</v>
@@ -708,26 +708,26 @@
         <v>127.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>9.0</v>
@@ -736,12 +736,12 @@
         <v>126.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>9.0</v>
@@ -750,26 +750,26 @@
         <v>126.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>14.0</v>
@@ -778,12 +778,12 @@
         <v>121.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>14.0</v>
@@ -792,12 +792,12 @@
         <v>121.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>14.0</v>
@@ -806,26 +806,26 @@
         <v>121.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>20.0</v>
@@ -834,12 +834,12 @@
         <v>115.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>20.0</v>
@@ -848,26 +848,26 @@
         <v>115.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>21.0</v>
@@ -876,12 +876,12 @@
         <v>114.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>21.0</v>
@@ -890,12 +890,12 @@
         <v>114.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>21.0</v>
@@ -904,26 +904,26 @@
         <v>114.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>28.0</v>
@@ -932,12 +932,12 @@
         <v>107.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>28.0</v>
@@ -946,26 +946,26 @@
         <v>107.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>36.0</v>
@@ -974,12 +974,12 @@
         <v>99.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>36.0</v>
@@ -988,12 +988,12 @@
         <v>99.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>36.0</v>
@@ -1002,12 +1002,12 @@
         <v>99.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>36.0</v>
@@ -1016,12 +1016,12 @@
         <v>99.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>36.0</v>
@@ -1030,12 +1030,12 @@
         <v>99.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>36.0</v>
@@ -1044,26 +1044,26 @@
         <v>99.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>38.0</v>
@@ -1072,12 +1072,12 @@
         <v>97.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>38.0</v>
@@ -1086,12 +1086,12 @@
         <v>97.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>38.0</v>
@@ -1100,26 +1100,26 @@
         <v>97.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>43.0</v>
@@ -1128,12 +1128,12 @@
         <v>92.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>43.0</v>
@@ -1142,26 +1142,26 @@
         <v>92.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>46.0</v>
@@ -1170,12 +1170,12 @@
         <v>89.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>46.0</v>
@@ -1184,12 +1184,12 @@
         <v>89.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>46.0</v>
@@ -1203,21 +1203,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1226,12 +1226,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1240,12 +1240,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1254,12 +1254,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1268,12 +1268,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1296,12 +1296,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1310,12 +1310,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1324,12 +1324,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1338,12 +1338,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1352,12 +1352,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1366,12 +1366,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1380,12 +1380,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1408,12 +1408,12 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1422,12 +1422,12 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1436,12 +1436,12 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>73.0</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>73.0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>73.0</v>
@@ -1478,12 +1478,12 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>73.0</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>73.0</v>
@@ -1506,12 +1506,12 @@
         <v>62.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>73.0</v>
@@ -1520,26 +1520,26 @@
         <v>62.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>79.0</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>79.0</v>
@@ -1562,12 +1562,12 @@
         <v>56.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>79.0</v>
@@ -1576,12 +1576,12 @@
         <v>56.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>79.0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>79.0</v>
@@ -1604,12 +1604,12 @@
         <v>56.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>79.0</v>
@@ -1618,12 +1618,12 @@
         <v>56.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>79.0</v>
@@ -1632,20 +1632,6 @@
         <v>56.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2025-09-29</t>
   </si>
   <si>
     <t>2025-09-30</t>
@@ -397,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,47 +412,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>88.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>119.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>41.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>88.0</v>
+        <v>119.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>30.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>8.0</v>
@@ -470,12 +461,12 @@
         <v>119.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>52.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>8.0</v>
@@ -484,40 +475,40 @@
         <v>119.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>61.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>87.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>104.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>147.0</v>
@@ -526,15 +517,15 @@
         <v>130.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>77.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>130.0</v>
@@ -545,21 +536,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>83.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>4.0</v>
@@ -568,12 +559,12 @@
         <v>130.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>4.0</v>
@@ -582,40 +573,40 @@
         <v>130.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>85.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>48.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>7.0</v>
@@ -624,40 +615,40 @@
         <v>128.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>61.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>45.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>8.0</v>
@@ -666,12 +657,12 @@
         <v>127.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>46.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>8.0</v>
@@ -680,40 +671,40 @@
         <v>127.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>74.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>60.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>9.0</v>
@@ -722,40 +713,40 @@
         <v>126.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>54.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>14.0</v>
@@ -764,12 +755,12 @@
         <v>121.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>14.0</v>
@@ -778,40 +769,40 @@
         <v>121.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>41.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>20.0</v>
@@ -820,40 +811,40 @@
         <v>115.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>21.0</v>
@@ -862,12 +853,12 @@
         <v>114.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>21.0</v>
@@ -876,40 +867,40 @@
         <v>114.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>28.0</v>
@@ -918,40 +909,40 @@
         <v>107.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>36.0</v>
@@ -960,12 +951,12 @@
         <v>99.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>36.0</v>
@@ -974,12 +965,12 @@
         <v>99.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>36.0</v>
@@ -988,12 +979,12 @@
         <v>99.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>36.0</v>
@@ -1002,12 +993,12 @@
         <v>99.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>36.0</v>
@@ -1016,40 +1007,40 @@
         <v>99.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>38.0</v>
@@ -1058,12 +1049,12 @@
         <v>97.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>38.0</v>
@@ -1072,40 +1063,40 @@
         <v>97.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>43.0</v>
@@ -1114,40 +1105,40 @@
         <v>92.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>46.0</v>
@@ -1156,12 +1147,12 @@
         <v>89.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>46.0</v>
@@ -1170,40 +1161,40 @@
         <v>89.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1212,12 +1203,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1226,12 +1217,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1240,12 +1231,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1254,12 +1245,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1268,12 +1259,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1282,12 +1273,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1296,12 +1287,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1310,12 +1301,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1324,12 +1315,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1338,12 +1329,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1352,12 +1343,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1366,12 +1357,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1380,12 +1371,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1394,12 +1385,12 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1408,12 +1399,12 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1422,12 +1413,12 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1441,7 +1432,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>73.0</v>
@@ -1450,12 +1441,12 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>73.0</v>
@@ -1464,12 +1455,12 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>73.0</v>
@@ -1478,12 +1469,12 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>73.0</v>
@@ -1492,40 +1483,40 @@
         <v>62.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>79.0</v>
@@ -1534,12 +1525,12 @@
         <v>56.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>79.0</v>
@@ -1548,12 +1539,12 @@
         <v>56.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>79.0</v>
@@ -1562,12 +1553,12 @@
         <v>56.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>79.0</v>
@@ -1576,12 +1567,12 @@
         <v>56.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>79.0</v>
@@ -1590,12 +1581,12 @@
         <v>56.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>79.0</v>
@@ -1604,34 +1595,6 @@
         <v>56.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1650,27 +1613,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1678,13 +1641,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1692,13 +1655,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1706,13 +1669,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1720,13 +1683,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1734,13 +1697,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1761,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1788,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-09-30</t>
-  </si>
-  <si>
     <t>2025-10-01</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-02</t>
@@ -388,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,47 +412,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>88.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>119.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>119.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>8.0</v>
@@ -461,26 +461,26 @@
         <v>119.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>147.0</v>
@@ -489,12 +489,12 @@
         <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>147.0</v>
@@ -503,26 +503,26 @@
         <v>130.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>4.0</v>
@@ -531,12 +531,12 @@
         <v>130.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>4.0</v>
@@ -545,12 +545,12 @@
         <v>130.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>4.0</v>
@@ -559,26 +559,26 @@
         <v>130.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>7.0</v>
@@ -587,12 +587,12 @@
         <v>128.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>7.0</v>
@@ -601,26 +601,26 @@
         <v>128.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>8.0</v>
@@ -629,12 +629,12 @@
         <v>127.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>8.0</v>
@@ -643,12 +643,12 @@
         <v>127.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>8.0</v>
@@ -657,26 +657,26 @@
         <v>127.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>9.0</v>
@@ -685,12 +685,12 @@
         <v>126.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>9.0</v>
@@ -699,26 +699,26 @@
         <v>126.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>14.0</v>
@@ -727,12 +727,12 @@
         <v>121.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>14.0</v>
@@ -741,12 +741,12 @@
         <v>121.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>14.0</v>
@@ -755,26 +755,26 @@
         <v>121.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>20.0</v>
@@ -783,12 +783,12 @@
         <v>115.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>20.0</v>
@@ -797,26 +797,26 @@
         <v>115.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>21.0</v>
@@ -825,12 +825,12 @@
         <v>114.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>21.0</v>
@@ -839,12 +839,12 @@
         <v>114.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>21.0</v>
@@ -853,26 +853,26 @@
         <v>114.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>28.0</v>
@@ -881,12 +881,12 @@
         <v>107.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>28.0</v>
@@ -895,26 +895,26 @@
         <v>107.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>36.0</v>
@@ -923,12 +923,12 @@
         <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>36.0</v>
@@ -937,12 +937,12 @@
         <v>99.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>36.0</v>
@@ -951,12 +951,12 @@
         <v>99.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>36.0</v>
@@ -965,12 +965,12 @@
         <v>99.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>36.0</v>
@@ -979,12 +979,12 @@
         <v>99.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>36.0</v>
@@ -993,26 +993,26 @@
         <v>99.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>38.0</v>
@@ -1021,12 +1021,12 @@
         <v>97.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>38.0</v>
@@ -1035,12 +1035,12 @@
         <v>97.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>38.0</v>
@@ -1049,26 +1049,26 @@
         <v>97.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>43.0</v>
@@ -1077,12 +1077,12 @@
         <v>92.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>43.0</v>
@@ -1091,26 +1091,26 @@
         <v>92.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>46.0</v>
@@ -1119,12 +1119,12 @@
         <v>89.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>46.0</v>
@@ -1133,12 +1133,12 @@
         <v>89.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>46.0</v>
@@ -1152,21 +1152,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1175,12 +1175,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1189,12 +1189,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1203,12 +1203,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1217,12 +1217,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1245,12 +1245,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1259,12 +1259,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1273,12 +1273,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1287,12 +1287,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1301,12 +1301,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1315,12 +1315,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1329,12 +1329,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1357,12 +1357,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1371,12 +1371,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1385,12 +1385,12 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1427,12 +1427,12 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>73.0</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>73.0</v>
@@ -1455,12 +1455,12 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>73.0</v>
@@ -1469,26 +1469,26 @@
         <v>62.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>79.0</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>79.0</v>
@@ -1511,12 +1511,12 @@
         <v>56.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>79.0</v>
@@ -1525,12 +1525,12 @@
         <v>56.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>79.0</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>79.0</v>
@@ -1553,12 +1553,12 @@
         <v>56.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>79.0</v>
@@ -1567,12 +1567,12 @@
         <v>56.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>79.0</v>
@@ -1581,20 +1581,6 @@
         <v>56.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-01</t>
+    <t>2025-10-02</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-02</t>
   </si>
   <si>
     <t>2025-10-03</t>
@@ -388,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -419,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="3">
@@ -433,21 +430,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>119.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="5">
@@ -455,13 +452,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +472,7 @@
         <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +486,7 @@
         <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
@@ -497,13 +494,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +514,7 @@
         <v>130.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +528,7 @@
         <v>130.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="11">
@@ -545,7 +542,7 @@
         <v>130.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="12">
@@ -553,13 +550,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +570,7 @@
         <v>128.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,7 +584,7 @@
         <v>128.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="15">
@@ -595,13 +592,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +612,7 @@
         <v>127.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="17">
@@ -629,7 +626,7 @@
         <v>127.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="18">
@@ -643,7 +640,7 @@
         <v>127.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="19">
@@ -651,13 +648,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="20">
@@ -671,7 +668,7 @@
         <v>126.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="21">
@@ -685,7 +682,7 @@
         <v>126.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="22">
@@ -693,13 +690,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="23">
@@ -713,7 +710,7 @@
         <v>121.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="24">
@@ -727,7 +724,7 @@
         <v>121.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="25">
@@ -741,7 +738,7 @@
         <v>121.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
@@ -749,13 +746,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="27">
@@ -769,7 +766,7 @@
         <v>115.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="28">
@@ -783,7 +780,7 @@
         <v>115.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="29">
@@ -791,13 +788,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="30">
@@ -811,7 +808,7 @@
         <v>114.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -825,7 +822,7 @@
         <v>114.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="32">
@@ -839,7 +836,7 @@
         <v>114.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="33">
@@ -847,13 +844,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -867,7 +864,7 @@
         <v>107.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +878,7 @@
         <v>107.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="36">
@@ -889,13 +886,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="37">
@@ -909,7 +906,7 @@
         <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +920,7 @@
         <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
@@ -937,7 +934,7 @@
         <v>99.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="40">
@@ -951,7 +948,7 @@
         <v>99.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="41">
@@ -965,7 +962,7 @@
         <v>99.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="42">
@@ -979,7 +976,7 @@
         <v>99.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="43">
@@ -987,13 +984,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
@@ -1007,7 +1004,7 @@
         <v>97.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
@@ -1021,7 +1018,7 @@
         <v>97.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
@@ -1035,7 +1032,7 @@
         <v>97.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="47">
@@ -1043,13 +1040,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="48">
@@ -1063,7 +1060,7 @@
         <v>92.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="49">
@@ -1077,7 +1074,7 @@
         <v>92.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="50">
@@ -1085,13 +1082,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="51">
@@ -1105,7 +1102,7 @@
         <v>89.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
@@ -1119,7 +1116,7 @@
         <v>89.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="53">
@@ -1141,13 +1138,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="55">
@@ -1161,7 +1158,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -1175,7 +1172,7 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="57">
@@ -1189,7 +1186,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
@@ -1203,7 +1200,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1231,7 +1228,7 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1245,7 +1242,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
@@ -1259,7 +1256,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="63">
@@ -1273,7 +1270,7 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
@@ -1287,7 +1284,7 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1301,7 +1298,7 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -1315,7 +1312,7 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -1343,7 +1340,7 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -1357,7 +1354,7 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
@@ -1371,7 +1368,7 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -1413,7 +1410,7 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -1441,7 +1438,7 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="76">
@@ -1455,7 +1452,7 @@
         <v>62.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
@@ -1463,13 +1460,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="78">
@@ -1497,7 +1494,7 @@
         <v>56.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="80">
@@ -1511,7 +1508,7 @@
         <v>56.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="81">
@@ -1539,7 +1536,7 @@
         <v>56.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -1553,7 +1550,7 @@
         <v>56.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="84">
@@ -1567,20 +1564,6 @@
         <v>56.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C85" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D85" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1599,27 +1582,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1627,13 +1610,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1641,13 +1624,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1655,13 +1638,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1669,13 +1652,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1683,13 +1666,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1710,16 +1693,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1737,18 +1720,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-02</t>
+    <t>2025-10-03</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-03</t>
   </si>
   <si>
     <t>2025-10-04</t>
@@ -385,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -416,21 +413,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>61.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>119.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="4">
@@ -438,13 +435,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="5">
@@ -458,7 +455,7 @@
         <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +469,7 @@
         <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -480,13 +477,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +497,7 @@
         <v>130.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="9">
@@ -514,7 +511,7 @@
         <v>130.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +525,7 @@
         <v>130.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="11">
@@ -536,13 +533,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="12">
@@ -556,7 +553,7 @@
         <v>128.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="13">
@@ -570,7 +567,7 @@
         <v>128.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="14">
@@ -578,13 +575,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,7 +595,7 @@
         <v>127.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +609,7 @@
         <v>127.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +623,7 @@
         <v>127.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="18">
@@ -634,13 +631,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
@@ -654,7 +651,7 @@
         <v>126.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="20">
@@ -668,7 +665,7 @@
         <v>126.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="21">
@@ -676,13 +673,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="22">
@@ -696,7 +693,7 @@
         <v>121.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="23">
@@ -710,7 +707,7 @@
         <v>121.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="24">
@@ -724,7 +721,7 @@
         <v>121.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
@@ -732,13 +729,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="26">
@@ -752,7 +749,7 @@
         <v>115.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
@@ -766,7 +763,7 @@
         <v>115.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="28">
@@ -774,13 +771,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="29">
@@ -794,7 +791,7 @@
         <v>114.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -808,7 +805,7 @@
         <v>114.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="31">
@@ -822,7 +819,7 @@
         <v>114.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="32">
@@ -830,13 +827,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -850,7 +847,7 @@
         <v>107.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -864,7 +861,7 @@
         <v>107.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="35">
@@ -872,13 +869,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="36">
@@ -892,7 +889,7 @@
         <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="37">
@@ -906,7 +903,7 @@
         <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
@@ -920,7 +917,7 @@
         <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="39">
@@ -934,7 +931,7 @@
         <v>99.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="40">
@@ -948,7 +945,7 @@
         <v>99.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +959,7 @@
         <v>99.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="42">
@@ -970,13 +967,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="43">
@@ -990,7 +987,7 @@
         <v>97.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="44">
@@ -1004,7 +1001,7 @@
         <v>97.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="45">
@@ -1018,7 +1015,7 @@
         <v>97.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="46">
@@ -1026,13 +1023,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="47">
@@ -1046,7 +1043,7 @@
         <v>92.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1057,7 @@
         <v>92.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="49">
@@ -1068,13 +1065,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="50">
@@ -1088,7 +1085,7 @@
         <v>89.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="51">
@@ -1102,7 +1099,7 @@
         <v>89.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="52">
@@ -1124,13 +1121,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="54">
@@ -1144,7 +1141,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="55">
@@ -1158,7 +1155,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="56">
@@ -1172,7 +1169,7 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="57">
@@ -1186,7 +1183,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -1214,7 +1211,7 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,7 +1225,7 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="61">
@@ -1242,7 +1239,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="62">
@@ -1256,7 +1253,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
@@ -1270,7 +1267,7 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -1284,7 +1281,7 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65">
@@ -1298,7 +1295,7 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -1326,7 +1323,7 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -1340,7 +1337,7 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
@@ -1354,7 +1351,7 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1396,7 +1393,7 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
@@ -1424,7 +1421,7 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="75">
@@ -1438,7 +1435,7 @@
         <v>62.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
@@ -1446,13 +1443,13 @@
         <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="77">
@@ -1480,7 +1477,7 @@
         <v>56.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="79">
@@ -1494,7 +1491,7 @@
         <v>56.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="80">
@@ -1522,7 +1519,7 @@
         <v>56.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -1536,7 +1533,7 @@
         <v>56.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="83">
@@ -1550,20 +1547,6 @@
         <v>56.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C84" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D84" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1582,27 +1565,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1610,13 +1593,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1624,13 +1607,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>94</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1638,13 +1621,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1652,13 +1635,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1666,13 +1649,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>102</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1693,16 +1676,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1720,18 +1703,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-04</t>
@@ -382,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -406,33 +400,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>119.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>87.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>8.0</v>
+        <v>147.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>119.0</v>
+        <v>130.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>147.0</v>
@@ -441,12 +435,12 @@
         <v>130.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>147.0</v>
@@ -455,26 +449,26 @@
         <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>4.0</v>
@@ -483,12 +477,12 @@
         <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>4.0</v>
@@ -497,12 +491,12 @@
         <v>130.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>4.0</v>
@@ -511,26 +505,26 @@
         <v>130.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>7.0</v>
@@ -539,12 +533,12 @@
         <v>128.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>7.0</v>
@@ -553,26 +547,26 @@
         <v>128.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>8.0</v>
@@ -581,12 +575,12 @@
         <v>127.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>8.0</v>
@@ -595,12 +589,12 @@
         <v>127.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>8.0</v>
@@ -609,26 +603,26 @@
         <v>127.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>9.0</v>
@@ -637,12 +631,12 @@
         <v>126.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>9.0</v>
@@ -651,26 +645,26 @@
         <v>126.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>14.0</v>
@@ -679,12 +673,12 @@
         <v>121.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>14.0</v>
@@ -693,12 +687,12 @@
         <v>121.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>14.0</v>
@@ -707,26 +701,26 @@
         <v>121.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>20.0</v>
@@ -735,12 +729,12 @@
         <v>115.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>20.0</v>
@@ -749,26 +743,26 @@
         <v>115.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>21.0</v>
@@ -777,12 +771,12 @@
         <v>114.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>21.0</v>
@@ -791,12 +785,12 @@
         <v>114.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>21.0</v>
@@ -805,26 +799,26 @@
         <v>114.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>28.0</v>
@@ -833,12 +827,12 @@
         <v>107.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>28.0</v>
@@ -847,26 +841,26 @@
         <v>107.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>36.0</v>
@@ -875,12 +869,12 @@
         <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>36.0</v>
@@ -889,12 +883,12 @@
         <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>36.0</v>
@@ -903,12 +897,12 @@
         <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>36.0</v>
@@ -917,12 +911,12 @@
         <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>36.0</v>
@@ -931,12 +925,12 @@
         <v>99.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>36.0</v>
@@ -945,26 +939,26 @@
         <v>99.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>38.0</v>
@@ -973,12 +967,12 @@
         <v>97.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>38.0</v>
@@ -987,12 +981,12 @@
         <v>97.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>38.0</v>
@@ -1001,26 +995,26 @@
         <v>97.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>43.0</v>
@@ -1029,12 +1023,12 @@
         <v>92.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>43.0</v>
@@ -1043,26 +1037,26 @@
         <v>92.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>46.0</v>
@@ -1071,12 +1065,12 @@
         <v>89.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>46.0</v>
@@ -1085,12 +1079,12 @@
         <v>89.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>46.0</v>
@@ -1104,21 +1098,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1127,12 +1121,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1141,12 +1135,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1155,12 +1149,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1169,12 +1163,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1197,12 +1191,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1211,12 +1205,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1225,12 +1219,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1239,12 +1233,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1253,12 +1247,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1267,12 +1261,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1281,12 +1275,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1300,7 +1294,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1309,12 +1303,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1323,12 +1317,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1337,12 +1331,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1370,7 +1364,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1379,12 +1373,12 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1398,7 +1392,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1407,12 +1401,12 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>73.0</v>
@@ -1421,26 +1415,26 @@
         <v>62.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>79.0</v>
@@ -1454,7 +1448,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>79.0</v>
@@ -1463,12 +1457,12 @@
         <v>56.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>79.0</v>
@@ -1477,12 +1471,12 @@
         <v>56.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>79.0</v>
@@ -1496,7 +1490,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>79.0</v>
@@ -1505,12 +1499,12 @@
         <v>56.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>79.0</v>
@@ -1519,12 +1513,12 @@
         <v>56.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>79.0</v>
@@ -1533,20 +1527,6 @@
         <v>56.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C83" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D83" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1565,27 +1545,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>93</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1593,13 +1573,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1607,13 +1587,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1621,13 +1601,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1635,13 +1615,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1649,13 +1629,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1676,16 +1656,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1703,18 +1683,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
     <t>2025-10-05</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-06</t>
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -400,33 +400,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>119.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>104.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>147.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>130.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>147.0</v>
@@ -435,26 +435,26 @@
         <v>130.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>4.0</v>
@@ -463,12 +463,12 @@
         <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>4.0</v>
@@ -477,12 +477,12 @@
         <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>4.0</v>
@@ -491,26 +491,26 @@
         <v>130.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>7.0</v>
@@ -519,12 +519,12 @@
         <v>128.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>7.0</v>
@@ -533,26 +533,26 @@
         <v>128.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>8.0</v>
@@ -561,12 +561,12 @@
         <v>127.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>8.0</v>
@@ -575,12 +575,12 @@
         <v>127.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>8.0</v>
@@ -589,26 +589,26 @@
         <v>127.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>9.0</v>
@@ -617,12 +617,12 @@
         <v>126.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>9.0</v>
@@ -631,26 +631,26 @@
         <v>126.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>14.0</v>
@@ -659,12 +659,12 @@
         <v>121.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>14.0</v>
@@ -673,12 +673,12 @@
         <v>121.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>14.0</v>
@@ -687,26 +687,26 @@
         <v>121.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>20.0</v>
@@ -715,12 +715,12 @@
         <v>115.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>20.0</v>
@@ -729,26 +729,26 @@
         <v>115.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>21.0</v>
@@ -757,12 +757,12 @@
         <v>114.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>21.0</v>
@@ -771,12 +771,12 @@
         <v>114.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>21.0</v>
@@ -785,26 +785,26 @@
         <v>114.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>28.0</v>
@@ -813,12 +813,12 @@
         <v>107.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>28.0</v>
@@ -827,26 +827,26 @@
         <v>107.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>36.0</v>
@@ -855,12 +855,12 @@
         <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>36.0</v>
@@ -869,12 +869,12 @@
         <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>36.0</v>
@@ -883,12 +883,12 @@
         <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>36.0</v>
@@ -897,12 +897,12 @@
         <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>36.0</v>
@@ -911,12 +911,12 @@
         <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>36.0</v>
@@ -925,26 +925,26 @@
         <v>99.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>38.0</v>
@@ -953,12 +953,12 @@
         <v>97.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>38.0</v>
@@ -967,12 +967,12 @@
         <v>97.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>38.0</v>
@@ -981,26 +981,26 @@
         <v>97.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>43.0</v>
@@ -1009,12 +1009,12 @@
         <v>92.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>43.0</v>
@@ -1023,26 +1023,26 @@
         <v>92.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>46.0</v>
@@ -1051,12 +1051,12 @@
         <v>89.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>46.0</v>
@@ -1065,12 +1065,12 @@
         <v>89.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>46.0</v>
@@ -1084,21 +1084,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1107,12 +1107,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1121,12 +1121,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1135,12 +1135,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1149,12 +1149,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1177,12 +1177,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1191,12 +1191,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1205,12 +1205,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1219,12 +1219,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1233,12 +1233,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1247,12 +1247,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1261,12 +1261,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1289,12 +1289,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1303,12 +1303,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1317,12 +1317,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1359,12 +1359,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>73.0</v>
@@ -1387,12 +1387,12 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>73.0</v>
@@ -1401,26 +1401,26 @@
         <v>62.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>79.0</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>79.0</v>
@@ -1443,12 +1443,12 @@
         <v>56.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>79.0</v>
@@ -1457,12 +1457,12 @@
         <v>56.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>79.0</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>79.0</v>
@@ -1485,12 +1485,12 @@
         <v>56.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>79.0</v>
@@ -1499,12 +1499,12 @@
         <v>56.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>79.0</v>
@@ -1513,20 +1513,6 @@
         <v>56.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C82" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D82" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-05</t>
+    <t>2025-10-06</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-06</t>
   </si>
   <si>
     <t>2025-10-07</t>
@@ -376,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -407,21 +404,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>77.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>130.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="4">
@@ -429,13 +426,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +446,7 @@
         <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +460,7 @@
         <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +474,7 @@
         <v>130.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="8">
@@ -485,13 +482,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +502,7 @@
         <v>128.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +516,7 @@
         <v>128.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="11">
@@ -527,13 +524,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +544,7 @@
         <v>127.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +558,7 @@
         <v>127.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +572,7 @@
         <v>127.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="15">
@@ -583,13 +580,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +600,7 @@
         <v>126.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +614,7 @@
         <v>126.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="18">
@@ -625,13 +622,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +642,7 @@
         <v>121.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +656,7 @@
         <v>121.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +670,7 @@
         <v>121.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
@@ -681,13 +678,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +698,7 @@
         <v>115.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +712,7 @@
         <v>115.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
@@ -723,13 +720,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +740,7 @@
         <v>114.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +754,7 @@
         <v>114.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +768,7 @@
         <v>114.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="29">
@@ -779,13 +776,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +796,7 @@
         <v>107.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +810,7 @@
         <v>107.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="32">
@@ -821,13 +818,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +838,7 @@
         <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +852,7 @@
         <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +866,7 @@
         <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +880,7 @@
         <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +894,7 @@
         <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +908,7 @@
         <v>99.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
@@ -919,13 +916,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +936,7 @@
         <v>97.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +950,7 @@
         <v>97.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +964,7 @@
         <v>97.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="43">
@@ -975,13 +972,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="44">
@@ -995,7 +992,7 @@
         <v>92.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="45">
@@ -1009,7 +1006,7 @@
         <v>92.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="46">
@@ -1017,13 +1014,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="47">
@@ -1037,7 +1034,7 @@
         <v>89.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -1051,7 +1048,7 @@
         <v>89.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1073,13 +1070,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1090,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="52">
@@ -1107,7 +1104,7 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="53">
@@ -1121,7 +1118,7 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
@@ -1135,7 +1132,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -1163,7 +1160,7 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -1177,7 +1174,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="58">
@@ -1191,7 +1188,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="59">
@@ -1205,7 +1202,7 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
@@ -1219,7 +1216,7 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -1233,7 +1230,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
@@ -1247,7 +1244,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1275,7 +1272,7 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
@@ -1289,7 +1286,7 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -1303,7 +1300,7 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -1345,7 +1342,7 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
@@ -1373,7 +1370,7 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="72">
@@ -1387,7 +1384,7 @@
         <v>62.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -1395,13 +1392,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="74">
@@ -1429,7 +1426,7 @@
         <v>56.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="76">
@@ -1443,7 +1440,7 @@
         <v>56.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="77">
@@ -1471,7 +1468,7 @@
         <v>56.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
@@ -1485,7 +1482,7 @@
         <v>56.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="80">
@@ -1499,20 +1496,6 @@
         <v>56.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C81" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D81" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1531,27 +1514,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1559,13 +1542,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1573,13 +1556,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1587,13 +1570,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1601,13 +1584,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>96</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1615,13 +1598,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1642,16 +1625,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1669,18 +1652,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-07</t>
@@ -373,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -397,33 +391,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>130.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>67.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>147.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>4.0</v>
@@ -432,12 +426,12 @@
         <v>130.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
@@ -446,12 +440,12 @@
         <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>4.0</v>
@@ -460,26 +454,26 @@
         <v>130.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>7.0</v>
@@ -488,12 +482,12 @@
         <v>128.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>7.0</v>
@@ -502,26 +496,26 @@
         <v>128.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>8.0</v>
@@ -530,12 +524,12 @@
         <v>127.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>8.0</v>
@@ -544,12 +538,12 @@
         <v>127.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>8.0</v>
@@ -558,26 +552,26 @@
         <v>127.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>9.0</v>
@@ -586,12 +580,12 @@
         <v>126.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>9.0</v>
@@ -600,26 +594,26 @@
         <v>126.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>14.0</v>
@@ -628,12 +622,12 @@
         <v>121.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>14.0</v>
@@ -642,12 +636,12 @@
         <v>121.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>14.0</v>
@@ -656,26 +650,26 @@
         <v>121.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>20.0</v>
@@ -684,12 +678,12 @@
         <v>115.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>20.0</v>
@@ -698,26 +692,26 @@
         <v>115.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>21.0</v>
@@ -726,12 +720,12 @@
         <v>114.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>21.0</v>
@@ -740,12 +734,12 @@
         <v>114.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>21.0</v>
@@ -754,26 +748,26 @@
         <v>114.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>28.0</v>
@@ -782,12 +776,12 @@
         <v>107.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>28.0</v>
@@ -796,26 +790,26 @@
         <v>107.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>36.0</v>
@@ -824,12 +818,12 @@
         <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>36.0</v>
@@ -838,12 +832,12 @@
         <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>36.0</v>
@@ -852,12 +846,12 @@
         <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>36.0</v>
@@ -866,12 +860,12 @@
         <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>36.0</v>
@@ -880,12 +874,12 @@
         <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>36.0</v>
@@ -894,26 +888,26 @@
         <v>99.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>38.0</v>
@@ -922,12 +916,12 @@
         <v>97.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>38.0</v>
@@ -936,12 +930,12 @@
         <v>97.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>38.0</v>
@@ -950,26 +944,26 @@
         <v>97.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>43.0</v>
@@ -978,12 +972,12 @@
         <v>92.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>43.0</v>
@@ -992,26 +986,26 @@
         <v>92.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>46.0</v>
@@ -1020,12 +1014,12 @@
         <v>89.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>46.0</v>
@@ -1034,12 +1028,12 @@
         <v>89.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>46.0</v>
@@ -1053,21 +1047,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1076,12 +1070,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1090,12 +1084,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1104,12 +1098,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1118,12 +1112,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1137,7 +1131,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1146,12 +1140,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1160,12 +1154,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1174,12 +1168,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1188,12 +1182,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1202,12 +1196,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1216,12 +1210,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1230,12 +1224,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1249,7 +1243,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1258,12 +1252,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1272,12 +1266,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1286,12 +1280,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1305,7 +1299,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1319,7 +1313,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1328,12 +1322,12 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1356,12 +1350,12 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>73.0</v>
@@ -1370,26 +1364,26 @@
         <v>62.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>79.0</v>
@@ -1403,7 +1397,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>79.0</v>
@@ -1412,12 +1406,12 @@
         <v>56.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>79.0</v>
@@ -1426,12 +1420,12 @@
         <v>56.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>79.0</v>
@@ -1445,7 +1439,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>79.0</v>
@@ -1454,12 +1448,12 @@
         <v>56.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>79.0</v>
@@ -1468,12 +1462,12 @@
         <v>56.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>79.0</v>
@@ -1482,20 +1476,6 @@
         <v>56.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n" s="0">
-        <v>79.0</v>
-      </c>
-      <c r="C80" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="D80" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -1514,27 +1494,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>88</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>90</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>58.0</v>
@@ -1542,13 +1522,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1556,13 +1536,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1570,13 +1550,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>15.0</v>
@@ -1584,13 +1564,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1598,13 +1578,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>0.0</v>
@@ -1625,16 +1605,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1652,18 +1632,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
     <t>2025-10-08</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-10-09</t>
   </si>
   <si>
@@ -263,6 +263,39 @@
     <t>2025-12-23</t>
   </si>
   <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -300,12 +333,6 @@
   </si>
   <si>
     <t>Crawled - currently not indexed</t>
-  </si>
-  <si>
-    <t>Discovered - currently not indexed</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Property</t>
@@ -367,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -391,47 +418,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>147.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>130.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>130.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>130.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>4.0</v>
@@ -440,26 +467,26 @@
         <v>130.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>7.0</v>
@@ -468,12 +495,12 @@
         <v>128.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>7.0</v>
@@ -482,26 +509,26 @@
         <v>128.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>8.0</v>
@@ -510,12 +537,12 @@
         <v>127.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>8.0</v>
@@ -524,12 +551,12 @@
         <v>127.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>8.0</v>
@@ -538,26 +565,26 @@
         <v>127.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>9.0</v>
@@ -566,12 +593,12 @@
         <v>126.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>9.0</v>
@@ -580,26 +607,26 @@
         <v>126.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>14.0</v>
@@ -608,12 +635,12 @@
         <v>121.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>14.0</v>
@@ -622,12 +649,12 @@
         <v>121.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>14.0</v>
@@ -636,26 +663,26 @@
         <v>121.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>20.0</v>
@@ -664,12 +691,12 @@
         <v>115.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>20.0</v>
@@ -678,26 +705,26 @@
         <v>115.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>21.0</v>
@@ -706,12 +733,12 @@
         <v>114.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>21.0</v>
@@ -720,12 +747,12 @@
         <v>114.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>21.0</v>
@@ -734,26 +761,26 @@
         <v>114.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>28.0</v>
@@ -762,12 +789,12 @@
         <v>107.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>28.0</v>
@@ -776,26 +803,26 @@
         <v>107.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>36.0</v>
@@ -804,12 +831,12 @@
         <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>36.0</v>
@@ -818,12 +845,12 @@
         <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>36.0</v>
@@ -832,12 +859,12 @@
         <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>36.0</v>
@@ -846,12 +873,12 @@
         <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>36.0</v>
@@ -860,12 +887,12 @@
         <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>36.0</v>
@@ -874,26 +901,26 @@
         <v>99.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>38.0</v>
@@ -902,12 +929,12 @@
         <v>97.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>38.0</v>
@@ -916,12 +943,12 @@
         <v>97.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>38.0</v>
@@ -930,26 +957,26 @@
         <v>97.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>43.0</v>
@@ -958,12 +985,12 @@
         <v>92.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>43.0</v>
@@ -972,26 +999,26 @@
         <v>92.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>46.0</v>
@@ -1000,12 +1027,12 @@
         <v>89.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>46.0</v>
@@ -1014,12 +1041,12 @@
         <v>89.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>46.0</v>
@@ -1033,21 +1060,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1056,12 +1083,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1070,12 +1097,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1084,12 +1111,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1098,12 +1125,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1117,7 +1144,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1126,12 +1153,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1140,12 +1167,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1154,12 +1181,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1168,12 +1195,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1182,12 +1209,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1196,12 +1223,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1210,12 +1237,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1229,7 +1256,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1238,12 +1265,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1252,12 +1279,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1266,12 +1293,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1285,7 +1312,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1299,7 +1326,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1308,12 +1335,12 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>73.0</v>
@@ -1327,7 +1354,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>73.0</v>
@@ -1336,12 +1363,12 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>73.0</v>
@@ -1350,26 +1377,26 @@
         <v>62.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>79.0</v>
@@ -1383,7 +1410,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>79.0</v>
@@ -1392,12 +1419,12 @@
         <v>56.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>79.0</v>
@@ -1406,12 +1433,12 @@
         <v>56.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>79.0</v>
@@ -1425,7 +1452,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>79.0</v>
@@ -1434,12 +1461,12 @@
         <v>56.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>79.0</v>
@@ -1448,12 +1475,12 @@
         <v>56.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>79.0</v>
@@ -1462,21 +1489,161 @@
         <v>56.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D81" t="n" s="0">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D82" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D83" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1494,41 +1661,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>58.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1536,13 +1703,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1550,44 +1717,30 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1605,16 +1758,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1632,18 +1785,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-08</t>
+    <t>2025-10-09</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-09</t>
   </si>
   <si>
     <t>2025-10-10</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>67.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="3">
@@ -439,21 +436,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>130.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="5">
@@ -461,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +478,7 @@
         <v>128.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +492,7 @@
         <v>128.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="8">
@@ -503,13 +500,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +520,7 @@
         <v>127.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +534,7 @@
         <v>127.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +548,7 @@
         <v>127.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +556,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +576,7 @@
         <v>126.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>126.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,13 +598,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +618,7 @@
         <v>121.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +632,7 @@
         <v>121.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +646,7 @@
         <v>121.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
@@ -657,13 +654,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="20">
@@ -677,7 +674,7 @@
         <v>115.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +688,7 @@
         <v>115.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="22">
@@ -699,13 +696,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="23">
@@ -719,7 +716,7 @@
         <v>114.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -733,7 +730,7 @@
         <v>114.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="25">
@@ -747,7 +744,7 @@
         <v>114.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
@@ -755,13 +752,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +772,7 @@
         <v>107.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +786,7 @@
         <v>107.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="29">
@@ -797,13 +794,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="30">
@@ -817,7 +814,7 @@
         <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="31">
@@ -831,7 +828,7 @@
         <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +842,7 @@
         <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
@@ -859,7 +856,7 @@
         <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
@@ -873,7 +870,7 @@
         <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +884,7 @@
         <v>99.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="36">
@@ -895,13 +892,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +912,7 @@
         <v>97.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="38">
@@ -929,7 +926,7 @@
         <v>97.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="39">
@@ -943,7 +940,7 @@
         <v>97.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
@@ -951,13 +948,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +968,7 @@
         <v>92.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="42">
@@ -985,7 +982,7 @@
         <v>92.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="43">
@@ -993,13 +990,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="44">
@@ -1013,7 +1010,7 @@
         <v>89.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1024,7 @@
         <v>89.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="46">
@@ -1049,13 +1046,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1066,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="49">
@@ -1083,7 +1080,7 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="50">
@@ -1097,7 +1094,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -1111,7 +1108,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1139,7 +1136,7 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1153,7 +1150,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
@@ -1167,7 +1164,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="56">
@@ -1181,7 +1178,7 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
@@ -1195,7 +1192,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1209,7 +1206,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
@@ -1223,7 +1220,7 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1251,7 +1248,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -1265,7 +1262,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -1279,7 +1276,7 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -1321,7 +1318,7 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
@@ -1349,7 +1346,7 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="69">
@@ -1363,7 +1360,7 @@
         <v>62.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
@@ -1371,13 +1368,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="71">
@@ -1405,7 +1402,7 @@
         <v>56.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="73">
@@ -1419,7 +1416,7 @@
         <v>56.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="74">
@@ -1447,7 +1444,7 @@
         <v>56.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -1461,7 +1458,7 @@
         <v>56.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="77">
@@ -1475,7 +1472,7 @@
         <v>56.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
@@ -1483,13 +1480,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -1503,7 +1500,7 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="80">
@@ -1517,7 +1514,7 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -1559,7 +1556,7 @@
         <v>50.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -1573,7 +1570,7 @@
         <v>50.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -1587,7 +1584,7 @@
         <v>50.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="86">
@@ -1601,7 +1598,7 @@
         <v>50.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
@@ -1615,7 +1612,7 @@
         <v>50.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
@@ -1629,20 +1626,6 @@
         <v>50.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>85.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1661,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>69.0</v>
@@ -1689,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1703,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1717,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1731,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1758,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-09</t>
+    <t>2025-10-10</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-10</t>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>85.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>130.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>128.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>128.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +503,7 @@
         <v>127.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>127.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +531,7 @@
         <v>127.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>126.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +573,7 @@
         <v>126.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,13 +581,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +601,7 @@
         <v>121.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +615,7 @@
         <v>121.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +629,7 @@
         <v>121.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,13 +637,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>115.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>115.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="21">
@@ -682,13 +679,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +699,7 @@
         <v>114.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>114.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +727,7 @@
         <v>114.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="25">
@@ -738,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +755,7 @@
         <v>107.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +769,7 @@
         <v>107.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="28">
@@ -780,13 +777,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +797,7 @@
         <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +811,7 @@
         <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +825,7 @@
         <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
@@ -842,7 +839,7 @@
         <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +853,7 @@
         <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +867,7 @@
         <v>99.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="35">
@@ -878,13 +875,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +895,7 @@
         <v>97.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>97.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +923,7 @@
         <v>97.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
@@ -934,13 +931,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +951,7 @@
         <v>92.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +965,7 @@
         <v>92.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="42">
@@ -976,13 +973,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +993,7 @@
         <v>89.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1007,7 @@
         <v>89.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45">
@@ -1032,13 +1029,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1049,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1063,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="49">
@@ -1080,7 +1077,7 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -1094,7 +1091,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1122,7 +1119,7 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1136,7 +1133,7 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1147,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1161,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
@@ -1178,7 +1175,7 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1192,7 +1189,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1203,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1234,7 +1231,7 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1245,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1304,7 +1301,7 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -1332,7 +1329,7 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1343,7 @@
         <v>62.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -1354,13 +1351,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="70">
@@ -1388,7 +1385,7 @@
         <v>56.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1399,7 @@
         <v>56.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="73">
@@ -1430,7 +1427,7 @@
         <v>56.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>56.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>56.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,13 +1463,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1483,7 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1497,7 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -1542,7 +1539,7 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1553,7 @@
         <v>50.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -1570,7 +1567,7 @@
         <v>50.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="85">
@@ -1584,7 +1581,7 @@
         <v>50.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1595,7 @@
         <v>50.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>50.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>85.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>69.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -388,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +406,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>130.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>7.0</v>
@@ -447,12 +441,12 @@
         <v>128.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>7.0</v>
@@ -461,26 +455,26 @@
         <v>128.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>8.0</v>
@@ -489,12 +483,12 @@
         <v>127.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>8.0</v>
@@ -503,12 +497,12 @@
         <v>127.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>8.0</v>
@@ -517,26 +511,26 @@
         <v>127.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>9.0</v>
@@ -545,12 +539,12 @@
         <v>126.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>9.0</v>
@@ -559,26 +553,26 @@
         <v>126.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>14.0</v>
@@ -587,12 +581,12 @@
         <v>121.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>14.0</v>
@@ -601,12 +595,12 @@
         <v>121.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>14.0</v>
@@ -615,26 +609,26 @@
         <v>121.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>20.0</v>
@@ -643,12 +637,12 @@
         <v>115.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>20.0</v>
@@ -657,26 +651,26 @@
         <v>115.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>21.0</v>
@@ -685,12 +679,12 @@
         <v>114.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>21.0</v>
@@ -699,12 +693,12 @@
         <v>114.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>21.0</v>
@@ -713,26 +707,26 @@
         <v>114.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>28.0</v>
@@ -741,12 +735,12 @@
         <v>107.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>28.0</v>
@@ -755,26 +749,26 @@
         <v>107.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>36.0</v>
@@ -783,12 +777,12 @@
         <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>36.0</v>
@@ -797,12 +791,12 @@
         <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>36.0</v>
@@ -811,12 +805,12 @@
         <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>36.0</v>
@@ -825,12 +819,12 @@
         <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>36.0</v>
@@ -839,12 +833,12 @@
         <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>36.0</v>
@@ -853,26 +847,26 @@
         <v>99.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>38.0</v>
@@ -881,12 +875,12 @@
         <v>97.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>38.0</v>
@@ -895,12 +889,12 @@
         <v>97.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>38.0</v>
@@ -909,26 +903,26 @@
         <v>97.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>43.0</v>
@@ -937,12 +931,12 @@
         <v>92.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>43.0</v>
@@ -951,26 +945,26 @@
         <v>92.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>46.0</v>
@@ -979,12 +973,12 @@
         <v>89.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>46.0</v>
@@ -993,12 +987,12 @@
         <v>89.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>46.0</v>
@@ -1012,21 +1006,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1035,12 +1029,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1049,12 +1043,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1063,12 +1057,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1077,12 +1071,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1096,7 +1090,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1105,12 +1099,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1119,12 +1113,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1133,12 +1127,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1147,12 +1141,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1161,12 +1155,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1175,12 +1169,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1189,12 +1183,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1208,7 +1202,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1217,12 +1211,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1231,12 +1225,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1245,12 +1239,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1264,7 +1258,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1278,7 +1272,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1287,12 +1281,12 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1306,7 +1300,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1315,12 +1309,12 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>73.0</v>
@@ -1329,26 +1323,26 @@
         <v>62.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>79.0</v>
@@ -1362,7 +1356,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>79.0</v>
@@ -1371,12 +1365,12 @@
         <v>56.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>79.0</v>
@@ -1385,12 +1379,12 @@
         <v>56.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>79.0</v>
@@ -1404,7 +1398,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>79.0</v>
@@ -1413,12 +1407,12 @@
         <v>56.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>79.0</v>
@@ -1427,12 +1421,12 @@
         <v>56.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>79.0</v>
@@ -1441,26 +1435,26 @@
         <v>56.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>85.0</v>
@@ -1469,12 +1463,12 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>85.0</v>
@@ -1483,12 +1477,12 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>85.0</v>
@@ -1502,7 +1496,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>85.0</v>
@@ -1516,7 +1510,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>85.0</v>
@@ -1525,12 +1519,12 @@
         <v>50.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>85.0</v>
@@ -1539,12 +1533,12 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>85.0</v>
@@ -1553,12 +1547,12 @@
         <v>50.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>85.0</v>
@@ -1567,12 +1561,12 @@
         <v>50.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>85.0</v>
@@ -1581,12 +1575,12 @@
         <v>50.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>85.0</v>
@@ -1595,20 +1589,6 @@
         <v>50.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n" s="0">
-        <v>85.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1627,27 +1607,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>69.0</v>
@@ -1655,13 +1635,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1669,13 +1649,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1683,13 +1663,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>102</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1697,13 +1677,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1724,16 +1704,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1731,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
     <t>2025-10-12</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-13</t>
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -406,33 +406,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>130.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>52.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>128.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>7.0</v>
@@ -441,26 +441,26 @@
         <v>128.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>8.0</v>
@@ -469,12 +469,12 @@
         <v>127.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>8.0</v>
@@ -483,12 +483,12 @@
         <v>127.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>8.0</v>
@@ -497,26 +497,26 @@
         <v>127.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>9.0</v>
@@ -525,12 +525,12 @@
         <v>126.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>9.0</v>
@@ -539,26 +539,26 @@
         <v>126.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>14.0</v>
@@ -567,12 +567,12 @@
         <v>121.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>14.0</v>
@@ -581,12 +581,12 @@
         <v>121.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>14.0</v>
@@ -595,26 +595,26 @@
         <v>121.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>20.0</v>
@@ -623,12 +623,12 @@
         <v>115.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>20.0</v>
@@ -637,26 +637,26 @@
         <v>115.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>21.0</v>
@@ -665,12 +665,12 @@
         <v>114.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>21.0</v>
@@ -679,12 +679,12 @@
         <v>114.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>21.0</v>
@@ -693,26 +693,26 @@
         <v>114.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>28.0</v>
@@ -721,12 +721,12 @@
         <v>107.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>28.0</v>
@@ -735,26 +735,26 @@
         <v>107.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>36.0</v>
@@ -763,12 +763,12 @@
         <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>36.0</v>
@@ -777,12 +777,12 @@
         <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>36.0</v>
@@ -791,12 +791,12 @@
         <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>36.0</v>
@@ -805,12 +805,12 @@
         <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>36.0</v>
@@ -819,12 +819,12 @@
         <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>36.0</v>
@@ -833,26 +833,26 @@
         <v>99.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>38.0</v>
@@ -861,12 +861,12 @@
         <v>97.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>38.0</v>
@@ -875,12 +875,12 @@
         <v>97.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>38.0</v>
@@ -889,26 +889,26 @@
         <v>97.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>43.0</v>
@@ -917,12 +917,12 @@
         <v>92.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>43.0</v>
@@ -931,26 +931,26 @@
         <v>92.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>46.0</v>
@@ -959,12 +959,12 @@
         <v>89.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>46.0</v>
@@ -973,12 +973,12 @@
         <v>89.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>46.0</v>
@@ -992,21 +992,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1015,12 +1015,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1029,12 +1029,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1043,12 +1043,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1057,12 +1057,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1085,12 +1085,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1099,12 +1099,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1113,12 +1113,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1127,12 +1127,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1141,12 +1141,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1155,12 +1155,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1169,12 +1169,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1197,12 +1197,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1211,12 +1211,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1225,12 +1225,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1267,12 +1267,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>73.0</v>
@@ -1295,12 +1295,12 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>73.0</v>
@@ -1309,26 +1309,26 @@
         <v>62.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>79.0</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>79.0</v>
@@ -1351,12 +1351,12 @@
         <v>56.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>79.0</v>
@@ -1365,12 +1365,12 @@
         <v>56.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>79.0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>79.0</v>
@@ -1393,12 +1393,12 @@
         <v>56.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>79.0</v>
@@ -1407,12 +1407,12 @@
         <v>56.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>79.0</v>
@@ -1421,26 +1421,26 @@
         <v>56.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>85.0</v>
@@ -1449,12 +1449,12 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>85.0</v>
@@ -1463,12 +1463,12 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>85.0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>85.0</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>85.0</v>
@@ -1505,12 +1505,12 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>85.0</v>
@@ -1519,12 +1519,12 @@
         <v>50.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>85.0</v>
@@ -1533,12 +1533,12 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>85.0</v>
@@ -1547,12 +1547,12 @@
         <v>50.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>85.0</v>
@@ -1561,12 +1561,12 @@
         <v>50.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>85.0</v>
@@ -1575,20 +1575,6 @@
         <v>50.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n" s="0">
-        <v>85.0</v>
-      </c>
-      <c r="C86" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="D86" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-12</t>
+    <t>2025-10-13</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-13</t>
   </si>
   <si>
     <t>2025-10-14</t>
@@ -382,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -413,21 +410,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>128.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="4">
@@ -435,13 +432,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
@@ -455,7 +452,7 @@
         <v>127.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="6">
@@ -469,7 +466,7 @@
         <v>127.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +480,7 @@
         <v>127.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +488,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +508,7 @@
         <v>126.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +522,7 @@
         <v>126.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="11">
@@ -533,13 +530,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +550,7 @@
         <v>121.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +564,7 @@
         <v>121.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="14">
@@ -581,7 +578,7 @@
         <v>121.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
@@ -589,13 +586,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,7 +606,7 @@
         <v>115.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +620,7 @@
         <v>115.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,13 +628,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +648,7 @@
         <v>114.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -665,7 +662,7 @@
         <v>114.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="21">
@@ -679,7 +676,7 @@
         <v>114.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="22">
@@ -687,13 +684,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -707,7 +704,7 @@
         <v>107.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -721,7 +718,7 @@
         <v>107.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="25">
@@ -729,13 +726,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +746,7 @@
         <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="27">
@@ -763,7 +760,7 @@
         <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
@@ -777,7 +774,7 @@
         <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +788,7 @@
         <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="30">
@@ -805,7 +802,7 @@
         <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="31">
@@ -819,7 +816,7 @@
         <v>99.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
@@ -827,13 +824,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="33">
@@ -847,7 +844,7 @@
         <v>97.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="34">
@@ -861,7 +858,7 @@
         <v>97.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
@@ -875,7 +872,7 @@
         <v>97.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="36">
@@ -883,13 +880,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="37">
@@ -903,7 +900,7 @@
         <v>92.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="38">
@@ -917,7 +914,7 @@
         <v>92.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="39">
@@ -925,13 +922,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="40">
@@ -945,7 +942,7 @@
         <v>89.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="41">
@@ -959,7 +956,7 @@
         <v>89.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="42">
@@ -981,13 +978,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +998,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -1015,7 +1012,7 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="46">
@@ -1029,7 +1026,7 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -1043,7 +1040,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +1068,7 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1085,7 +1082,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="51">
@@ -1099,7 +1096,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="52">
@@ -1113,7 +1110,7 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
@@ -1127,7 +1124,7 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1141,7 +1138,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
@@ -1155,7 +1152,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1180,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
@@ -1197,7 +1194,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -1211,7 +1208,7 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1253,7 +1250,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -1281,7 +1278,7 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="65">
@@ -1295,7 +1292,7 @@
         <v>62.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="66">
@@ -1303,13 +1300,13 @@
         <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
@@ -1337,7 +1334,7 @@
         <v>56.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="69">
@@ -1351,7 +1348,7 @@
         <v>56.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="70">
@@ -1379,7 +1376,7 @@
         <v>56.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -1393,7 +1390,7 @@
         <v>56.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="73">
@@ -1407,7 +1404,7 @@
         <v>56.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -1415,13 +1412,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -1435,7 +1432,7 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="76">
@@ -1449,7 +1446,7 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -1491,7 +1488,7 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1505,7 +1502,7 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -1519,7 +1516,7 @@
         <v>50.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="82">
@@ -1533,7 +1530,7 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -1547,7 +1544,7 @@
         <v>50.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -1561,20 +1558,6 @@
         <v>50.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n" s="0">
-        <v>85.0</v>
-      </c>
-      <c r="C85" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="D85" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1593,27 +1576,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>69.0</v>
@@ -1621,13 +1604,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1635,13 +1618,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>1.0</v>
@@ -1649,13 +1632,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1663,13 +1646,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -1690,16 +1673,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1717,18 +1700,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-10-14</t>
   </si>
   <si>
@@ -279,6 +273,27 @@
   </si>
   <si>
     <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
   </si>
   <si>
     <t>Reason</t>
@@ -379,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -403,33 +418,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>128.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>8.0</v>
@@ -438,12 +453,12 @@
         <v>127.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>8.0</v>
@@ -452,12 +467,12 @@
         <v>127.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>8.0</v>
@@ -466,26 +481,26 @@
         <v>127.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>9.0</v>
@@ -494,12 +509,12 @@
         <v>126.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>9.0</v>
@@ -508,26 +523,26 @@
         <v>126.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>14.0</v>
@@ -536,12 +551,12 @@
         <v>121.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>14.0</v>
@@ -550,12 +565,12 @@
         <v>121.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>14.0</v>
@@ -564,26 +579,26 @@
         <v>121.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>20.0</v>
@@ -592,12 +607,12 @@
         <v>115.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>20.0</v>
@@ -606,26 +621,26 @@
         <v>115.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>21.0</v>
@@ -634,12 +649,12 @@
         <v>114.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>21.0</v>
@@ -648,12 +663,12 @@
         <v>114.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>21.0</v>
@@ -662,26 +677,26 @@
         <v>114.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>28.0</v>
@@ -690,12 +705,12 @@
         <v>107.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>28.0</v>
@@ -704,26 +719,26 @@
         <v>107.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>36.0</v>
@@ -732,12 +747,12 @@
         <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>36.0</v>
@@ -746,12 +761,12 @@
         <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>36.0</v>
@@ -760,12 +775,12 @@
         <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>36.0</v>
@@ -774,12 +789,12 @@
         <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>36.0</v>
@@ -788,12 +803,12 @@
         <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>36.0</v>
@@ -802,26 +817,26 @@
         <v>99.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>38.0</v>
@@ -830,12 +845,12 @@
         <v>97.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>38.0</v>
@@ -844,12 +859,12 @@
         <v>97.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>38.0</v>
@@ -858,26 +873,26 @@
         <v>97.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>43.0</v>
@@ -886,12 +901,12 @@
         <v>92.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>43.0</v>
@@ -900,26 +915,26 @@
         <v>92.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>46.0</v>
@@ -928,12 +943,12 @@
         <v>89.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>46.0</v>
@@ -942,12 +957,12 @@
         <v>89.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>46.0</v>
@@ -961,21 +976,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -984,12 +999,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -998,12 +1013,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1012,12 +1027,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1026,12 +1041,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1045,7 +1060,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1054,12 +1069,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1068,12 +1083,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1082,12 +1097,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1096,12 +1111,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1110,12 +1125,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1124,12 +1139,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1138,12 +1153,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1157,7 +1172,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1166,12 +1181,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1180,12 +1195,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1194,12 +1209,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1213,7 +1228,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1227,7 +1242,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1236,12 +1251,12 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1255,7 +1270,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1264,12 +1279,12 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>73.0</v>
@@ -1278,26 +1293,26 @@
         <v>62.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>79.0</v>
@@ -1311,7 +1326,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>79.0</v>
@@ -1320,12 +1335,12 @@
         <v>56.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>79.0</v>
@@ -1334,12 +1349,12 @@
         <v>56.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>79.0</v>
@@ -1353,7 +1368,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>79.0</v>
@@ -1362,12 +1377,12 @@
         <v>56.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>79.0</v>
@@ -1376,12 +1391,12 @@
         <v>56.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>79.0</v>
@@ -1390,26 +1405,26 @@
         <v>56.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>85.0</v>
@@ -1418,12 +1433,12 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>85.0</v>
@@ -1432,12 +1447,12 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>85.0</v>
@@ -1451,7 +1466,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>85.0</v>
@@ -1465,7 +1480,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>85.0</v>
@@ -1474,12 +1489,12 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>85.0</v>
@@ -1488,12 +1503,12 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>85.0</v>
@@ -1502,12 +1517,12 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>85.0</v>
@@ -1516,12 +1531,12 @@
         <v>50.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>85.0</v>
@@ -1530,12 +1545,12 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>85.0</v>
@@ -1544,21 +1559,105 @@
         <v>50.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D84" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B84" t="n" s="0">
+      <c r="B85" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D85" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
         <v>85.0</v>
       </c>
-      <c r="C84" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="D84" t="n" s="0">
-        <v>29.0</v>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>121.0</v>
       </c>
     </row>
   </sheetData>
@@ -1576,41 +1675,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1618,27 +1717,27 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1646,16 +1745,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1673,16 +1772,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1700,18 +1799,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-16</t>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -418,47 +418,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>128.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>127.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>127.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>8.0</v>
@@ -467,26 +467,26 @@
         <v>127.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>9.0</v>
@@ -495,12 +495,12 @@
         <v>126.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>9.0</v>
@@ -509,26 +509,26 @@
         <v>126.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>14.0</v>
@@ -537,12 +537,12 @@
         <v>121.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>14.0</v>
@@ -551,12 +551,12 @@
         <v>121.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>14.0</v>
@@ -565,26 +565,26 @@
         <v>121.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>20.0</v>
@@ -593,12 +593,12 @@
         <v>115.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>20.0</v>
@@ -607,26 +607,26 @@
         <v>115.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>21.0</v>
@@ -635,12 +635,12 @@
         <v>114.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>21.0</v>
@@ -649,12 +649,12 @@
         <v>114.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>21.0</v>
@@ -663,26 +663,26 @@
         <v>114.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>28.0</v>
@@ -691,12 +691,12 @@
         <v>107.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>28.0</v>
@@ -705,26 +705,26 @@
         <v>107.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>36.0</v>
@@ -733,12 +733,12 @@
         <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>36.0</v>
@@ -747,12 +747,12 @@
         <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>36.0</v>
@@ -761,12 +761,12 @@
         <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>36.0</v>
@@ -775,12 +775,12 @@
         <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>36.0</v>
@@ -789,12 +789,12 @@
         <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>36.0</v>
@@ -803,26 +803,26 @@
         <v>99.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>38.0</v>
@@ -831,12 +831,12 @@
         <v>97.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>38.0</v>
@@ -845,12 +845,12 @@
         <v>97.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>38.0</v>
@@ -859,26 +859,26 @@
         <v>97.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>43.0</v>
@@ -887,12 +887,12 @@
         <v>92.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>43.0</v>
@@ -901,26 +901,26 @@
         <v>92.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>46.0</v>
@@ -929,12 +929,12 @@
         <v>89.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>46.0</v>
@@ -943,12 +943,12 @@
         <v>89.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>46.0</v>
@@ -962,21 +962,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -985,12 +985,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -999,12 +999,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1013,12 +1013,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1027,12 +1027,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1055,12 +1055,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1069,12 +1069,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1083,12 +1083,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1097,12 +1097,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1111,12 +1111,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1125,12 +1125,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1139,12 +1139,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1167,12 +1167,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1181,12 +1181,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1195,12 +1195,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1237,12 +1237,12 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>73.0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>73.0</v>
@@ -1265,12 +1265,12 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>73.0</v>
@@ -1279,26 +1279,26 @@
         <v>62.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>79.0</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>79.0</v>
@@ -1321,12 +1321,12 @@
         <v>56.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>79.0</v>
@@ -1335,12 +1335,12 @@
         <v>56.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>79.0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>79.0</v>
@@ -1363,12 +1363,12 @@
         <v>56.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>79.0</v>
@@ -1377,12 +1377,12 @@
         <v>56.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>79.0</v>
@@ -1391,26 +1391,26 @@
         <v>56.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>85.0</v>
@@ -1419,12 +1419,12 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>85.0</v>
@@ -1433,12 +1433,12 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>85.0</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>85.0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>85.0</v>
@@ -1475,12 +1475,12 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>85.0</v>
@@ -1489,12 +1489,12 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>85.0</v>
@@ -1503,12 +1503,12 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>85.0</v>
@@ -1517,12 +1517,12 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>85.0</v>
@@ -1531,12 +1531,12 @@
         <v>50.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>85.0</v>
@@ -1545,26 +1545,26 @@
         <v>50.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>90.0</v>
@@ -1573,12 +1573,12 @@
         <v>45.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>90.0</v>
@@ -1587,26 +1587,26 @@
         <v>45.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>93.0</v>
@@ -1615,12 +1615,12 @@
         <v>42.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>93.0</v>
@@ -1629,12 +1629,12 @@
         <v>42.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>93.0</v>
@@ -1643,20 +1643,6 @@
         <v>42.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>93.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>121.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-15</t>
+    <t>2025-10-16</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-16</t>
   </si>
   <si>
     <t>2025-10-17</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>46.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="3">
@@ -439,21 +436,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>127.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="5">
@@ -461,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +478,7 @@
         <v>126.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +492,7 @@
         <v>126.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="8">
@@ -503,13 +500,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +520,7 @@
         <v>121.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +534,7 @@
         <v>121.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +548,7 @@
         <v>121.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +556,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +576,7 @@
         <v>115.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>115.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,13 +598,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +618,7 @@
         <v>114.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +632,7 @@
         <v>114.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +646,7 @@
         <v>114.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="19">
@@ -657,13 +654,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -677,7 +674,7 @@
         <v>107.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +688,7 @@
         <v>107.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="22">
@@ -699,13 +696,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
@@ -719,7 +716,7 @@
         <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="24">
@@ -733,7 +730,7 @@
         <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
@@ -747,7 +744,7 @@
         <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
@@ -761,7 +758,7 @@
         <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +772,7 @@
         <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +786,7 @@
         <v>99.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="29">
@@ -797,13 +794,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="30">
@@ -817,7 +814,7 @@
         <v>97.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="31">
@@ -831,7 +828,7 @@
         <v>97.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +842,7 @@
         <v>97.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="33">
@@ -853,13 +850,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="34">
@@ -873,7 +870,7 @@
         <v>92.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +884,7 @@
         <v>92.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="36">
@@ -895,13 +892,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +912,7 @@
         <v>89.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="38">
@@ -929,7 +926,7 @@
         <v>89.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="39">
@@ -951,13 +948,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +968,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="42">
@@ -985,7 +982,7 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="43">
@@ -999,7 +996,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -1013,7 +1010,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1041,7 +1038,7 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1055,7 +1052,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1066,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="49">
@@ -1083,7 +1080,7 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
@@ -1097,7 +1094,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1111,7 +1108,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -1125,7 +1122,7 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1153,7 +1150,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
@@ -1167,7 +1164,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -1181,7 +1178,7 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -1223,7 +1220,7 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
@@ -1251,7 +1248,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="62">
@@ -1265,7 +1262,7 @@
         <v>62.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
@@ -1273,13 +1270,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="64">
@@ -1307,7 +1304,7 @@
         <v>56.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="66">
@@ -1321,7 +1318,7 @@
         <v>56.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="67">
@@ -1349,7 +1346,7 @@
         <v>56.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
@@ -1363,7 +1360,7 @@
         <v>56.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="70">
@@ -1377,7 +1374,7 @@
         <v>56.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
@@ -1385,13 +1382,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -1405,7 +1402,7 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="73">
@@ -1419,7 +1416,7 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -1461,7 +1458,7 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -1475,7 +1472,7 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -1489,7 +1486,7 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="79">
@@ -1503,7 +1500,7 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -1517,7 +1514,7 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
@@ -1531,7 +1528,7 @@
         <v>50.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="82">
@@ -1539,13 +1536,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="83">
@@ -1559,7 +1556,7 @@
         <v>45.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -1573,7 +1570,7 @@
         <v>45.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="85">
@@ -1581,13 +1578,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="86">
@@ -1601,7 +1598,7 @@
         <v>42.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="87">
@@ -1615,7 +1612,7 @@
         <v>42.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="88">
@@ -1629,20 +1626,6 @@
         <v>42.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>93.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>121.0</v>
       </c>
     </row>
@@ -1661,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>74.0</v>
@@ -1689,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1703,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1717,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1731,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>3.0</v>
@@ -1758,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-16</t>
+    <t>2025-10-17</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
     <t>2025-10-18</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>Reason</t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +428,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>74.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>127.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +470,7 @@
         <v>126.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +484,7 @@
         <v>126.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +492,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +512,7 @@
         <v>121.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +526,7 @@
         <v>121.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +540,7 @@
         <v>121.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +548,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +568,7 @@
         <v>115.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +582,7 @@
         <v>115.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,13 +590,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +610,7 @@
         <v>114.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +624,7 @@
         <v>114.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +638,7 @@
         <v>114.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,13 +646,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +666,7 @@
         <v>107.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +680,7 @@
         <v>107.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="21">
@@ -682,13 +688,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +708,7 @@
         <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +722,7 @@
         <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +736,7 @@
         <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
@@ -744,7 +750,7 @@
         <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +764,7 @@
         <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +778,7 @@
         <v>99.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
@@ -780,13 +786,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +806,7 @@
         <v>97.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +820,7 @@
         <v>97.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +834,7 @@
         <v>97.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="32">
@@ -836,13 +842,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +862,7 @@
         <v>92.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +876,7 @@
         <v>92.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="35">
@@ -878,13 +884,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +904,7 @@
         <v>89.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +918,7 @@
         <v>89.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="38">
@@ -934,13 +940,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +960,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +974,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="42">
@@ -982,7 +988,7 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +1002,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -1024,7 +1030,7 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1044,7 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1058,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1072,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -1080,7 +1086,7 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1094,7 +1100,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1114,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1142,7 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1156,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1170,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -1206,7 +1212,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -1234,7 +1240,7 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1254,7 @@
         <v>62.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
@@ -1256,13 +1262,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="63">
@@ -1290,7 +1296,7 @@
         <v>56.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1310,7 @@
         <v>56.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="66">
@@ -1332,7 +1338,7 @@
         <v>56.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1352,7 @@
         <v>56.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1366,7 @@
         <v>56.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,13 +1374,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -1388,7 +1394,7 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1408,7 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -1444,7 +1450,7 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1464,7 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -1472,7 +1478,7 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1492,7 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1506,7 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1520,7 @@
         <v>50.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1528,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1548,7 @@
         <v>45.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1562,7 @@
         <v>45.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="84">
@@ -1564,13 +1570,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="85">
@@ -1584,7 +1590,7 @@
         <v>42.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1604,7 @@
         <v>42.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,7 +1618,7 @@
         <v>42.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="88">
@@ -1620,13 +1626,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>67.0</v>
       </c>
     </row>
   </sheetData>
@@ -1644,27 +1678,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>74.0</v>
@@ -1672,13 +1706,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1686,13 +1720,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1734,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,16 +1748,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1741,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-18</t>
@@ -397,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>127.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>9.0</v>
@@ -456,12 +450,12 @@
         <v>126.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>9.0</v>
@@ -470,26 +464,26 @@
         <v>126.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>14.0</v>
@@ -498,12 +492,12 @@
         <v>121.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>14.0</v>
@@ -512,12 +506,12 @@
         <v>121.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>14.0</v>
@@ -526,26 +520,26 @@
         <v>121.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>20.0</v>
@@ -554,12 +548,12 @@
         <v>115.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>20.0</v>
@@ -568,26 +562,26 @@
         <v>115.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>21.0</v>
@@ -596,12 +590,12 @@
         <v>114.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>21.0</v>
@@ -610,12 +604,12 @@
         <v>114.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>21.0</v>
@@ -624,26 +618,26 @@
         <v>114.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>28.0</v>
@@ -652,12 +646,12 @@
         <v>107.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>28.0</v>
@@ -666,26 +660,26 @@
         <v>107.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>36.0</v>
@@ -694,12 +688,12 @@
         <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>36.0</v>
@@ -708,12 +702,12 @@
         <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>36.0</v>
@@ -722,12 +716,12 @@
         <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>36.0</v>
@@ -736,12 +730,12 @@
         <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>36.0</v>
@@ -750,12 +744,12 @@
         <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>36.0</v>
@@ -764,26 +758,26 @@
         <v>99.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>38.0</v>
@@ -792,12 +786,12 @@
         <v>97.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>38.0</v>
@@ -806,12 +800,12 @@
         <v>97.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>38.0</v>
@@ -820,26 +814,26 @@
         <v>97.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>43.0</v>
@@ -848,12 +842,12 @@
         <v>92.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>43.0</v>
@@ -862,26 +856,26 @@
         <v>92.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>46.0</v>
@@ -890,12 +884,12 @@
         <v>89.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>46.0</v>
@@ -904,12 +898,12 @@
         <v>89.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>46.0</v>
@@ -923,21 +917,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -946,12 +940,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -960,12 +954,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -974,12 +968,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -988,12 +982,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -1007,7 +1001,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1016,12 +1010,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1030,12 +1024,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1044,12 +1038,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1058,12 +1052,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1072,12 +1066,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1086,12 +1080,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1100,12 +1094,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1128,12 +1122,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1142,12 +1136,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1156,12 +1150,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1175,7 +1169,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1189,7 +1183,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1198,12 +1192,12 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1217,7 +1211,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1226,12 +1220,12 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>73.0</v>
@@ -1240,26 +1234,26 @@
         <v>62.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>79.0</v>
@@ -1273,7 +1267,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>79.0</v>
@@ -1282,12 +1276,12 @@
         <v>56.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>79.0</v>
@@ -1296,12 +1290,12 @@
         <v>56.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>79.0</v>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>79.0</v>
@@ -1324,12 +1318,12 @@
         <v>56.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>79.0</v>
@@ -1338,12 +1332,12 @@
         <v>56.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>79.0</v>
@@ -1352,26 +1346,26 @@
         <v>56.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>85.0</v>
@@ -1380,12 +1374,12 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>85.0</v>
@@ -1394,12 +1388,12 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>85.0</v>
@@ -1413,7 +1407,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>85.0</v>
@@ -1427,7 +1421,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>85.0</v>
@@ -1436,12 +1430,12 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>85.0</v>
@@ -1450,12 +1444,12 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>85.0</v>
@@ -1464,12 +1458,12 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>85.0</v>
@@ -1478,12 +1472,12 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>85.0</v>
@@ -1492,12 +1486,12 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>85.0</v>
@@ -1506,26 +1500,26 @@
         <v>50.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>90.0</v>
@@ -1534,12 +1528,12 @@
         <v>45.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>90.0</v>
@@ -1548,26 +1542,26 @@
         <v>45.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>93.0</v>
@@ -1576,12 +1570,12 @@
         <v>42.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>93.0</v>
@@ -1590,12 +1584,12 @@
         <v>42.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>93.0</v>
@@ -1604,26 +1598,26 @@
         <v>42.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>94.0</v>
@@ -1632,12 +1626,12 @@
         <v>41.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>94.0</v>
@@ -1646,20 +1640,6 @@
         <v>41.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>94.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>67.0</v>
       </c>
     </row>
@@ -1678,27 +1658,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>74.0</v>
@@ -1706,13 +1686,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1720,13 +1700,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1734,13 +1714,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1748,13 +1728,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1775,16 +1755,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1802,18 +1782,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
     <t>2025-10-19</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -415,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>127.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>61.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>126.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>9.0</v>
@@ -450,26 +450,26 @@
         <v>126.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>14.0</v>
@@ -478,12 +478,12 @@
         <v>121.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>14.0</v>
@@ -492,12 +492,12 @@
         <v>121.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>14.0</v>
@@ -506,26 +506,26 @@
         <v>121.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>20.0</v>
@@ -534,12 +534,12 @@
         <v>115.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>20.0</v>
@@ -548,26 +548,26 @@
         <v>115.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>21.0</v>
@@ -576,12 +576,12 @@
         <v>114.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>21.0</v>
@@ -590,12 +590,12 @@
         <v>114.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>21.0</v>
@@ -604,26 +604,26 @@
         <v>114.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>28.0</v>
@@ -632,12 +632,12 @@
         <v>107.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>28.0</v>
@@ -646,26 +646,26 @@
         <v>107.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>36.0</v>
@@ -674,12 +674,12 @@
         <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>36.0</v>
@@ -688,12 +688,12 @@
         <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>36.0</v>
@@ -702,12 +702,12 @@
         <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>36.0</v>
@@ -716,12 +716,12 @@
         <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>36.0</v>
@@ -730,12 +730,12 @@
         <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>36.0</v>
@@ -744,26 +744,26 @@
         <v>99.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>38.0</v>
@@ -772,12 +772,12 @@
         <v>97.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>38.0</v>
@@ -786,12 +786,12 @@
         <v>97.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>38.0</v>
@@ -800,26 +800,26 @@
         <v>97.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>43.0</v>
@@ -828,12 +828,12 @@
         <v>92.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>43.0</v>
@@ -842,26 +842,26 @@
         <v>92.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>46.0</v>
@@ -870,12 +870,12 @@
         <v>89.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>46.0</v>
@@ -884,12 +884,12 @@
         <v>89.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>46.0</v>
@@ -903,21 +903,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -926,12 +926,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -940,12 +940,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -954,12 +954,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -968,12 +968,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -996,12 +996,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1010,12 +1010,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1024,12 +1024,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1038,12 +1038,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1052,12 +1052,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1066,12 +1066,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1080,12 +1080,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1108,12 +1108,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1122,12 +1122,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1136,12 +1136,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1178,12 +1178,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>73.0</v>
@@ -1206,12 +1206,12 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>73.0</v>
@@ -1220,26 +1220,26 @@
         <v>62.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>79.0</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>79.0</v>
@@ -1262,12 +1262,12 @@
         <v>56.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>79.0</v>
@@ -1276,12 +1276,12 @@
         <v>56.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>79.0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>79.0</v>
@@ -1304,12 +1304,12 @@
         <v>56.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>79.0</v>
@@ -1318,12 +1318,12 @@
         <v>56.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>79.0</v>
@@ -1332,26 +1332,26 @@
         <v>56.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>85.0</v>
@@ -1360,12 +1360,12 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>85.0</v>
@@ -1374,12 +1374,12 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>85.0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>85.0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>85.0</v>
@@ -1416,12 +1416,12 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>85.0</v>
@@ -1430,12 +1430,12 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>85.0</v>
@@ -1444,12 +1444,12 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>85.0</v>
@@ -1458,12 +1458,12 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>85.0</v>
@@ -1472,12 +1472,12 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>85.0</v>
@@ -1486,26 +1486,26 @@
         <v>50.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>90.0</v>
@@ -1514,12 +1514,12 @@
         <v>45.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>90.0</v>
@@ -1528,26 +1528,26 @@
         <v>45.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>93.0</v>
@@ -1556,12 +1556,12 @@
         <v>42.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>93.0</v>
@@ -1570,12 +1570,12 @@
         <v>42.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>93.0</v>
@@ -1584,26 +1584,26 @@
         <v>42.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>94.0</v>
@@ -1612,12 +1612,12 @@
         <v>41.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>94.0</v>
@@ -1626,20 +1626,6 @@
         <v>41.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>94.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>67.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-19</t>
+    <t>2025-10-20</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-20</t>
   </si>
   <si>
     <t>2025-10-21</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>54.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>126.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>121.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>121.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +489,7 @@
         <v>121.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +497,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>115.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +531,7 @@
         <v>115.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>114.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +573,7 @@
         <v>114.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +587,7 @@
         <v>114.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,13 +595,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +615,7 @@
         <v>107.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +629,7 @@
         <v>107.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,13 +637,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
@@ -688,7 +685,7 @@
         <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +699,7 @@
         <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +727,7 @@
         <v>99.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
@@ -738,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +755,7 @@
         <v>97.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +769,7 @@
         <v>97.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="28">
@@ -786,7 +783,7 @@
         <v>97.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="29">
@@ -794,13 +791,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +811,7 @@
         <v>92.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +825,7 @@
         <v>92.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="32">
@@ -836,13 +833,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +853,7 @@
         <v>89.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +867,7 @@
         <v>89.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="35">
@@ -892,13 +889,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +923,7 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="39">
@@ -940,7 +937,7 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +951,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -982,7 +979,7 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +993,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1007,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="45">
@@ -1024,7 +1021,7 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1035,7 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1049,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1063,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1094,7 +1091,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1105,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -1122,7 +1119,7 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1164,7 +1161,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
@@ -1192,7 +1189,7 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1203,7 @@
         <v>62.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
@@ -1214,13 +1211,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="60">
@@ -1248,7 +1245,7 @@
         <v>56.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>56.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="63">
@@ -1290,7 +1287,7 @@
         <v>56.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1301,7 @@
         <v>56.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1315,7 @@
         <v>56.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,13 +1323,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1343,7 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1357,7 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1402,7 +1399,7 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1413,7 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -1430,7 +1427,7 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -1472,7 +1469,7 @@
         <v>50.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="78">
@@ -1480,13 +1477,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1497,7 @@
         <v>45.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1511,7 @@
         <v>45.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1519,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1539,7 @@
         <v>42.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1553,7 @@
         <v>42.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="84">
@@ -1570,7 +1567,7 @@
         <v>42.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="85">
@@ -1578,13 +1575,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1595,7 @@
         <v>41.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>41.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>94.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>67.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>74.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-10-21</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
   </si>
   <si>
     <t>Reason</t>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +418,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>126.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>51.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>126.0</v>
+        <v>121.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>14.0</v>
@@ -447,12 +453,12 @@
         <v>121.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>14.0</v>
@@ -461,12 +467,12 @@
         <v>121.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>14.0</v>
@@ -475,26 +481,26 @@
         <v>121.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>20.0</v>
@@ -503,12 +509,12 @@
         <v>115.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>20.0</v>
@@ -517,26 +523,26 @@
         <v>115.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>21.0</v>
@@ -545,12 +551,12 @@
         <v>114.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>21.0</v>
@@ -559,12 +565,12 @@
         <v>114.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>21.0</v>
@@ -573,26 +579,26 @@
         <v>114.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>28.0</v>
@@ -601,12 +607,12 @@
         <v>107.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>28.0</v>
@@ -615,26 +621,26 @@
         <v>107.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>36.0</v>
@@ -643,12 +649,12 @@
         <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>36.0</v>
@@ -657,12 +663,12 @@
         <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>36.0</v>
@@ -671,12 +677,12 @@
         <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>36.0</v>
@@ -685,12 +691,12 @@
         <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>36.0</v>
@@ -699,12 +705,12 @@
         <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>36.0</v>
@@ -713,26 +719,26 @@
         <v>99.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>38.0</v>
@@ -741,12 +747,12 @@
         <v>97.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>38.0</v>
@@ -755,12 +761,12 @@
         <v>97.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>38.0</v>
@@ -769,26 +775,26 @@
         <v>97.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>43.0</v>
@@ -797,12 +803,12 @@
         <v>92.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>43.0</v>
@@ -811,26 +817,26 @@
         <v>92.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>46.0</v>
@@ -839,12 +845,12 @@
         <v>89.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>46.0</v>
@@ -853,12 +859,12 @@
         <v>89.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>46.0</v>
@@ -872,21 +878,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -895,12 +901,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -909,12 +915,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -923,12 +929,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -937,12 +943,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -956,7 +962,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -965,12 +971,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -979,12 +985,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -993,12 +999,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1007,12 +1013,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1021,12 +1027,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1035,12 +1041,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1049,12 +1055,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1077,12 +1083,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1091,12 +1097,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1105,12 +1111,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1124,7 +1130,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1138,7 +1144,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1147,12 +1153,12 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1175,12 +1181,12 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>73.0</v>
@@ -1189,26 +1195,26 @@
         <v>62.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>79.0</v>
@@ -1222,7 +1228,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>79.0</v>
@@ -1231,12 +1237,12 @@
         <v>56.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>79.0</v>
@@ -1245,12 +1251,12 @@
         <v>56.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>79.0</v>
@@ -1264,7 +1270,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>79.0</v>
@@ -1273,12 +1279,12 @@
         <v>56.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>79.0</v>
@@ -1287,12 +1293,12 @@
         <v>56.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>79.0</v>
@@ -1301,26 +1307,26 @@
         <v>56.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>85.0</v>
@@ -1329,12 +1335,12 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>85.0</v>
@@ -1343,12 +1349,12 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>85.0</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>85.0</v>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>85.0</v>
@@ -1385,12 +1391,12 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>85.0</v>
@@ -1399,12 +1405,12 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>85.0</v>
@@ -1413,12 +1419,12 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>85.0</v>
@@ -1427,12 +1433,12 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>85.0</v>
@@ -1441,12 +1447,12 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>85.0</v>
@@ -1455,26 +1461,26 @@
         <v>50.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>90.0</v>
@@ -1483,12 +1489,12 @@
         <v>45.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>90.0</v>
@@ -1497,26 +1503,26 @@
         <v>45.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>93.0</v>
@@ -1525,12 +1531,12 @@
         <v>42.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>93.0</v>
@@ -1539,12 +1545,12 @@
         <v>42.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>93.0</v>
@@ -1553,26 +1559,26 @@
         <v>42.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>94.0</v>
@@ -1581,12 +1587,12 @@
         <v>41.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>94.0</v>
@@ -1595,21 +1601,63 @@
         <v>41.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>94.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>67.0</v>
+      <c r="B88" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>33.0</v>
       </c>
     </row>
   </sheetData>
@@ -1627,41 +1675,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1669,13 +1717,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,13 +1731,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1697,13 +1745,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1724,16 +1772,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1799,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
     <t>2025-10-22</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-23</t>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -418,47 +418,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>126.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>121.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>121.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>14.0</v>
@@ -467,26 +467,26 @@
         <v>121.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>20.0</v>
@@ -495,12 +495,12 @@
         <v>115.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>20.0</v>
@@ -509,26 +509,26 @@
         <v>115.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>21.0</v>
@@ -537,12 +537,12 @@
         <v>114.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>21.0</v>
@@ -551,12 +551,12 @@
         <v>114.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>21.0</v>
@@ -565,26 +565,26 @@
         <v>114.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>28.0</v>
@@ -593,12 +593,12 @@
         <v>107.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>28.0</v>
@@ -607,26 +607,26 @@
         <v>107.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>36.0</v>
@@ -635,12 +635,12 @@
         <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>36.0</v>
@@ -649,12 +649,12 @@
         <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>36.0</v>
@@ -663,12 +663,12 @@
         <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>36.0</v>
@@ -677,12 +677,12 @@
         <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>36.0</v>
@@ -691,12 +691,12 @@
         <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>36.0</v>
@@ -705,26 +705,26 @@
         <v>99.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>38.0</v>
@@ -733,12 +733,12 @@
         <v>97.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>38.0</v>
@@ -747,12 +747,12 @@
         <v>97.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>38.0</v>
@@ -761,26 +761,26 @@
         <v>97.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>43.0</v>
@@ -789,12 +789,12 @@
         <v>92.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>43.0</v>
@@ -803,26 +803,26 @@
         <v>92.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>46.0</v>
@@ -831,12 +831,12 @@
         <v>89.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>46.0</v>
@@ -845,12 +845,12 @@
         <v>89.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>46.0</v>
@@ -864,21 +864,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -887,12 +887,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -901,12 +901,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -915,12 +915,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -929,12 +929,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -957,12 +957,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -971,12 +971,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -985,12 +985,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -999,12 +999,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1013,12 +1013,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1027,12 +1027,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1041,12 +1041,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1069,12 +1069,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1083,12 +1083,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1097,12 +1097,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1139,12 +1139,12 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>73.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>73.0</v>
@@ -1167,12 +1167,12 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>73.0</v>
@@ -1181,26 +1181,26 @@
         <v>62.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>79.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>79.0</v>
@@ -1223,12 +1223,12 @@
         <v>56.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>79.0</v>
@@ -1237,12 +1237,12 @@
         <v>56.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>79.0</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>79.0</v>
@@ -1265,12 +1265,12 @@
         <v>56.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>79.0</v>
@@ -1279,12 +1279,12 @@
         <v>56.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>79.0</v>
@@ -1293,26 +1293,26 @@
         <v>56.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>85.0</v>
@@ -1321,12 +1321,12 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>85.0</v>
@@ -1335,12 +1335,12 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>85.0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>85.0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>85.0</v>
@@ -1377,12 +1377,12 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>85.0</v>
@@ -1391,12 +1391,12 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>85.0</v>
@@ -1405,12 +1405,12 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>85.0</v>
@@ -1419,12 +1419,12 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>85.0</v>
@@ -1433,12 +1433,12 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>85.0</v>
@@ -1447,26 +1447,26 @@
         <v>50.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>90.0</v>
@@ -1475,12 +1475,12 @@
         <v>45.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>90.0</v>
@@ -1489,26 +1489,26 @@
         <v>45.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>93.0</v>
@@ -1517,12 +1517,12 @@
         <v>42.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>93.0</v>
@@ -1531,12 +1531,12 @@
         <v>42.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>93.0</v>
@@ -1545,26 +1545,26 @@
         <v>42.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>94.0</v>
@@ -1573,12 +1573,12 @@
         <v>41.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>94.0</v>
@@ -1587,26 +1587,26 @@
         <v>41.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>95.0</v>
@@ -1615,12 +1615,12 @@
         <v>40.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>95.0</v>
@@ -1629,12 +1629,12 @@
         <v>40.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>95.0</v>
@@ -1643,20 +1643,6 @@
         <v>40.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>95.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>40.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>33.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-22</t>
+    <t>2025-10-23</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-23</t>
   </si>
   <si>
     <t>2025-10-24</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>55.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="3">
@@ -439,21 +436,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>121.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -461,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +478,7 @@
         <v>115.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +492,7 @@
         <v>115.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -503,13 +500,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +520,7 @@
         <v>114.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +534,7 @@
         <v>114.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +548,7 @@
         <v>114.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +556,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +576,7 @@
         <v>107.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>107.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,13 +598,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +618,7 @@
         <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +632,7 @@
         <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +646,7 @@
         <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
@@ -663,7 +660,7 @@
         <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
@@ -677,7 +674,7 @@
         <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +688,7 @@
         <v>99.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
@@ -699,13 +696,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="23">
@@ -719,7 +716,7 @@
         <v>97.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="24">
@@ -733,7 +730,7 @@
         <v>97.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
@@ -747,7 +744,7 @@
         <v>97.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="26">
@@ -755,13 +752,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +772,7 @@
         <v>92.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +786,7 @@
         <v>92.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="29">
@@ -797,13 +794,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="30">
@@ -817,7 +814,7 @@
         <v>89.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
@@ -831,7 +828,7 @@
         <v>89.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="32">
@@ -853,13 +850,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="34">
@@ -873,7 +870,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +884,7 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="36">
@@ -901,7 +898,7 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +912,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -943,7 +940,7 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -957,7 +954,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +968,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="42">
@@ -985,7 +982,7 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
@@ -999,7 +996,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1013,7 +1010,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1024,7 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1055,7 +1052,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1066,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -1083,7 +1080,7 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -1125,7 +1122,7 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -1153,7 +1150,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="55">
@@ -1167,7 +1164,7 @@
         <v>62.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
@@ -1175,13 +1172,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="57">
@@ -1209,7 +1206,7 @@
         <v>56.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="59">
@@ -1223,7 +1220,7 @@
         <v>56.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="60">
@@ -1251,7 +1248,7 @@
         <v>56.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -1265,7 +1262,7 @@
         <v>56.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="63">
@@ -1279,7 +1276,7 @@
         <v>56.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -1287,13 +1284,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1307,7 +1304,7 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="66">
@@ -1321,7 +1318,7 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -1363,7 +1360,7 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -1377,7 +1374,7 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -1391,7 +1388,7 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="72">
@@ -1405,7 +1402,7 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -1419,7 +1416,7 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
@@ -1433,7 +1430,7 @@
         <v>50.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="75">
@@ -1441,13 +1438,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="76">
@@ -1461,7 +1458,7 @@
         <v>45.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
@@ -1475,7 +1472,7 @@
         <v>45.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="78">
@@ -1483,13 +1480,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="79">
@@ -1503,7 +1500,7 @@
         <v>42.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="80">
@@ -1517,7 +1514,7 @@
         <v>42.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="81">
@@ -1531,7 +1528,7 @@
         <v>42.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="82">
@@ -1539,13 +1536,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="83">
@@ -1559,7 +1556,7 @@
         <v>41.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1573,7 +1570,7 @@
         <v>41.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="85">
@@ -1581,13 +1578,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="86">
@@ -1601,7 +1598,7 @@
         <v>40.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1615,7 +1612,7 @@
         <v>40.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="88">
@@ -1629,20 +1626,6 @@
         <v>40.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>95.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>40.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>33.0</v>
       </c>
     </row>
@@ -1661,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>75.0</v>
@@ -1689,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1703,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1717,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1731,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1758,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-23</t>
+    <t>2025-10-24</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
     <t>2025-10-25</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
   </si>
   <si>
     <t>Reason</t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +428,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>41.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>121.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +470,7 @@
         <v>115.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +484,7 @@
         <v>115.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +492,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +512,7 @@
         <v>114.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +526,7 @@
         <v>114.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +540,7 @@
         <v>114.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +548,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +568,7 @@
         <v>107.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +582,7 @@
         <v>107.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,13 +590,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +610,7 @@
         <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +624,7 @@
         <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +638,7 @@
         <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
@@ -646,7 +652,7 @@
         <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +666,7 @@
         <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +680,7 @@
         <v>99.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
@@ -682,13 +688,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +708,7 @@
         <v>97.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +722,7 @@
         <v>97.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +736,7 @@
         <v>97.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="25">
@@ -738,13 +744,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +764,7 @@
         <v>92.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +778,7 @@
         <v>92.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="28">
@@ -780,13 +786,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +806,7 @@
         <v>89.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +820,7 @@
         <v>89.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="31">
@@ -836,13 +842,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +862,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +876,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +890,7 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +904,7 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -926,7 +932,7 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -940,7 +946,7 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +960,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +974,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
@@ -982,7 +988,7 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +1002,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1016,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1038,7 +1044,7 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1058,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1072,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1108,7 +1114,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1142,7 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1156,7 @@
         <v>62.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
@@ -1158,13 +1164,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
@@ -1192,7 +1198,7 @@
         <v>56.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1212,7 @@
         <v>56.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
@@ -1234,7 +1240,7 @@
         <v>56.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1254,7 @@
         <v>56.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1268,7 @@
         <v>56.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1270,13 +1276,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -1290,7 +1296,7 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1310,7 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -1346,7 +1352,7 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1366,7 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -1374,7 +1380,7 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="71">
@@ -1388,7 +1394,7 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1408,7 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1422,7 @@
         <v>50.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1430,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1450,7 @@
         <v>45.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1464,7 @@
         <v>45.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,13 +1472,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1492,7 @@
         <v>42.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1506,7 @@
         <v>42.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1520,7 @@
         <v>42.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1528,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1548,7 @@
         <v>41.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1562,7 @@
         <v>41.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="84">
@@ -1564,13 +1570,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="85">
@@ -1584,7 +1590,7 @@
         <v>40.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1604,7 @@
         <v>40.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,7 +1618,7 @@
         <v>40.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="88">
@@ -1620,13 +1626,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1644,41 +1678,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1686,13 +1720,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1734,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,16 +1748,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -1741,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-10-25</t>
@@ -397,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>121.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>56.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>121.0</v>
+        <v>115.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>20.0</v>
@@ -456,12 +450,12 @@
         <v>115.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>20.0</v>
@@ -470,26 +464,26 @@
         <v>115.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>21.0</v>
@@ -498,12 +492,12 @@
         <v>114.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>21.0</v>
@@ -512,12 +506,12 @@
         <v>114.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>21.0</v>
@@ -526,26 +520,26 @@
         <v>114.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>28.0</v>
@@ -554,12 +548,12 @@
         <v>107.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>28.0</v>
@@ -568,26 +562,26 @@
         <v>107.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>36.0</v>
@@ -596,12 +590,12 @@
         <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>36.0</v>
@@ -610,12 +604,12 @@
         <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>36.0</v>
@@ -624,12 +618,12 @@
         <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>36.0</v>
@@ -638,12 +632,12 @@
         <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>36.0</v>
@@ -652,12 +646,12 @@
         <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>36.0</v>
@@ -666,26 +660,26 @@
         <v>99.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>38.0</v>
@@ -694,12 +688,12 @@
         <v>97.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>38.0</v>
@@ -708,12 +702,12 @@
         <v>97.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>38.0</v>
@@ -722,26 +716,26 @@
         <v>97.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>43.0</v>
@@ -750,12 +744,12 @@
         <v>92.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>43.0</v>
@@ -764,26 +758,26 @@
         <v>92.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>46.0</v>
@@ -792,12 +786,12 @@
         <v>89.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>46.0</v>
@@ -806,12 +800,12 @@
         <v>89.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>46.0</v>
@@ -825,21 +819,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -848,12 +842,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -862,12 +856,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -876,12 +870,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -890,12 +884,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -909,7 +903,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -918,12 +912,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -932,12 +926,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -946,12 +940,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -960,12 +954,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -974,12 +968,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -988,12 +982,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -1002,12 +996,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1021,7 +1015,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1030,12 +1024,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1044,12 +1038,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1058,12 +1052,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1077,7 +1071,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1091,7 +1085,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1100,12 +1094,12 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1128,12 +1122,12 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>73.0</v>
@@ -1142,26 +1136,26 @@
         <v>62.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>79.0</v>
@@ -1175,7 +1169,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>79.0</v>
@@ -1184,12 +1178,12 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>79.0</v>
@@ -1198,12 +1192,12 @@
         <v>56.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>79.0</v>
@@ -1217,7 +1211,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>79.0</v>
@@ -1226,12 +1220,12 @@
         <v>56.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>79.0</v>
@@ -1240,12 +1234,12 @@
         <v>56.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>79.0</v>
@@ -1254,26 +1248,26 @@
         <v>56.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>85.0</v>
@@ -1282,12 +1276,12 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>85.0</v>
@@ -1296,12 +1290,12 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>85.0</v>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>85.0</v>
@@ -1329,7 +1323,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>85.0</v>
@@ -1338,12 +1332,12 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>85.0</v>
@@ -1352,12 +1346,12 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>85.0</v>
@@ -1366,12 +1360,12 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>85.0</v>
@@ -1380,12 +1374,12 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>85.0</v>
@@ -1394,12 +1388,12 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>85.0</v>
@@ -1408,26 +1402,26 @@
         <v>50.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>90.0</v>
@@ -1436,12 +1430,12 @@
         <v>45.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>90.0</v>
@@ -1450,26 +1444,26 @@
         <v>45.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>93.0</v>
@@ -1478,12 +1472,12 @@
         <v>42.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>93.0</v>
@@ -1492,12 +1486,12 @@
         <v>42.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>93.0</v>
@@ -1506,26 +1500,26 @@
         <v>42.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>94.0</v>
@@ -1534,12 +1528,12 @@
         <v>41.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>94.0</v>
@@ -1548,26 +1542,26 @@
         <v>41.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>95.0</v>
@@ -1576,12 +1570,12 @@
         <v>40.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>95.0</v>
@@ -1590,12 +1584,12 @@
         <v>40.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>95.0</v>
@@ -1604,26 +1598,26 @@
         <v>40.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>101.0</v>
@@ -1632,12 +1626,12 @@
         <v>34.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>101.0</v>
@@ -1646,21 +1640,7 @@
         <v>34.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
+        <v>44.0</v>
       </c>
     </row>
   </sheetData>
@@ -1678,27 +1658,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>77.0</v>
@@ -1706,13 +1686,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1720,13 +1700,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1734,13 +1714,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1748,13 +1728,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1775,16 +1755,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1802,18 +1782,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-25</t>
-  </si>
-  <si>
     <t>2025-10-26</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-10-27</t>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -415,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>121.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>115.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>20.0</v>
@@ -450,26 +450,26 @@
         <v>115.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>21.0</v>
@@ -478,12 +478,12 @@
         <v>114.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>21.0</v>
@@ -492,12 +492,12 @@
         <v>114.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>21.0</v>
@@ -506,26 +506,26 @@
         <v>114.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>28.0</v>
@@ -534,12 +534,12 @@
         <v>107.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>28.0</v>
@@ -548,26 +548,26 @@
         <v>107.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>36.0</v>
@@ -576,12 +576,12 @@
         <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>36.0</v>
@@ -590,12 +590,12 @@
         <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>36.0</v>
@@ -604,12 +604,12 @@
         <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>36.0</v>
@@ -618,12 +618,12 @@
         <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>36.0</v>
@@ -632,12 +632,12 @@
         <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>36.0</v>
@@ -646,26 +646,26 @@
         <v>99.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>38.0</v>
@@ -674,12 +674,12 @@
         <v>97.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>38.0</v>
@@ -688,12 +688,12 @@
         <v>97.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>38.0</v>
@@ -702,26 +702,26 @@
         <v>97.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>43.0</v>
@@ -730,12 +730,12 @@
         <v>92.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>43.0</v>
@@ -744,26 +744,26 @@
         <v>92.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>46.0</v>
@@ -772,12 +772,12 @@
         <v>89.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>46.0</v>
@@ -786,12 +786,12 @@
         <v>89.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>46.0</v>
@@ -805,21 +805,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -828,12 +828,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -842,12 +842,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -856,12 +856,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -870,12 +870,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -898,12 +898,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -912,12 +912,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -926,12 +926,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -940,12 +940,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -954,12 +954,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -968,12 +968,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -982,12 +982,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1010,12 +1010,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1024,12 +1024,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1038,12 +1038,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1080,12 +1080,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>73.0</v>
@@ -1108,12 +1108,12 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>73.0</v>
@@ -1122,26 +1122,26 @@
         <v>62.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>79.0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>79.0</v>
@@ -1164,12 +1164,12 @@
         <v>56.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>79.0</v>
@@ -1178,12 +1178,12 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>79.0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>79.0</v>
@@ -1206,12 +1206,12 @@
         <v>56.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>79.0</v>
@@ -1220,12 +1220,12 @@
         <v>56.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>79.0</v>
@@ -1234,26 +1234,26 @@
         <v>56.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>85.0</v>
@@ -1262,12 +1262,12 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>85.0</v>
@@ -1276,12 +1276,12 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>85.0</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>85.0</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>85.0</v>
@@ -1318,12 +1318,12 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>85.0</v>
@@ -1332,12 +1332,12 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>85.0</v>
@@ -1346,12 +1346,12 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>85.0</v>
@@ -1360,12 +1360,12 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>85.0</v>
@@ -1374,12 +1374,12 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>85.0</v>
@@ -1388,26 +1388,26 @@
         <v>50.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>90.0</v>
@@ -1416,12 +1416,12 @@
         <v>45.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>90.0</v>
@@ -1430,26 +1430,26 @@
         <v>45.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>93.0</v>
@@ -1458,12 +1458,12 @@
         <v>42.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>93.0</v>
@@ -1472,12 +1472,12 @@
         <v>42.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>93.0</v>
@@ -1486,26 +1486,26 @@
         <v>42.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>94.0</v>
@@ -1514,12 +1514,12 @@
         <v>41.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>94.0</v>
@@ -1528,26 +1528,26 @@
         <v>41.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>95.0</v>
@@ -1556,12 +1556,12 @@
         <v>40.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>95.0</v>
@@ -1570,12 +1570,12 @@
         <v>40.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>95.0</v>
@@ -1584,26 +1584,26 @@
         <v>40.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>101.0</v>
@@ -1612,12 +1612,12 @@
         <v>34.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>101.0</v>
@@ -1626,20 +1626,6 @@
         <v>34.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>44.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-26</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-27</t>
   </si>
   <si>
     <t>2025-10-28</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>115.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>114.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>114.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +489,7 @@
         <v>114.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +497,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>107.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +531,7 @@
         <v>107.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +573,7 @@
         <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +587,7 @@
         <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +601,7 @@
         <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +615,7 @@
         <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +629,7 @@
         <v>99.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,13 +637,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>97.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>97.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="21">
@@ -688,7 +685,7 @@
         <v>97.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="22">
@@ -696,13 +693,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>92.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +727,7 @@
         <v>92.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="25">
@@ -738,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +755,7 @@
         <v>89.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +769,7 @@
         <v>89.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="28">
@@ -794,13 +791,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +811,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +825,7 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="32">
@@ -842,7 +839,7 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +853,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -884,7 +881,7 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +895,7 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +923,7 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -940,7 +937,7 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +951,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +965,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +993,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1007,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1024,7 +1021,7 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1066,7 +1063,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -1094,7 +1091,7 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1105,7 @@
         <v>62.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
@@ -1116,13 +1113,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="53">
@@ -1150,7 +1147,7 @@
         <v>56.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1161,7 @@
         <v>56.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="56">
@@ -1192,7 +1189,7 @@
         <v>56.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1203,7 @@
         <v>56.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1217,7 @@
         <v>56.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,13 +1225,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1245,7 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1304,7 +1301,7 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1315,7 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -1332,7 +1329,7 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1343,7 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1357,7 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1374,7 +1371,7 @@
         <v>50.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="71">
@@ -1382,13 +1379,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1399,7 @@
         <v>45.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1413,7 @@
         <v>45.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1421,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>42.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>42.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="77">
@@ -1472,7 +1469,7 @@
         <v>42.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="78">
@@ -1480,13 +1477,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1497,7 @@
         <v>41.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1511,7 @@
         <v>41.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1519,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1539,7 @@
         <v>40.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1553,7 @@
         <v>40.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="84">
@@ -1570,7 +1567,7 @@
         <v>40.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="85">
@@ -1578,13 +1575,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1595,7 @@
         <v>34.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>34.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>44.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>77.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>3.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,267 +29,276 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -311,10 +320,10 @@
     <t>Not Started</t>
   </si>
   <si>
+    <t>Not found (404)</t>
+  </si>
+  <si>
     <t>Redirect error</t>
-  </si>
-  <si>
-    <t>Not found (404)</t>
   </si>
   <si>
     <t>Duplicate, Google chose different canonical than user</t>
@@ -388,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +421,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>115.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>115.0</v>
+        <v>114.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>21.0</v>
@@ -447,12 +456,12 @@
         <v>114.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>21.0</v>
@@ -461,12 +470,12 @@
         <v>114.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>21.0</v>
@@ -475,26 +484,26 @@
         <v>114.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>28.0</v>
@@ -503,12 +512,12 @@
         <v>107.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>28.0</v>
@@ -517,26 +526,26 @@
         <v>107.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>36.0</v>
@@ -545,12 +554,12 @@
         <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>36.0</v>
@@ -559,12 +568,12 @@
         <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>36.0</v>
@@ -573,12 +582,12 @@
         <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>36.0</v>
@@ -587,12 +596,12 @@
         <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>36.0</v>
@@ -601,12 +610,12 @@
         <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>36.0</v>
@@ -615,26 +624,26 @@
         <v>99.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>38.0</v>
@@ -643,12 +652,12 @@
         <v>97.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>38.0</v>
@@ -657,12 +666,12 @@
         <v>97.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>38.0</v>
@@ -671,26 +680,26 @@
         <v>97.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>43.0</v>
@@ -699,12 +708,12 @@
         <v>92.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>43.0</v>
@@ -713,26 +722,26 @@
         <v>92.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>46.0</v>
@@ -741,12 +750,12 @@
         <v>89.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>46.0</v>
@@ -755,12 +764,12 @@
         <v>89.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>46.0</v>
@@ -774,21 +783,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -797,12 +806,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -811,12 +820,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -825,12 +834,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -839,12 +848,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -858,7 +867,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -867,12 +876,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -881,12 +890,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -895,12 +904,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -909,12 +918,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -923,12 +932,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -937,12 +946,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -951,12 +960,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -970,7 +979,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -979,12 +988,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -993,12 +1002,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1007,12 +1016,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1026,7 +1035,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1040,7 +1049,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1049,12 +1058,12 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1068,7 +1077,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1077,12 +1086,12 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>73.0</v>
@@ -1091,26 +1100,26 @@
         <v>62.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>79.0</v>
@@ -1124,7 +1133,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>79.0</v>
@@ -1133,12 +1142,12 @@
         <v>56.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>79.0</v>
@@ -1147,12 +1156,12 @@
         <v>56.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>79.0</v>
@@ -1166,7 +1175,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>79.0</v>
@@ -1175,12 +1184,12 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>79.0</v>
@@ -1189,12 +1198,12 @@
         <v>56.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>79.0</v>
@@ -1203,26 +1212,26 @@
         <v>56.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>85.0</v>
@@ -1231,12 +1240,12 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>85.0</v>
@@ -1245,12 +1254,12 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>85.0</v>
@@ -1264,7 +1273,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>85.0</v>
@@ -1278,7 +1287,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>85.0</v>
@@ -1287,12 +1296,12 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>85.0</v>
@@ -1301,12 +1310,12 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>85.0</v>
@@ -1315,12 +1324,12 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>85.0</v>
@@ -1329,12 +1338,12 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>85.0</v>
@@ -1343,12 +1352,12 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>85.0</v>
@@ -1357,26 +1366,26 @@
         <v>50.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>90.0</v>
@@ -1385,12 +1394,12 @@
         <v>45.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>90.0</v>
@@ -1399,26 +1408,26 @@
         <v>45.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>93.0</v>
@@ -1427,12 +1436,12 @@
         <v>42.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>93.0</v>
@@ -1441,12 +1450,12 @@
         <v>42.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>93.0</v>
@@ -1455,26 +1464,26 @@
         <v>42.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>94.0</v>
@@ -1483,12 +1492,12 @@
         <v>41.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>94.0</v>
@@ -1497,26 +1506,26 @@
         <v>41.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>95.0</v>
@@ -1525,12 +1534,12 @@
         <v>40.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>95.0</v>
@@ -1539,12 +1548,12 @@
         <v>40.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>95.0</v>
@@ -1553,26 +1562,26 @@
         <v>40.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>101.0</v>
@@ -1581,12 +1590,12 @@
         <v>34.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>101.0</v>
@@ -1595,12 +1604,12 @@
         <v>34.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>101.0</v>
@@ -1609,7 +1618,49 @@
         <v>34.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1627,55 +1678,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,30 +1734,30 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -1724,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-10-30</t>
   </si>
   <si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>2026-01-24</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -397,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,47 +418,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>115.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>114.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>114.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>21.0</v>
@@ -470,26 +467,26 @@
         <v>114.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>28.0</v>
@@ -498,12 +495,12 @@
         <v>107.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>28.0</v>
@@ -512,26 +509,26 @@
         <v>107.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>36.0</v>
@@ -540,12 +537,12 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>36.0</v>
@@ -554,12 +551,12 @@
         <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>36.0</v>
@@ -568,12 +565,12 @@
         <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>36.0</v>
@@ -582,12 +579,12 @@
         <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>36.0</v>
@@ -596,12 +593,12 @@
         <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>36.0</v>
@@ -610,26 +607,26 @@
         <v>99.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>38.0</v>
@@ -638,12 +635,12 @@
         <v>97.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>38.0</v>
@@ -652,12 +649,12 @@
         <v>97.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>38.0</v>
@@ -666,26 +663,26 @@
         <v>97.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>43.0</v>
@@ -694,12 +691,12 @@
         <v>92.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>43.0</v>
@@ -708,26 +705,26 @@
         <v>92.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>46.0</v>
@@ -736,12 +733,12 @@
         <v>89.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>46.0</v>
@@ -750,12 +747,12 @@
         <v>89.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>46.0</v>
@@ -769,21 +766,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -792,12 +789,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -806,12 +803,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -820,12 +817,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -834,12 +831,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -853,7 +850,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -862,12 +859,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -876,12 +873,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -890,12 +887,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -904,12 +901,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -918,12 +915,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -932,12 +929,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -946,12 +943,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -974,12 +971,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -988,12 +985,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -1002,12 +999,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1035,7 +1032,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1044,12 +1041,12 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>73.0</v>
@@ -1063,7 +1060,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>73.0</v>
@@ -1072,12 +1069,12 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>73.0</v>
@@ -1086,26 +1083,26 @@
         <v>62.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>79.0</v>
@@ -1119,7 +1116,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>79.0</v>
@@ -1128,12 +1125,12 @@
         <v>56.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>79.0</v>
@@ -1142,12 +1139,12 @@
         <v>56.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>79.0</v>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>79.0</v>
@@ -1170,12 +1167,12 @@
         <v>56.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>79.0</v>
@@ -1184,12 +1181,12 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>79.0</v>
@@ -1198,26 +1195,26 @@
         <v>56.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>85.0</v>
@@ -1226,12 +1223,12 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>85.0</v>
@@ -1240,12 +1237,12 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>85.0</v>
@@ -1259,7 +1256,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>85.0</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>85.0</v>
@@ -1282,12 +1279,12 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>85.0</v>
@@ -1296,12 +1293,12 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>85.0</v>
@@ -1310,12 +1307,12 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>85.0</v>
@@ -1324,12 +1321,12 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>85.0</v>
@@ -1338,12 +1335,12 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>85.0</v>
@@ -1352,26 +1349,26 @@
         <v>50.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>90.0</v>
@@ -1380,12 +1377,12 @@
         <v>45.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>90.0</v>
@@ -1394,26 +1391,26 @@
         <v>45.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>93.0</v>
@@ -1422,12 +1419,12 @@
         <v>42.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>93.0</v>
@@ -1436,12 +1433,12 @@
         <v>42.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>93.0</v>
@@ -1450,26 +1447,26 @@
         <v>42.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>94.0</v>
@@ -1478,12 +1475,12 @@
         <v>41.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>94.0</v>
@@ -1492,26 +1489,26 @@
         <v>41.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>95.0</v>
@@ -1520,12 +1517,12 @@
         <v>40.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>95.0</v>
@@ -1534,12 +1531,12 @@
         <v>40.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>95.0</v>
@@ -1548,26 +1545,26 @@
         <v>40.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>101.0</v>
@@ -1576,12 +1573,12 @@
         <v>34.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>101.0</v>
@@ -1590,12 +1587,12 @@
         <v>34.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>101.0</v>
@@ -1604,12 +1601,12 @@
         <v>34.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>101.0</v>
@@ -1623,7 +1620,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>101.0</v>
@@ -1632,12 +1629,12 @@
         <v>34.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>101.0</v>
@@ -1646,21 +1643,7 @@
         <v>34.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
+        <v>58.0</v>
       </c>
     </row>
   </sheetData>
@@ -1678,27 +1661,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>79.0</v>
@@ -1706,13 +1689,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1720,13 +1703,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1734,13 +1717,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>11.0</v>
@@ -1748,13 +1731,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1775,16 +1758,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1802,18 +1785,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-29</t>
+    <t>2025-10-30</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-30</t>
   </si>
   <si>
     <t>2025-10-31</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
@@ -439,21 +436,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>114.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5">
@@ -461,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +478,7 @@
         <v>107.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +492,7 @@
         <v>107.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
@@ -503,13 +500,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +520,7 @@
         <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +534,7 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +548,7 @@
         <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +562,7 @@
         <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +576,7 @@
         <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>99.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,13 +598,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +618,7 @@
         <v>97.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +632,7 @@
         <v>97.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +646,7 @@
         <v>97.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
@@ -657,13 +654,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
@@ -677,7 +674,7 @@
         <v>92.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +688,7 @@
         <v>92.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
@@ -699,13 +696,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -719,7 +716,7 @@
         <v>89.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
@@ -733,7 +730,7 @@
         <v>89.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="25">
@@ -755,13 +752,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +772,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +786,7 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="29">
@@ -803,7 +800,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -817,7 +814,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -845,7 +842,7 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -859,7 +856,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="34">
@@ -873,7 +870,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +884,7 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
@@ -901,7 +898,7 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +912,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -929,7 +926,7 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -957,7 +954,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +968,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -985,7 +982,7 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -1027,7 +1024,7 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1055,7 +1052,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1066,7 @@
         <v>62.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -1077,13 +1074,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="50">
@@ -1111,7 +1108,7 @@
         <v>56.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
@@ -1125,7 +1122,7 @@
         <v>56.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="53">
@@ -1153,7 +1150,7 @@
         <v>56.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="55">
@@ -1167,7 +1164,7 @@
         <v>56.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="56">
@@ -1181,7 +1178,7 @@
         <v>56.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -1189,13 +1186,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1209,7 +1206,7 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="59">
@@ -1223,7 +1220,7 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1265,7 +1262,7 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -1279,7 +1276,7 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -1293,7 +1290,7 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="65">
@@ -1307,7 +1304,7 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -1321,7 +1318,7 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -1335,7 +1332,7 @@
         <v>50.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="68">
@@ -1343,13 +1340,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="69">
@@ -1363,7 +1360,7 @@
         <v>45.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1377,7 +1374,7 @@
         <v>45.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="71">
@@ -1385,13 +1382,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="72">
@@ -1405,7 +1402,7 @@
         <v>42.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="73">
@@ -1419,7 +1416,7 @@
         <v>42.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="74">
@@ -1433,7 +1430,7 @@
         <v>42.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="75">
@@ -1441,13 +1438,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="76">
@@ -1461,7 +1458,7 @@
         <v>41.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1475,7 +1472,7 @@
         <v>41.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="78">
@@ -1483,13 +1480,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="79">
@@ -1503,7 +1500,7 @@
         <v>40.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1517,7 +1514,7 @@
         <v>40.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="81">
@@ -1531,7 +1528,7 @@
         <v>40.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="82">
@@ -1539,13 +1536,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -1559,7 +1556,7 @@
         <v>34.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="84">
@@ -1573,7 +1570,7 @@
         <v>34.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="85">
@@ -1587,7 +1584,7 @@
         <v>34.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -1615,7 +1612,7 @@
         <v>34.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -1629,20 +1626,6 @@
         <v>34.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>58.0</v>
       </c>
     </row>
@@ -1661,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>79.0</v>
@@ -1689,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1703,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1717,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>11.0</v>
@@ -1731,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1758,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-30</t>
+    <t>2025-10-31</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-10-31</t>
   </si>
   <si>
     <t>2025-11-01</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>114.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>107.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>107.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +503,7 @@
         <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +531,7 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -548,7 +545,7 @@
         <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +573,7 @@
         <v>99.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,13 +581,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +601,7 @@
         <v>97.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +615,7 @@
         <v>97.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +629,7 @@
         <v>97.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,13 +637,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>92.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>92.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="21">
@@ -682,13 +679,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +699,7 @@
         <v>89.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>89.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="24">
@@ -738,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +755,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +769,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="28">
@@ -786,7 +783,7 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +797,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -828,7 +825,7 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -842,7 +839,7 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +853,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +867,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +881,7 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +895,7 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +937,7 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +951,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +965,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1010,7 +1007,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1038,7 +1035,7 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1049,7 @@
         <v>62.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -1060,13 +1057,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="49">
@@ -1094,7 +1091,7 @@
         <v>56.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1105,7 @@
         <v>56.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1133,7 @@
         <v>56.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1147,7 @@
         <v>56.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1161,7 @@
         <v>56.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -1172,13 +1169,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1192,7 +1189,7 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1203,7 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1248,7 +1245,7 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -1276,7 +1273,7 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="64">
@@ -1290,7 +1287,7 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1301,7 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1315,7 @@
         <v>50.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,13 +1323,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1343,7 @@
         <v>45.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1357,7 @@
         <v>45.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,13 +1365,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="71">
@@ -1388,7 +1385,7 @@
         <v>42.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1399,7 @@
         <v>42.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1413,7 @@
         <v>42.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1421,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>41.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>41.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,13 +1463,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1483,7 @@
         <v>40.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1497,7 @@
         <v>40.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1511,7 @@
         <v>40.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1519,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1539,7 @@
         <v>34.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1553,7 @@
         <v>34.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="84">
@@ -1570,7 +1567,7 @@
         <v>34.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -1598,7 +1595,7 @@
         <v>34.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>34.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>58.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>79.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>11.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-01</t>
   </si>
   <si>
@@ -288,6 +282,15 @@
   </si>
   <si>
     <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>Reason</t>
@@ -388,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>114.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>114.0</v>
+        <v>107.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>28.0</v>
@@ -447,12 +450,12 @@
         <v>107.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>28.0</v>
@@ -461,26 +464,26 @@
         <v>107.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>36.0</v>
@@ -489,12 +492,12 @@
         <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>36.0</v>
@@ -503,12 +506,12 @@
         <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>36.0</v>
@@ -517,12 +520,12 @@
         <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>36.0</v>
@@ -531,12 +534,12 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>36.0</v>
@@ -545,12 +548,12 @@
         <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>36.0</v>
@@ -559,26 +562,26 @@
         <v>99.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>38.0</v>
@@ -587,12 +590,12 @@
         <v>97.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>38.0</v>
@@ -601,12 +604,12 @@
         <v>97.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>38.0</v>
@@ -615,26 +618,26 @@
         <v>97.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>43.0</v>
@@ -643,12 +646,12 @@
         <v>92.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>43.0</v>
@@ -657,26 +660,26 @@
         <v>92.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>46.0</v>
@@ -685,12 +688,12 @@
         <v>89.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>46.0</v>
@@ -699,12 +702,12 @@
         <v>89.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>46.0</v>
@@ -718,21 +721,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -741,12 +744,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -755,12 +758,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -769,12 +772,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -783,12 +786,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -802,7 +805,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -811,12 +814,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -825,12 +828,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -839,12 +842,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -853,12 +856,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -867,12 +870,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -881,12 +884,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -895,12 +898,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -914,7 +917,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -923,12 +926,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -937,12 +940,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -951,12 +954,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -970,7 +973,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -984,7 +987,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -993,12 +996,12 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1021,12 +1024,12 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>73.0</v>
@@ -1035,26 +1038,26 @@
         <v>62.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>79.0</v>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>79.0</v>
@@ -1077,12 +1080,12 @@
         <v>56.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>79.0</v>
@@ -1091,12 +1094,12 @@
         <v>56.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>79.0</v>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>79.0</v>
@@ -1119,12 +1122,12 @@
         <v>56.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>79.0</v>
@@ -1133,12 +1136,12 @@
         <v>56.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>79.0</v>
@@ -1147,26 +1150,26 @@
         <v>56.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>85.0</v>
@@ -1175,12 +1178,12 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>85.0</v>
@@ -1189,12 +1192,12 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>85.0</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>85.0</v>
@@ -1222,7 +1225,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>85.0</v>
@@ -1231,12 +1234,12 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>85.0</v>
@@ -1245,12 +1248,12 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>85.0</v>
@@ -1259,12 +1262,12 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>85.0</v>
@@ -1273,12 +1276,12 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>85.0</v>
@@ -1287,12 +1290,12 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>85.0</v>
@@ -1301,26 +1304,26 @@
         <v>50.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>90.0</v>
@@ -1329,12 +1332,12 @@
         <v>45.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>90.0</v>
@@ -1343,26 +1346,26 @@
         <v>45.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>93.0</v>
@@ -1371,12 +1374,12 @@
         <v>42.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>93.0</v>
@@ -1385,12 +1388,12 @@
         <v>42.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>93.0</v>
@@ -1399,26 +1402,26 @@
         <v>42.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>94.0</v>
@@ -1427,12 +1430,12 @@
         <v>41.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>94.0</v>
@@ -1441,26 +1444,26 @@
         <v>41.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>95.0</v>
@@ -1469,12 +1472,12 @@
         <v>40.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>95.0</v>
@@ -1483,12 +1486,12 @@
         <v>40.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>95.0</v>
@@ -1497,26 +1500,26 @@
         <v>40.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>101.0</v>
@@ -1525,12 +1528,12 @@
         <v>34.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>101.0</v>
@@ -1539,12 +1542,12 @@
         <v>34.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>101.0</v>
@@ -1553,12 +1556,12 @@
         <v>34.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>101.0</v>
@@ -1572,7 +1575,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>101.0</v>
@@ -1581,12 +1584,12 @@
         <v>34.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>101.0</v>
@@ -1595,21 +1598,49 @@
         <v>34.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>101.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>58.0</v>
+      <c r="B88" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -1627,41 +1658,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1669,13 +1700,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,13 +1714,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>11.0</v>
@@ -1697,16 +1728,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="D6" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -1724,16 +1755,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1782,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>2025-11-02</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-03</t>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -415,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>114.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>107.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>28.0</v>
@@ -450,26 +450,26 @@
         <v>107.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>36.0</v>
@@ -478,12 +478,12 @@
         <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>36.0</v>
@@ -492,12 +492,12 @@
         <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>36.0</v>
@@ -506,12 +506,12 @@
         <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>36.0</v>
@@ -520,12 +520,12 @@
         <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>36.0</v>
@@ -534,12 +534,12 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>36.0</v>
@@ -548,26 +548,26 @@
         <v>99.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>38.0</v>
@@ -576,12 +576,12 @@
         <v>97.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>38.0</v>
@@ -590,12 +590,12 @@
         <v>97.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>38.0</v>
@@ -604,26 +604,26 @@
         <v>97.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>43.0</v>
@@ -632,12 +632,12 @@
         <v>92.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>43.0</v>
@@ -646,26 +646,26 @@
         <v>92.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>46.0</v>
@@ -674,12 +674,12 @@
         <v>89.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>46.0</v>
@@ -688,12 +688,12 @@
         <v>89.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>46.0</v>
@@ -707,21 +707,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -730,12 +730,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -744,12 +744,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -758,12 +758,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -772,12 +772,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -800,12 +800,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -814,12 +814,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -828,12 +828,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -842,12 +842,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -856,12 +856,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -870,12 +870,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -884,12 +884,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -912,12 +912,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -926,12 +926,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -940,12 +940,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -982,12 +982,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>73.0</v>
@@ -1010,12 +1010,12 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>73.0</v>
@@ -1024,26 +1024,26 @@
         <v>62.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>79.0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>79.0</v>
@@ -1066,12 +1066,12 @@
         <v>56.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>79.0</v>
@@ -1080,12 +1080,12 @@
         <v>56.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>79.0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>79.0</v>
@@ -1108,12 +1108,12 @@
         <v>56.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>79.0</v>
@@ -1122,12 +1122,12 @@
         <v>56.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>79.0</v>
@@ -1136,26 +1136,26 @@
         <v>56.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>85.0</v>
@@ -1164,12 +1164,12 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>85.0</v>
@@ -1178,12 +1178,12 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>85.0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>85.0</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>85.0</v>
@@ -1220,12 +1220,12 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>85.0</v>
@@ -1234,12 +1234,12 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>85.0</v>
@@ -1248,12 +1248,12 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>85.0</v>
@@ -1262,12 +1262,12 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>85.0</v>
@@ -1276,12 +1276,12 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>85.0</v>
@@ -1290,26 +1290,26 @@
         <v>50.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>90.0</v>
@@ -1318,12 +1318,12 @@
         <v>45.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>90.0</v>
@@ -1332,26 +1332,26 @@
         <v>45.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>93.0</v>
@@ -1360,12 +1360,12 @@
         <v>42.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>93.0</v>
@@ -1374,12 +1374,12 @@
         <v>42.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>93.0</v>
@@ -1388,26 +1388,26 @@
         <v>42.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>94.0</v>
@@ -1416,12 +1416,12 @@
         <v>41.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>94.0</v>
@@ -1430,26 +1430,26 @@
         <v>41.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>95.0</v>
@@ -1458,12 +1458,12 @@
         <v>40.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>95.0</v>
@@ -1472,12 +1472,12 @@
         <v>40.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>95.0</v>
@@ -1486,26 +1486,26 @@
         <v>40.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>101.0</v>
@@ -1514,12 +1514,12 @@
         <v>34.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>101.0</v>
@@ -1528,12 +1528,12 @@
         <v>34.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>101.0</v>
@@ -1542,12 +1542,12 @@
         <v>34.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>101.0</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>101.0</v>
@@ -1570,12 +1570,12 @@
         <v>34.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>101.0</v>
@@ -1584,26 +1584,26 @@
         <v>34.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>104.0</v>
@@ -1612,12 +1612,12 @@
         <v>31.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>104.0</v>
@@ -1626,20 +1626,6 @@
         <v>31.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>104.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>3.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-02</t>
+    <t>2025-11-03</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-03</t>
   </si>
   <si>
     <t>2025-11-04</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>107.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +489,7 @@
         <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +503,7 @@
         <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +531,7 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>97.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +573,7 @@
         <v>97.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +587,7 @@
         <v>97.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,13 +595,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +615,7 @@
         <v>92.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +629,7 @@
         <v>92.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
@@ -640,13 +637,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>89.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>89.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="21">
@@ -696,13 +693,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +727,7 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="25">
@@ -744,7 +741,7 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +755,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +783,7 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +797,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +811,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -828,7 +825,7 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
@@ -842,7 +839,7 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +853,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +867,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -898,7 +895,7 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +923,7 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -968,7 +965,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +993,7 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1007,7 @@
         <v>62.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
@@ -1018,13 +1015,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="46">
@@ -1052,7 +1049,7 @@
         <v>56.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1063,7 @@
         <v>56.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="49">
@@ -1094,7 +1091,7 @@
         <v>56.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1105,7 @@
         <v>56.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="52">
@@ -1122,7 +1119,7 @@
         <v>56.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1130,13 +1127,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1147,7 @@
         <v>50.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1161,7 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -1206,7 +1203,7 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1217,7 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -1234,7 +1231,7 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1245,7 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1276,7 +1273,7 @@
         <v>50.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="64">
@@ -1284,13 +1281,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1301,7 @@
         <v>45.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1315,7 @@
         <v>45.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,13 +1323,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1343,7 @@
         <v>42.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1357,7 @@
         <v>42.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="70">
@@ -1374,7 +1371,7 @@
         <v>42.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="71">
@@ -1382,13 +1379,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1399,7 @@
         <v>41.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1413,7 @@
         <v>41.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1421,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>40.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>40.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="77">
@@ -1472,7 +1469,7 @@
         <v>40.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="78">
@@ -1480,13 +1477,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1497,7 @@
         <v>34.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1511,7 @@
         <v>34.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="81">
@@ -1528,7 +1525,7 @@
         <v>34.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -1556,7 +1553,7 @@
         <v>34.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -1570,7 +1567,7 @@
         <v>34.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="85">
@@ -1578,13 +1575,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1595,7 @@
         <v>31.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>31.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>104.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>3.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>81.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>11.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>5.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-04</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
   </si>
   <si>
     <t>Reason</t>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +418,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>107.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>107.0</v>
+        <v>99.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>36.0</v>
@@ -447,12 +453,12 @@
         <v>99.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>36.0</v>
@@ -461,12 +467,12 @@
         <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>36.0</v>
@@ -475,12 +481,12 @@
         <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>36.0</v>
@@ -489,12 +495,12 @@
         <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>36.0</v>
@@ -503,12 +509,12 @@
         <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>36.0</v>
@@ -517,26 +523,26 @@
         <v>99.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>38.0</v>
@@ -545,12 +551,12 @@
         <v>97.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>38.0</v>
@@ -559,12 +565,12 @@
         <v>97.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>38.0</v>
@@ -573,26 +579,26 @@
         <v>97.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>43.0</v>
@@ -601,12 +607,12 @@
         <v>92.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>43.0</v>
@@ -615,26 +621,26 @@
         <v>92.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>46.0</v>
@@ -643,12 +649,12 @@
         <v>89.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>46.0</v>
@@ -657,12 +663,12 @@
         <v>89.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>46.0</v>
@@ -676,21 +682,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -699,12 +705,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -713,12 +719,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -727,12 +733,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -741,12 +747,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -760,7 +766,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -769,12 +775,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -783,12 +789,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -797,12 +803,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -811,12 +817,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -825,12 +831,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -839,12 +845,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -853,12 +859,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -872,7 +878,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -881,12 +887,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -895,12 +901,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -909,12 +915,12 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -928,7 +934,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -942,7 +948,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -951,12 +957,12 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -979,12 +985,12 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>73.0</v>
@@ -993,26 +999,26 @@
         <v>62.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>79.0</v>
@@ -1026,7 +1032,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>79.0</v>
@@ -1035,12 +1041,12 @@
         <v>56.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>79.0</v>
@@ -1049,12 +1055,12 @@
         <v>56.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>79.0</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>79.0</v>
@@ -1077,12 +1083,12 @@
         <v>56.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>79.0</v>
@@ -1091,12 +1097,12 @@
         <v>56.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>79.0</v>
@@ -1105,26 +1111,26 @@
         <v>56.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>85.0</v>
@@ -1133,12 +1139,12 @@
         <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>85.0</v>
@@ -1147,12 +1153,12 @@
         <v>50.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>85.0</v>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>85.0</v>
@@ -1180,7 +1186,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>85.0</v>
@@ -1189,12 +1195,12 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>85.0</v>
@@ -1203,12 +1209,12 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>85.0</v>
@@ -1217,12 +1223,12 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>85.0</v>
@@ -1231,12 +1237,12 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>85.0</v>
@@ -1245,12 +1251,12 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>85.0</v>
@@ -1259,26 +1265,26 @@
         <v>50.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>90.0</v>
@@ -1287,12 +1293,12 @@
         <v>45.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>90.0</v>
@@ -1301,26 +1307,26 @@
         <v>45.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>93.0</v>
@@ -1329,12 +1335,12 @@
         <v>42.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>93.0</v>
@@ -1343,12 +1349,12 @@
         <v>42.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>93.0</v>
@@ -1357,26 +1363,26 @@
         <v>42.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>94.0</v>
@@ -1385,12 +1391,12 @@
         <v>41.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>94.0</v>
@@ -1399,26 +1405,26 @@
         <v>41.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>95.0</v>
@@ -1427,12 +1433,12 @@
         <v>40.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>95.0</v>
@@ -1441,12 +1447,12 @@
         <v>40.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>95.0</v>
@@ -1455,26 +1461,26 @@
         <v>40.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>101.0</v>
@@ -1483,12 +1489,12 @@
         <v>34.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>101.0</v>
@@ -1497,12 +1503,12 @@
         <v>34.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>101.0</v>
@@ -1511,12 +1517,12 @@
         <v>34.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>101.0</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>101.0</v>
@@ -1539,12 +1545,12 @@
         <v>34.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>101.0</v>
@@ -1553,26 +1559,26 @@
         <v>34.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>104.0</v>
@@ -1581,12 +1587,12 @@
         <v>31.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>104.0</v>
@@ -1595,21 +1601,63 @@
         <v>31.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>104.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>31.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
-        <v>3.0</v>
+      <c r="B88" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1627,41 +1675,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1669,13 +1717,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,30 +1731,30 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -1724,16 +1772,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1799,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
     <t>2025-11-05</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-06</t>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -418,47 +418,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>28.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>107.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>99.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>99.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>36.0</v>
@@ -467,12 +467,12 @@
         <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>36.0</v>
@@ -481,12 +481,12 @@
         <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>36.0</v>
@@ -495,12 +495,12 @@
         <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>36.0</v>
@@ -509,26 +509,26 @@
         <v>99.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>38.0</v>
@@ -537,12 +537,12 @@
         <v>97.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>38.0</v>
@@ -551,12 +551,12 @@
         <v>97.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>38.0</v>
@@ -565,26 +565,26 @@
         <v>97.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>43.0</v>
@@ -593,12 +593,12 @@
         <v>92.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>43.0</v>
@@ -607,26 +607,26 @@
         <v>92.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>46.0</v>
@@ -635,12 +635,12 @@
         <v>89.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>46.0</v>
@@ -649,12 +649,12 @@
         <v>89.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>46.0</v>
@@ -668,21 +668,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -691,12 +691,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -705,12 +705,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -719,12 +719,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -733,12 +733,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -761,12 +761,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -775,12 +775,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -789,12 +789,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -803,12 +803,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -817,12 +817,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -831,12 +831,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -845,12 +845,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -873,12 +873,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -887,12 +887,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -901,12 +901,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -943,12 +943,12 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>73.0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>73.0</v>
@@ -971,12 +971,12 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>73.0</v>
@@ -985,26 +985,26 @@
         <v>62.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>79.0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>79.0</v>
@@ -1027,12 +1027,12 @@
         <v>56.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>79.0</v>
@@ -1041,12 +1041,12 @@
         <v>56.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>79.0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>79.0</v>
@@ -1069,12 +1069,12 @@
         <v>56.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>79.0</v>
@@ -1083,12 +1083,12 @@
         <v>56.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>79.0</v>
@@ -1097,26 +1097,26 @@
         <v>56.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>85.0</v>
@@ -1125,12 +1125,12 @@
         <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>85.0</v>
@@ -1139,12 +1139,12 @@
         <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>85.0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>85.0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>85.0</v>
@@ -1181,12 +1181,12 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>85.0</v>
@@ -1195,12 +1195,12 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>85.0</v>
@@ -1209,12 +1209,12 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>85.0</v>
@@ -1223,12 +1223,12 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>85.0</v>
@@ -1237,12 +1237,12 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>85.0</v>
@@ -1251,26 +1251,26 @@
         <v>50.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>90.0</v>
@@ -1279,12 +1279,12 @@
         <v>45.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>90.0</v>
@@ -1293,26 +1293,26 @@
         <v>45.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>93.0</v>
@@ -1321,12 +1321,12 @@
         <v>42.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>93.0</v>
@@ -1335,12 +1335,12 @@
         <v>42.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>93.0</v>
@@ -1349,26 +1349,26 @@
         <v>42.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>94.0</v>
@@ -1377,12 +1377,12 @@
         <v>41.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>94.0</v>
@@ -1391,26 +1391,26 @@
         <v>41.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>95.0</v>
@@ -1419,12 +1419,12 @@
         <v>40.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>95.0</v>
@@ -1433,12 +1433,12 @@
         <v>40.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>95.0</v>
@@ -1447,26 +1447,26 @@
         <v>40.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>101.0</v>
@@ -1475,12 +1475,12 @@
         <v>34.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>101.0</v>
@@ -1489,12 +1489,12 @@
         <v>34.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>101.0</v>
@@ -1503,12 +1503,12 @@
         <v>34.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>101.0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>101.0</v>
@@ -1531,12 +1531,12 @@
         <v>34.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>101.0</v>
@@ -1545,26 +1545,26 @@
         <v>34.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>104.0</v>
@@ -1573,12 +1573,12 @@
         <v>31.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>104.0</v>
@@ -1587,26 +1587,26 @@
         <v>31.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>106.0</v>
@@ -1615,12 +1615,12 @@
         <v>29.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>106.0</v>
@@ -1629,12 +1629,12 @@
         <v>29.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>106.0</v>
@@ -1643,20 +1643,6 @@
         <v>29.0</v>
       </c>
       <c r="D89" t="n" s="0">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>106.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-05</t>
+    <t>2025-11-06</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-06</t>
   </si>
   <si>
     <t>2025-11-07</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
@@ -439,21 +436,21 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>99.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +464,7 @@
         <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +478,7 @@
         <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +492,7 @@
         <v>99.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
@@ -503,13 +500,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +520,7 @@
         <v>97.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="10">
@@ -537,7 +534,7 @@
         <v>97.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +548,7 @@
         <v>97.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +556,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +576,7 @@
         <v>92.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>92.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
@@ -601,13 +598,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +618,7 @@
         <v>89.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +632,7 @@
         <v>89.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
@@ -657,13 +654,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="20">
@@ -677,7 +674,7 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +688,7 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="22">
@@ -705,7 +702,7 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -719,7 +716,7 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -747,7 +744,7 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -761,7 +758,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +772,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -789,7 +786,7 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
@@ -803,7 +800,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -817,7 +814,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -831,7 +828,7 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -859,7 +856,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -873,7 +870,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +884,7 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -929,7 +926,7 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
@@ -957,7 +954,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +968,7 @@
         <v>62.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
@@ -979,13 +976,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="43">
@@ -1013,7 +1010,7 @@
         <v>56.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1024,7 @@
         <v>56.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="46">
@@ -1055,7 +1052,7 @@
         <v>56.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1066,7 @@
         <v>56.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="49">
@@ -1083,7 +1080,7 @@
         <v>56.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -1091,13 +1088,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1111,7 +1108,7 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="52">
@@ -1125,7 +1122,7 @@
         <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1167,7 +1164,7 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1181,7 +1178,7 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1195,7 +1192,7 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="58">
@@ -1209,7 +1206,7 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -1223,7 +1220,7 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1237,7 +1234,7 @@
         <v>50.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
@@ -1245,13 +1242,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="62">
@@ -1265,7 +1262,7 @@
         <v>45.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1279,7 +1276,7 @@
         <v>45.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="64">
@@ -1287,13 +1284,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="65">
@@ -1307,7 +1304,7 @@
         <v>42.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="66">
@@ -1321,7 +1318,7 @@
         <v>42.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="67">
@@ -1335,7 +1332,7 @@
         <v>42.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="68">
@@ -1343,13 +1340,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="69">
@@ -1363,7 +1360,7 @@
         <v>41.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1377,7 +1374,7 @@
         <v>41.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="71">
@@ -1385,13 +1382,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="72">
@@ -1405,7 +1402,7 @@
         <v>40.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
@@ -1419,7 +1416,7 @@
         <v>40.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="74">
@@ -1433,7 +1430,7 @@
         <v>40.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="75">
@@ -1441,13 +1438,13 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -1461,7 +1458,7 @@
         <v>34.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="77">
@@ -1475,7 +1472,7 @@
         <v>34.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="78">
@@ -1489,7 +1486,7 @@
         <v>34.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -1517,7 +1514,7 @@
         <v>34.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -1531,7 +1528,7 @@
         <v>34.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="82">
@@ -1539,13 +1536,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="83">
@@ -1559,7 +1556,7 @@
         <v>31.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
@@ -1573,7 +1570,7 @@
         <v>31.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
@@ -1581,13 +1578,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -1601,7 +1598,7 @@
         <v>29.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="87">
@@ -1615,7 +1612,7 @@
         <v>29.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="88">
@@ -1629,20 +1626,6 @@
         <v>29.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>106.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>29.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1661,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>82.0</v>
@@ -1689,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1703,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1717,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1731,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>7.0</v>
@@ -1758,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-06</t>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
   </si>
   <si>
     <t>Reason</t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +428,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>99.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -450,7 +456,7 @@
         <v>99.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +470,7 @@
         <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +484,7 @@
         <v>99.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +492,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +512,7 @@
         <v>97.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +526,7 @@
         <v>97.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +540,7 @@
         <v>97.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +548,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +568,7 @@
         <v>92.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +582,7 @@
         <v>92.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
@@ -584,13 +590,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +610,7 @@
         <v>89.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +624,7 @@
         <v>89.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
@@ -640,13 +646,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +666,7 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +680,7 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="21">
@@ -688,7 +694,7 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +708,7 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -730,7 +736,7 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -744,7 +750,7 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +764,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +778,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -786,7 +792,7 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -800,7 +806,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +820,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -842,7 +848,7 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +862,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +876,7 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -912,7 +918,7 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +946,7 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +960,7 @@
         <v>62.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -962,13 +968,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +1002,7 @@
         <v>56.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1016,7 @@
         <v>56.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="45">
@@ -1038,7 +1044,7 @@
         <v>56.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1058,7 @@
         <v>56.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1072,7 @@
         <v>56.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1074,13 +1080,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1094,7 +1100,7 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1114,7 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1150,7 +1156,7 @@
         <v>50.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1170,7 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
@@ -1178,7 +1184,7 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="57">
@@ -1192,7 +1198,7 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1212,7 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1226,7 @@
         <v>50.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,13 +1234,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1254,7 @@
         <v>45.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1268,7 @@
         <v>45.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
@@ -1270,13 +1276,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="64">
@@ -1290,7 +1296,7 @@
         <v>42.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1310,7 @@
         <v>42.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1324,7 @@
         <v>42.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,13 +1332,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1352,7 @@
         <v>41.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1366,7 @@
         <v>41.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,13 +1374,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="71">
@@ -1388,7 +1394,7 @@
         <v>40.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1408,7 @@
         <v>40.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1422,7 @@
         <v>40.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1430,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1450,7 @@
         <v>34.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1464,7 @@
         <v>34.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="77">
@@ -1472,7 +1478,7 @@
         <v>34.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -1500,7 +1506,7 @@
         <v>34.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1520,7 @@
         <v>34.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1528,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1548,7 @@
         <v>31.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1562,7 @@
         <v>31.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
@@ -1564,13 +1570,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -1584,7 +1590,7 @@
         <v>29.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1604,7 @@
         <v>29.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,7 +1618,7 @@
         <v>29.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -1620,13 +1626,41 @@
         <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D88" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1644,41 +1678,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1686,13 +1720,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1734,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,16 +1748,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -1741,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Impressions</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2025-11-08</t>
@@ -397,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,19 +415,19 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>99.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>36.0</v>
@@ -442,12 +436,12 @@
         <v>99.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>36.0</v>
@@ -456,12 +450,12 @@
         <v>99.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>36.0</v>
@@ -470,26 +464,26 @@
         <v>99.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>38.0</v>
@@ -498,12 +492,12 @@
         <v>97.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>38.0</v>
@@ -512,12 +506,12 @@
         <v>97.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>38.0</v>
@@ -526,26 +520,26 @@
         <v>97.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>43.0</v>
@@ -554,12 +548,12 @@
         <v>92.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>43.0</v>
@@ -568,26 +562,26 @@
         <v>92.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>46.0</v>
@@ -596,12 +590,12 @@
         <v>89.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>46.0</v>
@@ -610,12 +604,12 @@
         <v>89.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>46.0</v>
@@ -629,21 +623,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -652,12 +646,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -666,12 +660,12 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -680,12 +674,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -694,12 +688,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -713,7 +707,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -722,12 +716,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -736,12 +730,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -750,12 +744,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -764,12 +758,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -778,12 +772,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -792,12 +786,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -806,12 +800,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -825,7 +819,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -834,12 +828,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -848,12 +842,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -862,12 +856,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -881,7 +875,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -895,7 +889,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -904,12 +898,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -923,7 +917,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>73.0</v>
@@ -932,12 +926,12 @@
         <v>62.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>73.0</v>
@@ -946,26 +940,26 @@
         <v>62.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>79.0</v>
@@ -979,7 +973,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>79.0</v>
@@ -988,12 +982,12 @@
         <v>56.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>79.0</v>
@@ -1002,12 +996,12 @@
         <v>56.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>79.0</v>
@@ -1021,7 +1015,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>79.0</v>
@@ -1030,12 +1024,12 @@
         <v>56.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>79.0</v>
@@ -1044,12 +1038,12 @@
         <v>56.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>79.0</v>
@@ -1058,26 +1052,26 @@
         <v>56.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>85.0</v>
@@ -1086,12 +1080,12 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>85.0</v>
@@ -1100,12 +1094,12 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>85.0</v>
@@ -1119,7 +1113,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>85.0</v>
@@ -1133,7 +1127,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>85.0</v>
@@ -1142,12 +1136,12 @@
         <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>85.0</v>
@@ -1156,12 +1150,12 @@
         <v>50.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>85.0</v>
@@ -1170,12 +1164,12 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>85.0</v>
@@ -1184,12 +1178,12 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>85.0</v>
@@ -1198,12 +1192,12 @@
         <v>50.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>85.0</v>
@@ -1212,26 +1206,26 @@
         <v>50.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>90.0</v>
@@ -1240,12 +1234,12 @@
         <v>45.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>90.0</v>
@@ -1254,26 +1248,26 @@
         <v>45.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>93.0</v>
@@ -1282,12 +1276,12 @@
         <v>42.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>93.0</v>
@@ -1296,12 +1290,12 @@
         <v>42.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>93.0</v>
@@ -1310,26 +1304,26 @@
         <v>42.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>94.0</v>
@@ -1338,12 +1332,12 @@
         <v>41.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>94.0</v>
@@ -1352,26 +1346,26 @@
         <v>41.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>95.0</v>
@@ -1380,12 +1374,12 @@
         <v>40.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>95.0</v>
@@ -1394,12 +1388,12 @@
         <v>40.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>95.0</v>
@@ -1408,26 +1402,26 @@
         <v>40.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>101.0</v>
@@ -1436,12 +1430,12 @@
         <v>34.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>101.0</v>
@@ -1450,12 +1444,12 @@
         <v>34.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>101.0</v>
@@ -1464,12 +1458,12 @@
         <v>34.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>101.0</v>
@@ -1483,7 +1477,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>101.0</v>
@@ -1492,12 +1486,12 @@
         <v>34.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>101.0</v>
@@ -1506,26 +1500,26 @@
         <v>34.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>104.0</v>
@@ -1534,12 +1528,12 @@
         <v>31.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>104.0</v>
@@ -1548,26 +1542,26 @@
         <v>31.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>106.0</v>
@@ -1576,12 +1570,12 @@
         <v>29.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>106.0</v>
@@ -1590,12 +1584,12 @@
         <v>29.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>106.0</v>
@@ -1604,18 +1598,18 @@
         <v>29.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D87" t="n" s="0">
         <v>0.0</v>
@@ -1623,7 +1617,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>110.0</v>
@@ -1637,7 +1631,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>110.0</v>
@@ -1647,20 +1641,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>110.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1678,27 +1658,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>85.0</v>
@@ -1706,13 +1686,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1720,13 +1700,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1734,13 +1714,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1748,13 +1728,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1775,16 +1755,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1802,18 +1782,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-11</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -415,19 +412,19 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>99.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>36.0</v>
@@ -436,40 +433,40 @@
         <v>99.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>38.0</v>
@@ -478,12 +475,12 @@
         <v>97.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>38.0</v>
@@ -492,40 +489,40 @@
         <v>97.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>43.0</v>
@@ -534,40 +531,40 @@
         <v>92.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>46.0</v>
@@ -576,12 +573,12 @@
         <v>89.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>46.0</v>
@@ -590,40 +587,40 @@
         <v>89.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -632,12 +629,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -646,12 +643,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -660,12 +657,12 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -674,12 +671,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -688,12 +685,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -702,12 +699,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -716,12 +713,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -730,12 +727,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -744,12 +741,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -758,12 +755,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -772,12 +769,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -786,12 +783,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -800,12 +797,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -814,12 +811,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -828,12 +825,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -842,12 +839,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -870,12 +867,12 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -884,12 +881,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -898,12 +895,12 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>73.0</v>
@@ -912,40 +909,40 @@
         <v>62.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>79.0</v>
@@ -954,12 +951,12 @@
         <v>56.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>79.0</v>
@@ -968,12 +965,12 @@
         <v>56.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>79.0</v>
@@ -982,12 +979,12 @@
         <v>56.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>79.0</v>
@@ -996,12 +993,12 @@
         <v>56.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>79.0</v>
@@ -1010,12 +1007,12 @@
         <v>56.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>79.0</v>
@@ -1024,40 +1021,40 @@
         <v>56.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>85.0</v>
@@ -1066,12 +1063,12 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>85.0</v>
@@ -1080,12 +1077,12 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>85.0</v>
@@ -1099,7 +1096,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>85.0</v>
@@ -1108,12 +1105,12 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>85.0</v>
@@ -1122,12 +1119,12 @@
         <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>85.0</v>
@@ -1136,12 +1133,12 @@
         <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>85.0</v>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>85.0</v>
@@ -1164,12 +1161,12 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>72.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>85.0</v>
@@ -1178,40 +1175,40 @@
         <v>50.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>90.0</v>
@@ -1220,40 +1217,40 @@
         <v>45.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>2.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>93.0</v>
@@ -1262,12 +1259,12 @@
         <v>42.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>40.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>93.0</v>
@@ -1276,40 +1273,40 @@
         <v>42.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>14.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>85.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>121.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>94.0</v>
@@ -1318,40 +1315,40 @@
         <v>41.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>9.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>26.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>67.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>95.0</v>
@@ -1360,12 +1357,12 @@
         <v>40.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>54.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>95.0</v>
@@ -1374,40 +1371,40 @@
         <v>40.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>101.0</v>
@@ -1416,12 +1413,12 @@
         <v>34.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>3.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>101.0</v>
@@ -1430,12 +1427,12 @@
         <v>34.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>101.0</v>
@@ -1444,12 +1441,12 @@
         <v>34.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>101.0</v>
@@ -1458,12 +1455,12 @@
         <v>34.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>101.0</v>
@@ -1472,40 +1469,40 @@
         <v>34.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>58.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>104.0</v>
@@ -1514,40 +1511,40 @@
         <v>31.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>106.0</v>
@@ -1556,12 +1553,12 @@
         <v>29.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>106.0</v>
@@ -1570,32 +1567,32 @@
         <v>29.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D86" t="n" s="0">
         <v>0.0</v>
@@ -1603,7 +1600,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>110.0</v>
@@ -1612,34 +1609,6 @@
         <v>25.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>110.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>110.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1658,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>85.0</v>
@@ -1686,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1700,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1714,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1728,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>8.0</v>
@@ -1755,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1782,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-11</t>
   </si>
   <si>
@@ -288,6 +282,18 @@
   </si>
   <si>
     <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
   </si>
   <si>
     <t>Reason</t>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +418,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>99.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>99.0</v>
+        <v>97.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>38.0</v>
@@ -447,12 +453,12 @@
         <v>97.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>38.0</v>
@@ -461,12 +467,12 @@
         <v>97.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>38.0</v>
@@ -475,26 +481,26 @@
         <v>97.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>43.0</v>
@@ -503,12 +509,12 @@
         <v>92.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>43.0</v>
@@ -517,26 +523,26 @@
         <v>92.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>46.0</v>
@@ -545,12 +551,12 @@
         <v>89.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>46.0</v>
@@ -559,12 +565,12 @@
         <v>89.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>46.0</v>
@@ -578,21 +584,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>73.0</v>
@@ -601,12 +607,12 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>73.0</v>
@@ -615,12 +621,12 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -629,12 +635,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -643,12 +649,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -662,7 +668,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -671,12 +677,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -685,12 +691,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -699,12 +705,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -713,12 +719,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -727,12 +733,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -741,12 +747,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -755,12 +761,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -774,7 +780,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -783,12 +789,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -797,12 +803,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -811,12 +817,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -830,7 +836,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -844,7 +850,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -853,12 +859,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -872,7 +878,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>73.0</v>
@@ -881,12 +887,12 @@
         <v>62.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>73.0</v>
@@ -895,26 +901,26 @@
         <v>62.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>79.0</v>
@@ -928,7 +934,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>79.0</v>
@@ -937,12 +943,12 @@
         <v>56.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>79.0</v>
@@ -951,12 +957,12 @@
         <v>56.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>79.0</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>79.0</v>
@@ -979,12 +985,12 @@
         <v>56.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>79.0</v>
@@ -993,12 +999,12 @@
         <v>56.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>79.0</v>
@@ -1007,26 +1013,26 @@
         <v>56.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>85.0</v>
@@ -1035,12 +1041,12 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>85.0</v>
@@ -1049,12 +1055,12 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>85.0</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>85.0</v>
@@ -1082,7 +1088,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>85.0</v>
@@ -1091,12 +1097,12 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>85.0</v>
@@ -1105,12 +1111,12 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>85.0</v>
@@ -1119,12 +1125,12 @@
         <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>85.0</v>
@@ -1133,12 +1139,12 @@
         <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>85.0</v>
@@ -1147,12 +1153,12 @@
         <v>50.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>85.0</v>
@@ -1161,26 +1167,26 @@
         <v>50.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>90.0</v>
@@ -1189,12 +1195,12 @@
         <v>45.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>90.0</v>
@@ -1203,26 +1209,26 @@
         <v>45.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>93.0</v>
@@ -1231,12 +1237,12 @@
         <v>42.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>93.0</v>
@@ -1245,12 +1251,12 @@
         <v>42.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>93.0</v>
@@ -1259,26 +1265,26 @@
         <v>42.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>94.0</v>
@@ -1287,12 +1293,12 @@
         <v>41.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>94.0</v>
@@ -1301,26 +1307,26 @@
         <v>41.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>95.0</v>
@@ -1329,12 +1335,12 @@
         <v>40.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>95.0</v>
@@ -1343,12 +1349,12 @@
         <v>40.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>95.0</v>
@@ -1357,26 +1363,26 @@
         <v>40.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>101.0</v>
@@ -1385,12 +1391,12 @@
         <v>34.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>101.0</v>
@@ -1399,12 +1405,12 @@
         <v>34.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>101.0</v>
@@ -1413,12 +1419,12 @@
         <v>34.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>101.0</v>
@@ -1432,7 +1438,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>101.0</v>
@@ -1441,12 +1447,12 @@
         <v>34.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>101.0</v>
@@ -1455,26 +1461,26 @@
         <v>34.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>104.0</v>
@@ -1483,12 +1489,12 @@
         <v>31.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>104.0</v>
@@ -1497,26 +1503,26 @@
         <v>31.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>106.0</v>
@@ -1525,12 +1531,12 @@
         <v>29.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>106.0</v>
@@ -1539,12 +1545,12 @@
         <v>29.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>106.0</v>
@@ -1553,18 +1559,18 @@
         <v>29.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D84" t="n" s="0">
         <v>0.0</v>
@@ -1572,7 +1578,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>110.0</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>110.0</v>
@@ -1600,15 +1606,57 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>110.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
+      <c r="B88" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1627,41 +1675,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1669,13 +1717,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,13 +1731,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1697,16 +1745,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -1724,16 +1772,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1799,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-14</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -418,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>36.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>99.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>97.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>38.0</v>
@@ -453,40 +450,40 @@
         <v>97.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>43.0</v>
@@ -495,40 +492,40 @@
         <v>92.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>46.0</v>
@@ -537,12 +534,12 @@
         <v>89.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>46.0</v>
@@ -551,40 +548,40 @@
         <v>89.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>73.0</v>
@@ -593,12 +590,12 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>73.0</v>
@@ -607,12 +604,12 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>73.0</v>
@@ -621,12 +618,12 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -635,12 +632,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -649,12 +646,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -663,12 +660,12 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -677,12 +674,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -691,12 +688,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -705,12 +702,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -719,12 +716,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -733,12 +730,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -747,12 +744,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -761,12 +758,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -775,12 +772,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -789,12 +786,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -803,12 +800,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -822,7 +819,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -831,12 +828,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -845,12 +842,12 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>73.0</v>
@@ -859,12 +856,12 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>73.0</v>
@@ -873,40 +870,40 @@
         <v>62.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>79.0</v>
@@ -915,12 +912,12 @@
         <v>56.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>79.0</v>
@@ -929,12 +926,12 @@
         <v>56.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>79.0</v>
@@ -943,12 +940,12 @@
         <v>56.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>79.0</v>
@@ -957,12 +954,12 @@
         <v>56.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>79.0</v>
@@ -971,12 +968,12 @@
         <v>56.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>79.0</v>
@@ -985,40 +982,40 @@
         <v>56.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>85.0</v>
@@ -1027,12 +1024,12 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>85.0</v>
@@ -1041,12 +1038,12 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>85.0</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>85.0</v>
@@ -1069,12 +1066,12 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>85.0</v>
@@ -1083,12 +1080,12 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>85.0</v>
@@ -1097,12 +1094,12 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>85.0</v>
@@ -1116,7 +1113,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>85.0</v>
@@ -1125,12 +1122,12 @@
         <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>72.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>85.0</v>
@@ -1139,40 +1136,40 @@
         <v>50.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>90.0</v>
@@ -1181,40 +1178,40 @@
         <v>45.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>2.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>93.0</v>
@@ -1223,12 +1220,12 @@
         <v>42.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>40.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>93.0</v>
@@ -1237,40 +1234,40 @@
         <v>42.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>14.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>85.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>121.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>94.0</v>
@@ -1279,40 +1276,40 @@
         <v>41.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>9.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>26.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>67.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>95.0</v>
@@ -1321,12 +1318,12 @@
         <v>40.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>54.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>95.0</v>
@@ -1335,40 +1332,40 @@
         <v>40.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>101.0</v>
@@ -1377,12 +1374,12 @@
         <v>34.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>3.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>101.0</v>
@@ -1391,12 +1388,12 @@
         <v>34.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>101.0</v>
@@ -1405,12 +1402,12 @@
         <v>34.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>101.0</v>
@@ -1419,12 +1416,12 @@
         <v>34.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>101.0</v>
@@ -1433,40 +1430,40 @@
         <v>34.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>58.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>104.0</v>
@@ -1475,40 +1472,40 @@
         <v>31.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>106.0</v>
@@ -1517,12 +1514,12 @@
         <v>29.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>106.0</v>
@@ -1531,32 +1528,32 @@
         <v>29.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D83" t="n" s="0">
         <v>0.0</v>
@@ -1564,7 +1561,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>110.0</v>
@@ -1578,35 +1575,35 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>114.0</v>
@@ -1615,12 +1612,12 @@
         <v>21.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>114.0</v>
@@ -1629,34 +1626,6 @@
         <v>21.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>114.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>114.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="D90" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1675,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>87.0</v>
@@ -1703,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1717,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1731,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1745,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1772,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1799,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-13</t>
+    <t>2025-11-14</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-14</t>
   </si>
   <si>
     <t>2025-11-15</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>97.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>92.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>92.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +503,7 @@
         <v>89.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>89.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
@@ -542,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +573,7 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +587,7 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +601,7 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -632,7 +629,7 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -646,7 +643,7 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -688,7 +685,7 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -702,7 +699,7 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +741,7 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +755,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -772,7 +769,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -814,7 +811,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -842,7 +839,7 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +853,7 @@
         <v>62.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -864,13 +861,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="35">
@@ -898,7 +895,7 @@
         <v>56.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>56.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +937,7 @@
         <v>56.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +951,7 @@
         <v>56.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +965,7 @@
         <v>56.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -976,13 +973,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +993,7 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1007,7 @@
         <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1052,7 +1049,7 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1063,7 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1080,7 +1077,7 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="50">
@@ -1094,7 +1091,7 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1105,7 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1122,7 +1119,7 @@
         <v>50.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="53">
@@ -1130,13 +1127,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1147,7 @@
         <v>45.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1161,7 @@
         <v>45.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="56">
@@ -1172,13 +1169,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="57">
@@ -1192,7 +1189,7 @@
         <v>42.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1203,7 @@
         <v>42.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1217,7 @@
         <v>42.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,13 +1225,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1245,7 @@
         <v>41.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>41.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="63">
@@ -1270,13 +1267,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="64">
@@ -1290,7 +1287,7 @@
         <v>40.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1301,7 @@
         <v>40.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1315,7 @@
         <v>40.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,13 +1323,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1343,7 @@
         <v>34.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1357,7 @@
         <v>34.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="70">
@@ -1374,7 +1371,7 @@
         <v>34.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -1402,7 +1399,7 @@
         <v>34.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1413,7 @@
         <v>34.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1421,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>31.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>31.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
@@ -1466,13 +1463,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1483,7 @@
         <v>29.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1497,7 @@
         <v>29.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1511,7 @@
         <v>29.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,10 +1519,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D81" t="n" s="0">
         <v>0.0</v>
@@ -1564,13 +1561,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="85">
@@ -1584,7 +1581,7 @@
         <v>21.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1595,7 @@
         <v>21.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>21.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>114.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>87.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>10.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>2025-11-15</t>
   </si>
   <si>
@@ -290,6 +284,15 @@
     <t>2026-02-07</t>
   </si>
   <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -317,16 +320,16 @@
     <t>Redirect error</t>
   </si>
   <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
     <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
   </si>
   <si>
     <t>Property</t>
@@ -388,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>97.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>97.0</v>
+        <v>92.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>43.0</v>
@@ -447,12 +450,12 @@
         <v>92.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>43.0</v>
@@ -461,26 +464,26 @@
         <v>92.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>46.0</v>
@@ -489,12 +492,12 @@
         <v>89.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>46.0</v>
@@ -503,12 +506,12 @@
         <v>89.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>46.0</v>
@@ -522,21 +525,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>73.0</v>
@@ -545,12 +548,12 @@
         <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>73.0</v>
@@ -559,12 +562,12 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>73.0</v>
@@ -573,12 +576,12 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>73.0</v>
@@ -587,12 +590,12 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>73.0</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>73.0</v>
@@ -615,12 +618,12 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -629,12 +632,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -643,12 +646,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -657,12 +660,12 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -671,12 +674,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -685,12 +688,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -699,12 +702,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -718,7 +721,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -727,12 +730,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -741,12 +744,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -755,12 +758,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -774,7 +777,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -788,7 +791,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -797,12 +800,12 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -825,12 +828,12 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>73.0</v>
@@ -839,26 +842,26 @@
         <v>62.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>79.0</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>79.0</v>
@@ -881,12 +884,12 @@
         <v>56.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>79.0</v>
@@ -895,12 +898,12 @@
         <v>56.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>79.0</v>
@@ -914,7 +917,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>79.0</v>
@@ -923,12 +926,12 @@
         <v>56.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>79.0</v>
@@ -937,12 +940,12 @@
         <v>56.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>79.0</v>
@@ -951,26 +954,26 @@
         <v>56.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>85.0</v>
@@ -979,12 +982,12 @@
         <v>50.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>85.0</v>
@@ -993,12 +996,12 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>85.0</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>85.0</v>
@@ -1026,7 +1029,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>85.0</v>
@@ -1035,12 +1038,12 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>85.0</v>
@@ -1049,12 +1052,12 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>85.0</v>
@@ -1063,12 +1066,12 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>85.0</v>
@@ -1077,12 +1080,12 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>85.0</v>
@@ -1091,12 +1094,12 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>85.0</v>
@@ -1105,26 +1108,26 @@
         <v>50.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>90.0</v>
@@ -1133,12 +1136,12 @@
         <v>45.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>90.0</v>
@@ -1147,26 +1150,26 @@
         <v>45.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>93.0</v>
@@ -1175,12 +1178,12 @@
         <v>42.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>93.0</v>
@@ -1189,12 +1192,12 @@
         <v>42.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>93.0</v>
@@ -1203,26 +1206,26 @@
         <v>42.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>94.0</v>
@@ -1231,12 +1234,12 @@
         <v>41.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>94.0</v>
@@ -1245,26 +1248,26 @@
         <v>41.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>95.0</v>
@@ -1273,12 +1276,12 @@
         <v>40.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>95.0</v>
@@ -1287,12 +1290,12 @@
         <v>40.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>95.0</v>
@@ -1301,26 +1304,26 @@
         <v>40.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>101.0</v>
@@ -1329,12 +1332,12 @@
         <v>34.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>101.0</v>
@@ -1343,12 +1346,12 @@
         <v>34.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>101.0</v>
@@ -1357,12 +1360,12 @@
         <v>34.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>101.0</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>101.0</v>
@@ -1385,12 +1388,12 @@
         <v>34.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>101.0</v>
@@ -1399,26 +1402,26 @@
         <v>34.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>104.0</v>
@@ -1427,12 +1430,12 @@
         <v>31.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>104.0</v>
@@ -1441,26 +1444,26 @@
         <v>31.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>106.0</v>
@@ -1469,12 +1472,12 @@
         <v>29.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>106.0</v>
@@ -1483,12 +1486,12 @@
         <v>29.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>106.0</v>
@@ -1497,18 +1500,18 @@
         <v>29.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D80" t="n" s="0">
         <v>0.0</v>
@@ -1516,7 +1519,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>110.0</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>110.0</v>
@@ -1544,21 +1547,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>114.0</v>
@@ -1567,12 +1570,12 @@
         <v>21.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>114.0</v>
@@ -1581,12 +1584,12 @@
         <v>21.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>114.0</v>
@@ -1595,20 +1598,48 @@
         <v>21.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>114.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>21.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
+      <c r="B88" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1627,41 +1658,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1669,13 +1700,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,27 +1714,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>102</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1724,16 +1755,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1782,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,10 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
     <t>2025-11-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>2025-11-17</t>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -415,33 +415,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>38.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>97.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>92.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>43.0</v>
@@ -450,26 +450,26 @@
         <v>92.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>46.0</v>
@@ -478,12 +478,12 @@
         <v>89.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>46.0</v>
@@ -492,12 +492,12 @@
         <v>89.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>46.0</v>
@@ -511,21 +511,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>73.0</v>
@@ -534,12 +534,12 @@
         <v>62.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>73.0</v>
@@ -548,12 +548,12 @@
         <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>73.0</v>
@@ -562,12 +562,12 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>73.0</v>
@@ -576,12 +576,12 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>73.0</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>73.0</v>
@@ -604,12 +604,12 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>73.0</v>
@@ -618,12 +618,12 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -632,12 +632,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -646,12 +646,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -660,12 +660,12 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -674,12 +674,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -688,12 +688,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -716,12 +716,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -730,12 +730,12 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -744,12 +744,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -786,12 +786,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>73.0</v>
@@ -814,12 +814,12 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>73.0</v>
@@ -828,26 +828,26 @@
         <v>62.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>79.0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>79.0</v>
@@ -870,12 +870,12 @@
         <v>56.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>79.0</v>
@@ -884,12 +884,12 @@
         <v>56.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>79.0</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>79.0</v>
@@ -912,12 +912,12 @@
         <v>56.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>79.0</v>
@@ -926,12 +926,12 @@
         <v>56.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>79.0</v>
@@ -940,26 +940,26 @@
         <v>56.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>85.0</v>
@@ -968,12 +968,12 @@
         <v>50.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>85.0</v>
@@ -982,12 +982,12 @@
         <v>50.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>85.0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>85.0</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>85.0</v>
@@ -1024,12 +1024,12 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>85.0</v>
@@ -1038,12 +1038,12 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>85.0</v>
@@ -1052,12 +1052,12 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>85.0</v>
@@ -1066,12 +1066,12 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>85.0</v>
@@ -1080,12 +1080,12 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>85.0</v>
@@ -1094,26 +1094,26 @@
         <v>50.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>90.0</v>
@@ -1122,12 +1122,12 @@
         <v>45.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>90.0</v>
@@ -1136,26 +1136,26 @@
         <v>45.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>93.0</v>
@@ -1164,12 +1164,12 @@
         <v>42.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>93.0</v>
@@ -1178,12 +1178,12 @@
         <v>42.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>93.0</v>
@@ -1192,26 +1192,26 @@
         <v>42.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>94.0</v>
@@ -1220,12 +1220,12 @@
         <v>41.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>94.0</v>
@@ -1234,26 +1234,26 @@
         <v>41.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>95.0</v>
@@ -1262,12 +1262,12 @@
         <v>40.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>95.0</v>
@@ -1276,12 +1276,12 @@
         <v>40.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>95.0</v>
@@ -1290,26 +1290,26 @@
         <v>40.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>101.0</v>
@@ -1318,12 +1318,12 @@
         <v>34.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>101.0</v>
@@ -1332,12 +1332,12 @@
         <v>34.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>101.0</v>
@@ -1346,12 +1346,12 @@
         <v>34.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>101.0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>101.0</v>
@@ -1374,12 +1374,12 @@
         <v>34.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>101.0</v>
@@ -1388,26 +1388,26 @@
         <v>34.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>104.0</v>
@@ -1416,12 +1416,12 @@
         <v>31.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>104.0</v>
@@ -1430,26 +1430,26 @@
         <v>31.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>106.0</v>
@@ -1458,12 +1458,12 @@
         <v>29.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>106.0</v>
@@ -1472,12 +1472,12 @@
         <v>29.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>106.0</v>
@@ -1486,18 +1486,18 @@
         <v>29.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D79" t="n" s="0">
         <v>0.0</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>110.0</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>110.0</v>
@@ -1533,21 +1533,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>114.0</v>
@@ -1556,12 +1556,12 @@
         <v>21.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>114.0</v>
@@ -1570,12 +1570,12 @@
         <v>21.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>114.0</v>
@@ -1584,26 +1584,26 @@
         <v>21.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>121.0</v>
@@ -1612,12 +1612,12 @@
         <v>14.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>121.0</v>
@@ -1626,20 +1626,6 @@
         <v>14.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>121.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-16</t>
+    <t>2025-11-17</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-17</t>
   </si>
   <si>
     <t>2025-11-18</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,21 +419,21 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>92.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +441,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +461,7 @@
         <v>89.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +475,7 @@
         <v>89.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
@@ -500,13 +497,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +517,7 @@
         <v>62.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -534,7 +531,7 @@
         <v>62.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="11">
@@ -548,7 +545,7 @@
         <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +559,7 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -590,7 +587,7 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +601,7 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +615,7 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +629,7 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -646,7 +643,7 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +657,7 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +671,7 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +699,7 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -716,7 +713,7 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -730,7 +727,7 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -772,7 +769,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -800,7 +797,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +811,7 @@
         <v>62.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -822,13 +819,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="32">
@@ -856,7 +853,7 @@
         <v>56.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +867,7 @@
         <v>56.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="35">
@@ -898,7 +895,7 @@
         <v>56.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +909,7 @@
         <v>56.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +923,7 @@
         <v>56.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -934,13 +931,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +951,7 @@
         <v>50.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +965,7 @@
         <v>50.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1010,7 +1007,7 @@
         <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1024,7 +1021,7 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1035,7 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1049,7 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1063,7 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1080,7 +1077,7 @@
         <v>50.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
@@ -1088,13 +1085,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1105,7 @@
         <v>45.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1122,7 +1119,7 @@
         <v>45.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="53">
@@ -1130,13 +1127,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1147,7 @@
         <v>42.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1161,7 @@
         <v>42.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="56">
@@ -1178,7 +1175,7 @@
         <v>42.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="57">
@@ -1186,13 +1183,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1203,7 @@
         <v>41.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1217,7 @@
         <v>41.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,13 +1225,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1245,7 @@
         <v>40.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1259,7 @@
         <v>40.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="63">
@@ -1276,7 +1273,7 @@
         <v>40.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="64">
@@ -1284,13 +1281,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -1304,7 +1301,7 @@
         <v>34.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1315,7 @@
         <v>34.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="67">
@@ -1332,7 +1329,7 @@
         <v>34.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -1360,7 +1357,7 @@
         <v>34.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
@@ -1374,7 +1371,7 @@
         <v>34.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="71">
@@ -1382,13 +1379,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1399,7 @@
         <v>31.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1413,7 @@
         <v>31.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,13 +1421,13 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -1444,7 +1441,7 @@
         <v>29.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="76">
@@ -1458,7 +1455,7 @@
         <v>29.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77">
@@ -1472,7 +1469,7 @@
         <v>29.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -1480,10 +1477,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D78" t="n" s="0">
         <v>0.0</v>
@@ -1522,13 +1519,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1539,7 @@
         <v>21.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="83">
@@ -1556,7 +1553,7 @@
         <v>21.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="84">
@@ -1570,7 +1567,7 @@
         <v>21.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -1578,13 +1575,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -1598,7 +1595,7 @@
         <v>14.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -1612,20 +1609,6 @@
         <v>14.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>121.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D88" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1644,27 +1627,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>90.0</v>
@@ -1672,13 +1655,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1686,13 +1669,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,13 +1683,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>14.0</v>
@@ -1714,13 +1697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>103</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1741,16 +1724,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1751,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,267 +29,276 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-17</t>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
-  </si>
-  <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
-    <t>2025-11-29</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>2025-12-02</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2025-12-06</t>
-  </si>
-  <si>
-    <t>2025-12-07</t>
-  </si>
-  <si>
-    <t>2025-12-08</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>2025-12-13</t>
-  </si>
-  <si>
-    <t>2025-12-14</t>
-  </si>
-  <si>
-    <t>2025-12-15</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>2025-12-18</t>
-  </si>
-  <si>
-    <t>2025-12-19</t>
-  </si>
-  <si>
-    <t>2025-12-20</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2026-01-01</t>
-  </si>
-  <si>
-    <t>2026-01-02</t>
-  </si>
-  <si>
-    <t>2026-01-03</t>
-  </si>
-  <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-23</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-26</t>
-  </si>
-  <si>
-    <t>2026-01-27</t>
-  </si>
-  <si>
-    <t>2026-01-28</t>
-  </si>
-  <si>
-    <t>2026-01-29</t>
-  </si>
-  <si>
-    <t>2026-01-30</t>
-  </si>
-  <si>
-    <t>2026-01-31</t>
-  </si>
-  <si>
-    <t>2026-02-01</t>
-  </si>
-  <si>
-    <t>2026-02-02</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-04</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>2026-02-06</t>
-  </si>
-  <si>
-    <t>2026-02-07</t>
-  </si>
-  <si>
-    <t>2026-02-08</t>
-  </si>
-  <si>
-    <t>2026-02-09</t>
-  </si>
-  <si>
-    <t>2026-02-10</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -323,10 +332,10 @@
     <t>Google systems</t>
   </si>
   <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
     <t>Property</t>
@@ -388,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -412,33 +421,33 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
+      <c r="B2" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>92.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>92.0</v>
+        <v>89.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>46.0</v>
@@ -447,12 +456,12 @@
         <v>89.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>46.0</v>
@@ -461,12 +470,12 @@
         <v>89.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
         <v>46.0</v>
@@ -480,21 +489,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>73.0</v>
@@ -503,12 +512,12 @@
         <v>62.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>73.0</v>
@@ -517,12 +526,12 @@
         <v>62.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>73.0</v>
@@ -531,12 +540,12 @@
         <v>62.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>73.0</v>
@@ -545,12 +554,12 @@
         <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>73.0</v>
@@ -564,7 +573,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>73.0</v>
@@ -573,12 +582,12 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>73.0</v>
@@ -587,12 +596,12 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>73.0</v>
@@ -601,12 +610,12 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>73.0</v>
@@ -615,12 +624,12 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -629,12 +638,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -643,12 +652,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -657,12 +666,12 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -676,7 +685,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -685,12 +694,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -699,12 +708,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -713,12 +722,12 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -732,7 +741,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -746,7 +755,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -755,12 +764,12 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -774,7 +783,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -783,12 +792,12 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n" s="0">
         <v>73.0</v>
@@ -797,26 +806,26 @@
         <v>62.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>79.0</v>
@@ -830,7 +839,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>79.0</v>
@@ -839,12 +848,12 @@
         <v>56.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>79.0</v>
@@ -853,12 +862,12 @@
         <v>56.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>79.0</v>
@@ -872,7 +881,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>79.0</v>
@@ -881,12 +890,12 @@
         <v>56.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>79.0</v>
@@ -895,12 +904,12 @@
         <v>56.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n" s="0">
         <v>79.0</v>
@@ -909,26 +918,26 @@
         <v>56.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>85.0</v>
@@ -937,12 +946,12 @@
         <v>50.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>85.0</v>
@@ -951,12 +960,12 @@
         <v>50.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>85.0</v>
@@ -970,7 +979,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>85.0</v>
@@ -984,7 +993,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>85.0</v>
@@ -993,12 +1002,12 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>85.0</v>
@@ -1007,12 +1016,12 @@
         <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>85.0</v>
@@ -1021,12 +1030,12 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>85.0</v>
@@ -1035,12 +1044,12 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>85.0</v>
@@ -1049,12 +1058,12 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n" s="0">
         <v>85.0</v>
@@ -1063,26 +1072,26 @@
         <v>50.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>90.0</v>
@@ -1091,12 +1100,12 @@
         <v>45.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n" s="0">
         <v>90.0</v>
@@ -1105,26 +1114,26 @@
         <v>45.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>93.0</v>
@@ -1133,12 +1142,12 @@
         <v>42.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>93.0</v>
@@ -1147,12 +1156,12 @@
         <v>42.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n" s="0">
         <v>93.0</v>
@@ -1161,26 +1170,26 @@
         <v>42.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>94.0</v>
@@ -1189,12 +1198,12 @@
         <v>41.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n" s="0">
         <v>94.0</v>
@@ -1203,26 +1212,26 @@
         <v>41.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>95.0</v>
@@ -1231,12 +1240,12 @@
         <v>40.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>95.0</v>
@@ -1245,12 +1254,12 @@
         <v>40.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n" s="0">
         <v>95.0</v>
@@ -1259,26 +1268,26 @@
         <v>40.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>101.0</v>
@@ -1287,12 +1296,12 @@
         <v>34.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>101.0</v>
@@ -1301,12 +1310,12 @@
         <v>34.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>101.0</v>
@@ -1315,12 +1324,12 @@
         <v>34.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>101.0</v>
@@ -1334,7 +1343,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>101.0</v>
@@ -1343,12 +1352,12 @@
         <v>34.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n" s="0">
         <v>101.0</v>
@@ -1357,26 +1366,26 @@
         <v>34.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>104.0</v>
@@ -1385,12 +1394,12 @@
         <v>31.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="n" s="0">
         <v>104.0</v>
@@ -1399,26 +1408,26 @@
         <v>31.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>106.0</v>
@@ -1427,12 +1436,12 @@
         <v>29.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>106.0</v>
@@ -1441,12 +1450,12 @@
         <v>29.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n" s="0">
         <v>106.0</v>
@@ -1455,18 +1464,18 @@
         <v>29.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D77" t="n" s="0">
         <v>0.0</v>
@@ -1474,7 +1483,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>110.0</v>
@@ -1488,7 +1497,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n" s="0">
         <v>110.0</v>
@@ -1502,21 +1511,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>114.0</v>
@@ -1525,12 +1534,12 @@
         <v>21.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>114.0</v>
@@ -1539,12 +1548,12 @@
         <v>21.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="n" s="0">
         <v>114.0</v>
@@ -1553,26 +1562,26 @@
         <v>21.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>121.0</v>
@@ -1581,12 +1590,12 @@
         <v>14.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n" s="0">
         <v>121.0</v>
@@ -1600,16 +1609,58 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B87" t="n" s="0">
-        <v>121.0</v>
-      </c>
-      <c r="C87" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="D87" t="n" s="0">
+      <c r="B88" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
         <v>0.0</v>
+      </c>
+      <c r="D88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1627,41 +1678,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1669,13 +1720,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>96</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1683,27 +1734,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>102</v>
-      </c>
       <c r="D5" t="n" s="0">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1724,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1751,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
     <t>2025-11-19</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2025-11-20</t>
   </si>
   <si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>2026-02-14</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reason</t>
@@ -397,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -421,47 +418,47 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>43.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>92.0</v>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>89.0</v>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>89.0</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
         <v>46.0</v>
@@ -475,21 +472,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n" s="0">
         <v>73.0</v>
@@ -498,12 +495,12 @@
         <v>62.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n" s="0">
         <v>73.0</v>
@@ -512,12 +509,12 @@
         <v>62.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n" s="0">
         <v>73.0</v>
@@ -526,12 +523,12 @@
         <v>62.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>73.0</v>
@@ -540,12 +537,12 @@
         <v>62.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>73.0</v>
@@ -559,7 +556,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>73.0</v>
@@ -568,12 +565,12 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>73.0</v>
@@ -582,12 +579,12 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="0">
         <v>73.0</v>
@@ -596,12 +593,12 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="0">
         <v>73.0</v>
@@ -610,12 +607,12 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="0">
         <v>73.0</v>
@@ -624,12 +621,12 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="0">
         <v>73.0</v>
@@ -638,12 +635,12 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n" s="0">
         <v>73.0</v>
@@ -652,12 +649,12 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="0">
         <v>73.0</v>
@@ -671,7 +668,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
         <v>73.0</v>
@@ -680,12 +677,12 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n" s="0">
         <v>73.0</v>
@@ -694,12 +691,12 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
         <v>73.0</v>
@@ -708,12 +705,12 @@
         <v>62.0</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
         <v>73.0</v>
@@ -727,7 +724,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
         <v>73.0</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
         <v>73.0</v>
@@ -750,12 +747,12 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
         <v>73.0</v>
@@ -769,7 +766,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
         <v>73.0</v>
@@ -778,12 +775,12 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
         <v>73.0</v>
@@ -792,26 +789,26 @@
         <v>62.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
         <v>79.0</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n" s="0">
         <v>79.0</v>
@@ -834,12 +831,12 @@
         <v>56.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>79.0</v>
@@ -848,12 +845,12 @@
         <v>56.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
         <v>79.0</v>
@@ -867,7 +864,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
         <v>79.0</v>
@@ -876,12 +873,12 @@
         <v>56.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
         <v>79.0</v>
@@ -890,12 +887,12 @@
         <v>56.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>79.0</v>
@@ -904,26 +901,26 @@
         <v>56.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>85.0</v>
@@ -932,12 +929,12 @@
         <v>50.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n" s="0">
         <v>85.0</v>
@@ -946,12 +943,12 @@
         <v>50.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n" s="0">
         <v>85.0</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n" s="0">
         <v>85.0</v>
@@ -979,7 +976,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n" s="0">
         <v>85.0</v>
@@ -988,12 +985,12 @@
         <v>50.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n" s="0">
         <v>85.0</v>
@@ -1002,12 +999,12 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n" s="0">
         <v>85.0</v>
@@ -1016,12 +1013,12 @@
         <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n" s="0">
         <v>85.0</v>
@@ -1030,12 +1027,12 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
         <v>85.0</v>
@@ -1044,12 +1041,12 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
         <v>85.0</v>
@@ -1058,26 +1055,26 @@
         <v>50.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
         <v>90.0</v>
@@ -1086,12 +1083,12 @@
         <v>45.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
         <v>90.0</v>
@@ -1100,26 +1097,26 @@
         <v>45.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n" s="0">
         <v>93.0</v>
@@ -1128,12 +1125,12 @@
         <v>42.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
         <v>93.0</v>
@@ -1142,12 +1139,12 @@
         <v>42.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
         <v>93.0</v>
@@ -1156,26 +1153,26 @@
         <v>42.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
         <v>94.0</v>
@@ -1184,12 +1181,12 @@
         <v>41.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
         <v>94.0</v>
@@ -1198,26 +1195,26 @@
         <v>41.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n" s="0">
         <v>95.0</v>
@@ -1226,12 +1223,12 @@
         <v>40.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
         <v>95.0</v>
@@ -1240,12 +1237,12 @@
         <v>40.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
         <v>95.0</v>
@@ -1254,26 +1251,26 @@
         <v>40.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n" s="0">
         <v>101.0</v>
@@ -1282,12 +1279,12 @@
         <v>34.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n" s="0">
         <v>101.0</v>
@@ -1296,12 +1293,12 @@
         <v>34.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n" s="0">
         <v>101.0</v>
@@ -1310,12 +1307,12 @@
         <v>34.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n" s="0">
         <v>101.0</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
         <v>101.0</v>
@@ -1338,12 +1335,12 @@
         <v>34.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
         <v>101.0</v>
@@ -1352,26 +1349,26 @@
         <v>34.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
         <v>104.0</v>
@@ -1380,12 +1377,12 @@
         <v>31.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
         <v>104.0</v>
@@ -1394,26 +1391,26 @@
         <v>31.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n" s="0">
         <v>106.0</v>
@@ -1422,12 +1419,12 @@
         <v>29.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
         <v>106.0</v>
@@ -1436,12 +1433,12 @@
         <v>29.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
         <v>106.0</v>
@@ -1450,18 +1447,18 @@
         <v>29.0</v>
       </c>
       <c r="D75" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D76" t="n" s="0">
         <v>0.0</v>
@@ -1469,7 +1466,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
         <v>110.0</v>
@@ -1483,7 +1480,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
         <v>110.0</v>
@@ -1497,21 +1494,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n" s="0">
         <v>114.0</v>
@@ -1520,12 +1517,12 @@
         <v>21.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
         <v>114.0</v>
@@ -1534,12 +1531,12 @@
         <v>21.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
         <v>114.0</v>
@@ -1548,26 +1545,26 @@
         <v>21.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
         <v>121.0</v>
@@ -1576,12 +1573,12 @@
         <v>14.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
         <v>121.0</v>
@@ -1595,21 +1592,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>121.0</v>
+        <v>135.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n" s="0">
         <v>135.0</v>
@@ -1618,12 +1615,12 @@
         <v>0.0</v>
       </c>
       <c r="D87" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n" s="0">
         <v>135.0</v>
@@ -1637,7 +1634,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89" t="n" s="0">
         <v>135.0</v>
@@ -1647,20 +1644,6 @@
       </c>
       <c r="D89" t="n" s="0">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>135.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D90" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1678,27 +1661,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1706,13 +1689,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1720,13 +1703,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1734,13 +1717,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>104</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>23.0</v>
@@ -1748,13 +1731,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>105</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>106</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1775,16 +1758,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1802,18 +1785,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,13 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-19</t>
+    <t>2025-11-20</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-20</t>
   </si>
   <si>
     <t>2025-11-21</t>
@@ -394,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3">
@@ -439,18 +436,18 @@
         <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
+      <c r="B4" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>89.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>14.0</v>
@@ -461,13 +458,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +478,7 @@
         <v>62.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +492,7 @@
         <v>62.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -509,7 +506,7 @@
         <v>62.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +520,7 @@
         <v>62.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -551,7 +548,7 @@
         <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +562,7 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +576,7 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -607,7 +604,7 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -621,7 +618,7 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +632,7 @@
         <v>62.0</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +660,7 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -677,7 +674,7 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +688,7 @@
         <v>62.0</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -733,7 +730,7 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -761,7 +758,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +772,7 @@
         <v>62.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="28">
@@ -783,13 +780,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="29">
@@ -817,7 +814,7 @@
         <v>56.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
@@ -831,7 +828,7 @@
         <v>56.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="32">
@@ -859,7 +856,7 @@
         <v>56.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
@@ -873,7 +870,7 @@
         <v>56.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="35">
@@ -887,7 +884,7 @@
         <v>56.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -895,13 +892,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +912,7 @@
         <v>50.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
@@ -929,7 +926,7 @@
         <v>50.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -971,7 +968,7 @@
         <v>50.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -985,7 +982,7 @@
         <v>50.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -999,7 +996,7 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="44">
@@ -1013,7 +1010,7 @@
         <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1024,7 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1041,7 +1038,7 @@
         <v>50.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -1049,13 +1046,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="48">
@@ -1069,7 +1066,7 @@
         <v>45.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1083,7 +1080,7 @@
         <v>45.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
@@ -1091,13 +1088,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="51">
@@ -1111,7 +1108,7 @@
         <v>42.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="52">
@@ -1125,7 +1122,7 @@
         <v>42.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="53">
@@ -1139,7 +1136,7 @@
         <v>42.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="54">
@@ -1147,13 +1144,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="55">
@@ -1167,7 +1164,7 @@
         <v>41.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -1181,7 +1178,7 @@
         <v>41.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="57">
@@ -1189,13 +1186,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
@@ -1209,7 +1206,7 @@
         <v>40.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
@@ -1223,7 +1220,7 @@
         <v>40.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="60">
@@ -1237,7 +1234,7 @@
         <v>40.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="61">
@@ -1245,13 +1242,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -1265,7 +1262,7 @@
         <v>34.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="63">
@@ -1279,7 +1276,7 @@
         <v>34.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="64">
@@ -1293,7 +1290,7 @@
         <v>34.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -1321,7 +1318,7 @@
         <v>34.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -1335,7 +1332,7 @@
         <v>34.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="68">
@@ -1343,13 +1340,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -1363,7 +1360,7 @@
         <v>31.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -1377,7 +1374,7 @@
         <v>31.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -1385,13 +1382,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -1405,7 +1402,7 @@
         <v>29.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -1419,7 +1416,7 @@
         <v>29.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
@@ -1433,7 +1430,7 @@
         <v>29.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -1441,10 +1438,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D75" t="n" s="0">
         <v>0.0</v>
@@ -1483,13 +1480,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="79">
@@ -1503,7 +1500,7 @@
         <v>21.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
@@ -1517,7 +1514,7 @@
         <v>21.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="81">
@@ -1531,7 +1528,7 @@
         <v>21.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -1539,13 +1536,13 @@
         <v>85</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -1559,7 +1556,7 @@
         <v>14.0</v>
       </c>
       <c r="D83" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -1581,13 +1578,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>121.0</v>
+        <v>135.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
@@ -1601,7 +1598,7 @@
         <v>0.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -1629,20 +1626,6 @@
         <v>0.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>135.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D89" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1661,27 +1644,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>95.0</v>
@@ -1689,13 +1672,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1703,13 +1686,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>99</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1717,13 +1700,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>23.0</v>
@@ -1731,13 +1714,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1758,16 +1741,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1785,18 +1768,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -29,15 +29,12 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-20</t>
+    <t>2025-11-21</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
     <t>2025-11-22</t>
   </si>
   <si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-17</t>
   </si>
   <si>
     <t>Reason</t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -422,18 +428,18 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+      <c r="B3" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>89.0</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>14.0</v>
@@ -444,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>46.0</v>
+        <v>73.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>89.0</v>
+        <v>62.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +470,7 @@
         <v>62.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +484,7 @@
         <v>62.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +498,7 @@
         <v>62.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +512,7 @@
         <v>62.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +540,7 @@
         <v>62.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -548,7 +554,7 @@
         <v>62.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +568,7 @@
         <v>62.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,7 +582,7 @@
         <v>62.0</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +596,7 @@
         <v>62.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +610,7 @@
         <v>62.0</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -618,7 +624,7 @@
         <v>62.0</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -646,7 +652,7 @@
         <v>62.0</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +666,7 @@
         <v>62.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -674,7 +680,7 @@
         <v>62.0</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -716,7 +722,7 @@
         <v>62.0</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +750,7 @@
         <v>62.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,7 +764,7 @@
         <v>62.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
@@ -766,13 +772,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="28">
@@ -800,7 +806,7 @@
         <v>56.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="30">
@@ -814,7 +820,7 @@
         <v>56.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="31">
@@ -842,7 +848,7 @@
         <v>56.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,7 +862,7 @@
         <v>56.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,7 +876,7 @@
         <v>56.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -878,13 +884,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -898,7 +904,7 @@
         <v>50.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +918,7 @@
         <v>50.0</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -954,7 +960,7 @@
         <v>50.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -968,7 +974,7 @@
         <v>50.0</v>
       </c>
       <c r="D41" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -982,7 +988,7 @@
         <v>50.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>1.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="43">
@@ -996,7 +1002,7 @@
         <v>50.0</v>
       </c>
       <c r="D43" t="n" s="0">
-        <v>72.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -1010,7 +1016,7 @@
         <v>50.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1024,7 +1030,7 @@
         <v>50.0</v>
       </c>
       <c r="D45" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -1032,13 +1038,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="47">
@@ -1052,7 +1058,7 @@
         <v>45.0</v>
       </c>
       <c r="D47" t="n" s="0">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,7 +1072,7 @@
         <v>45.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
@@ -1074,13 +1080,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="D49" t="n" s="0">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="50">
@@ -1094,7 +1100,7 @@
         <v>42.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="51">
@@ -1108,7 +1114,7 @@
         <v>42.0</v>
       </c>
       <c r="D51" t="n" s="0">
-        <v>14.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="52">
@@ -1122,7 +1128,7 @@
         <v>42.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>85.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="53">
@@ -1130,13 +1136,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="D53" t="n" s="0">
-        <v>121.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="54">
@@ -1150,7 +1156,7 @@
         <v>41.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -1164,7 +1170,7 @@
         <v>41.0</v>
       </c>
       <c r="D55" t="n" s="0">
-        <v>26.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="56">
@@ -1172,13 +1178,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="57">
@@ -1192,7 +1198,7 @@
         <v>40.0</v>
       </c>
       <c r="D57" t="n" s="0">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -1206,7 +1212,7 @@
         <v>40.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="59">
@@ -1220,7 +1226,7 @@
         <v>40.0</v>
       </c>
       <c r="D59" t="n" s="0">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="60">
@@ -1228,13 +1234,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>95.0</v>
+        <v>101.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -1248,7 +1254,7 @@
         <v>34.0</v>
       </c>
       <c r="D61" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="62">
@@ -1262,7 +1268,7 @@
         <v>34.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="63">
@@ -1276,7 +1282,7 @@
         <v>34.0</v>
       </c>
       <c r="D63" t="n" s="0">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -1304,7 +1310,7 @@
         <v>34.0</v>
       </c>
       <c r="D65" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1324,7 @@
         <v>34.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="67">
@@ -1326,13 +1332,13 @@
         <v>70</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="D67" t="n" s="0">
-        <v>58.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -1346,7 +1352,7 @@
         <v>31.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -1360,7 +1366,7 @@
         <v>31.0</v>
       </c>
       <c r="D69" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
@@ -1368,13 +1374,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -1388,7 +1394,7 @@
         <v>29.0</v>
       </c>
       <c r="D71" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="72">
@@ -1402,7 +1408,7 @@
         <v>29.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
@@ -1416,7 +1422,7 @@
         <v>29.0</v>
       </c>
       <c r="D73" t="n" s="0">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -1424,10 +1430,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>106.0</v>
+        <v>110.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="D74" t="n" s="0">
         <v>0.0</v>
@@ -1466,13 +1472,13 @@
         <v>80</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D77" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
@@ -1486,7 +1492,7 @@
         <v>21.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -1500,7 +1506,7 @@
         <v>21.0</v>
       </c>
       <c r="D79" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="80">
@@ -1514,7 +1520,7 @@
         <v>21.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -1522,13 +1528,13 @@
         <v>84</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>114.0</v>
+        <v>121.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="D81" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -1542,7 +1548,7 @@
         <v>14.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -1564,13 +1570,13 @@
         <v>87</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>121.0</v>
+        <v>135.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
@@ -1584,7 +1590,7 @@
         <v>0.0</v>
       </c>
       <c r="D85" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -1627,6 +1633,34 @@
       </c>
       <c r="D88" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1644,41 +1678,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>95.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>97</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>4.0</v>
@@ -1686,13 +1720,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>100</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>3.0</v>
@@ -1700,27 +1734,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>10.0</v>
@@ -1741,16 +1775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export-old/Coverage.xlsx
+++ b/gsc-export-old/Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -29,16 +29,10 @@
     <t>Impressions</t>
   </si>
   <si>
-    <t>2025-11-21</t>
+    <t>2025-11-23</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-11-23</t>
   </si>
   <si>
     <t>2025-11-24</t>
@@ -397,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -428,256 +422,256 @@
         <v>5</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>46.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>89.0</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>62.0</v>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>62.0</v>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>62.0</v>
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>62.0</v>
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B8" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>62.0</v>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>62.0</v>
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B10" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>62.0</v>
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B11" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>62.0</v>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B12" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>62.0</v>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B13" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>62.0</v>
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B14" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C14" t="n" s="0">
-        <v>62.0</v>
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B15" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>62.0</v>
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B16" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C16" t="n" s="0">
-        <v>62.0</v>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B17" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>62.0</v>
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B18" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>62.0</v>
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B19" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C19" t="n" s="0">
-        <v>62.0</v>
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B20" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C20" t="n" s="0">
-        <v>62.0</v>
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D20" t="n" s="0">
         <v>2.0</v>
@@ -687,42 +681,42 @@
       <c r="A21" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B21" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C21" t="n" s="0">
-        <v>62.0</v>
+      <c r="B21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B22" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C22" t="n" s="0">
-        <v>62.0</v>
+      <c r="B22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B23" t="n" s="0">
-        <v>73.0</v>
-      </c>
-      <c r="C23" t="n" s="0">
-        <v>62.0</v>
+      <c r="B23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>5</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="24">
@@ -736,7 +730,7 @@
         <v>62.0</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
@@ -744,13 +738,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
@@ -758,13 +752,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>73.0</v>
+        <v>79.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="27">
@@ -778,7 +772,7 @@
         <v>56.0</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="28">
@@ -792,7 +786,7 @@
         <v>56.0</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +800,7 @@
         <v>56.0</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +814,7 @@
         <v>56.0</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -834,7 +828,7 @@
         <v>56.0</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="32">
@@ -848,7 +842,7 @@
         <v>56.0</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -856,13 +850,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -870,13 +864,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>79.0</v>
+        <v>85.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>56.0</v>
+        <v>50.0</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="35">
@@ -890,7 +884,7 @@
         <v>50.0</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -904,7 +898,7 @@
         <v>50.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -932,7 +926,7 @@
         <v>50.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -946,7 +940,7 @@
         <v>50.0</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -960,7 +954,7 @@
         <v>50.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r=